--- a/punch04-02.xlsx
+++ b/punch04-02.xlsx
@@ -54,6 +54,7 @@
       <sz val="10"/>
       <name val="Hiragino Mincho ProN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -72,7 +73,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Noto Sans"/>
+      <name val="Hiragino Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -259,7 +260,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -273,7 +274,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 1</c:f>
+              <c:f>label 0</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -309,6 +310,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -319,7 +321,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>0</c:f>
+              <c:f>1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -571,7 +573,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>1</c:f>
+              <c:f>0</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -864,6 +866,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -874,7 +877,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>0</c:f>
+              <c:f>3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -1383,7 +1386,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 3</c:f>
+              <c:f>label 4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1419,6 +1422,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1429,7 +1433,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>0</c:f>
+              <c:f>5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -1681,7 +1685,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>3</c:f>
+              <c:f>4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -1938,7 +1942,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 4</c:f>
+              <c:f>label 6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1974,6 +1978,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1984,7 +1989,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>0</c:f>
+              <c:f>7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -2236,7 +2241,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>4</c:f>
+              <c:f>6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -2488,18 +2493,18 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="37472507"/>
-        <c:axId val="32048384"/>
+        <c:axId val="35790937"/>
+        <c:axId val="22229864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37472507"/>
+        <c:axId val="35790937"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2522,12 +2527,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32048384"/>
+        <c:crossAx val="22229864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="32048384"/>
+        <c:axId val="22229864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,7 +2570,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37472507"/>
+        <c:crossAx val="35790937"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2619,13 +2624,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>581040</xdr:colOff>
+      <xdr:colOff>581400</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>650880</xdr:colOff>
+      <xdr:colOff>655200</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>3960</xdr:rowOff>
     </xdr:to>
@@ -2635,8 +2640,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6584760" y="853560"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="6616800" y="828360"/>
+        <a:ext cx="5763600" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2657,7 +2662,7 @@
   <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2666,12 +2671,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="16.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="16.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="16.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="6" style="1" width="10.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="16.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="10.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/punch04-02.xlsx
+++ b/punch04-02.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">流行時刻（日）</t>
   </si>
@@ -37,7 +38,19 @@
     <t xml:space="preserve">報告日（65%削減）</t>
   </si>
   <si>
+    <t xml:space="preserve">指数関数1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">移動量1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">移動量2</t>
+  </si>
+  <si>
     <t xml:space="preserve">合算</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
   </si>
 </sst>
 </file>
@@ -49,7 +62,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Hiragino Mincho ProN"/>
@@ -80,6 +93,11 @@
     <font>
       <sz val="10"/>
       <name val="Hiragino Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Hiragino Mincho ProN"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -260,7 +278,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2493,11 +2511,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="35790937"/>
-        <c:axId val="22229864"/>
+        <c:axId val="68897549"/>
+        <c:axId val="14408249"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35790937"/>
+        <c:axId val="68897549"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -2527,12 +2545,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22229864"/>
+        <c:crossAx val="14408249"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="22229864"/>
+        <c:axId val="14408249"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2570,7 +2588,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35790937"/>
+        <c:crossAx val="68897549"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2619,20 +2637,1560 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$17:$K$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.3224852071006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.7751479289941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.7810650887574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.9620562130177</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.2495562130178</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.5755177514793</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.5967455621302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107.280695266272</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>146.526775147929</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>181.527292899408</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>212.592899408284</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240.03424556213</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>263.954881656805</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>284.354807692308</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>301.234023668639</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>314.385428994083</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>323.394304733728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>327.536316568047</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>325.983062130177</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>317.284837278106</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>299.57773668639</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>269.962352071006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>243.349926035503</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>219.32625739645</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>197.683727810651</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>178.21575443787</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>160.611686390533</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>144.767973372781</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>130.477514792899</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>117.63676035503</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>106.038609467456</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>95.5795118343195</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>86.1559171597633</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>77.664275147929</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>70.0010355029586</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>63.0626479289941</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56.8491124260355</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>51.2573964497041</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>46.1834319526627</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41.7307692307692</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37.5887573964497</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33.9644970414201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30.6508875739645</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>27.6479289940828</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>24.9556213017751</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22.5739644970414</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20.3994082840236</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18.4319526627219</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.6715976331361</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.1183431952663</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.6686390532544</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.4260355029586</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.1834319526627</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.1479289940828</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.21597633136093</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.28402366863904</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.55917159763313</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.9378698224852</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.21301775147928</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.59171597633135</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.07396449704141</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.65976331360946</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.2455621301775</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.93491124260354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$17:$L$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.3224852071006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.7751479289941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.7810650887574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.9620562130177</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.2495562130178</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.5755177514793</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.5967455621302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107.280695266272</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>146.526775147929</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>184.53025147929</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>221.084023668639</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>256.291642011834</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>289.842455621302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321.632914201183</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>351.248816568047</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>378.379511834319</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>402.403180473373</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>422.491937869823</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>437.610281065089</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>446.204955621302</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>446.204955621302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>434.710872781065</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>423.527440828402</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>412.654659763314</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>401.988979289941</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>391.7375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>381.589571005917</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>371.752292899408</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>362.225665680473</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>352.906139053254</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>343.897263313609</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>335.09548816568</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>326.500813609467</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>318.11323964497</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>309.932766272189</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>301.959393491124</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>294.193121301775</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>286.633949704142</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>279.281878698225</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>272.136908284024</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>265.199038461538</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>258.364718934911</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>251.7375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>245.213831360947</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>238.89726331361</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>232.68424556213</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>226.781878698225</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>220.983062130178</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>215.287795857988</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>209.799630177515</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>204.415014792899</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>199.133949704142</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>194.059985207101</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>189.089571005917</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>184.32625739645</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>179.66649408284</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>175.110281065089</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>170.657618343195</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>166.30850591716</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>161.959393491124</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>157.817381656805</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>153.778920118343</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>149.84400887574</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>146.012647928994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="20966784"/>
+        <c:axId val="6260432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="20966784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6260432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="6260432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="20966784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.061775655303156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0330335800418027</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0425209185605964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0478051825185973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0646952964460093</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0708168680409013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0831337701207956</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0945632276149882</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.100028280590678</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0975415178485796</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0992763268268569</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0789009925446748</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0485897648536517</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0232160071720521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="30630809"/>
+        <c:axId val="90912329"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="30630809"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="90912329"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90912329"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30630809"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.0451348734257755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.029099008756962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0324187928601825</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0430917293754226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0473404754945881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0648623871658647</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0711691400691718</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0825407633642956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0947425806772225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.100283295208103</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.097498235271222</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.098854194104386</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0794523920973246</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0481964850926238</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0233562257367896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="46050245"/>
+        <c:axId val="25023962"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46050245"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="25023962"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="25023962"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46050245"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.0429208350483045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0140610361567077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0285142950295176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0329614903740409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0426504849778899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0474992690612985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.065196484328576</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0706065560136546</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0827096594127479</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0949863656736421</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.100242006340237</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0970965445088304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0993782969409751</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0790796713873782</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0484444525817138</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0232278701016298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="90229562"/>
+        <c:axId val="7702728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="90229562"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7702728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="7702728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="90229562"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.0138421938024694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00539199208007016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0128467076404498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00898014569081832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0234357263123796</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0138983065165547</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02876563252789</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0327170676594892</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04278912269271</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0475276304739219</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0650193229728936</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0707025267217578</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0828631534514098</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0948016815288677</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.100235265571974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0972455255165329</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0992165759588585</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.079215849354095</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0482759168109645</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0233122312418564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="31819029"/>
+        <c:axId val="50130613"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="31819029"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50130613"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50130613"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="31819029"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>138240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>655200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>210960</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2640,12 +4198,167 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6616800" y="828360"/>
-        <a:ext cx="5763600" cy="3239280"/>
+        <a:off x="14488560" y="3564360"/>
+        <a:ext cx="5771160" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>746280</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>100800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>807120</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>88920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="14282280" y="7416000"/>
+        <a:ext cx="5759280" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>44280</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114480</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>8280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10890000" y="507240"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28080</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>422280</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>7920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10873800" y="4083480"/>
+        <a:ext cx="6083640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1821600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>52200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>294840</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>40680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10762200" y="7692480"/>
+        <a:ext cx="6067800" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>230400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>69840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>300240</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>58320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1042920" y="6734520"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2659,10 +4372,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2672,7 +4385,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="16.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="16.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="16.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="1" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2691,6 +4406,15 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>10.75</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -2702,6 +4426,12 @@
       <c r="C2" s="3" t="n">
         <v>1.34615384615385</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>14.75</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -2763,6 +4493,18 @@
       <c r="E7" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A7-$I$1))</f>
+        <v>0.165625676122653</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">ABS(D7-F7)</f>
+        <v>0.165625676122653</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <f aca="false">AVERAGE(H7:H28)</f>
+        <v>0.393853030614673</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -2780,6 +4522,14 @@
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="F8" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A8-$I$1))</f>
+        <v>0.226428739376608</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <f aca="false">ABS(D8-F8)</f>
+        <v>0.226428739376608</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -2797,6 +4547,14 @@
       <c r="E9" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="F9" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A9-$I$1))</f>
+        <v>0.309553296420732</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <f aca="false">ABS(D9-F9)</f>
+        <v>0.309553296420732</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -2814,6 +4572,14 @@
       <c r="E10" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="F10" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A10-$I$1))</f>
+        <v>0.423193820664096</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <f aca="false">ABS(D10-F10)</f>
+        <v>0.423193820664096</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -2831,6 +4597,14 @@
       <c r="E11" s="5" t="n">
         <v>1.34615384615385</v>
       </c>
+      <c r="F11" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A11-$I$1))</f>
+        <v>0.578553069597615</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <f aca="false">ABS(D11-F11)</f>
+        <v>0.767600776556235</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -2848,6 +4622,14 @@
       <c r="E12" s="5" t="n">
         <v>1.34615384615385</v>
       </c>
+      <c r="F12" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A12-$I$1))</f>
+        <v>0.790946459982706</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <f aca="false">ABS(D12-F12)</f>
+        <v>0.555207386171144</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -2865,6 +4647,14 @@
       <c r="E13" s="5" t="n">
         <v>1.34615384615385</v>
       </c>
+      <c r="F13" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A13-$I$1))</f>
+        <v>1.08131187169101</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <f aca="false">ABS(D13-F13)</f>
+        <v>0.264841974462843</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -2882,6 +4672,14 @@
       <c r="E14" s="5" t="n">
         <v>1.34615384615385</v>
       </c>
+      <c r="F14" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A14-$I$1))</f>
+        <v>1.47827371764895</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <f aca="false">ABS(D14-F14)</f>
+        <v>0.132119871495096</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -2899,6 +4697,14 @@
       <c r="E15" s="5" t="n">
         <v>2.69230769230769</v>
       </c>
+      <c r="F15" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A15-$I$1))</f>
+        <v>2.02096475725747</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <f aca="false">ABS(D15-F15)</f>
+        <v>0.671342935050219</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -2916,6 +4722,14 @@
       <c r="E16" s="5" t="n">
         <v>2.69230769230769</v>
       </c>
+      <c r="F16" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A16-$I$1))</f>
+        <v>2.76288382950651</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <f aca="false">ABS(D16-F16)</f>
+        <v>0.0705761371988212</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -2933,6 +4747,14 @@
       <c r="E17" s="5" t="n">
         <v>4.03846153846154</v>
       </c>
+      <c r="F17" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A17-$I$1))</f>
+        <v>3.77716980364742</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <f aca="false">ABS(D17-F17)</f>
+        <v>0.261291734814117</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
@@ -2950,6 +4772,14 @@
       <c r="E18" s="5" t="n">
         <v>5.38461538461538</v>
       </c>
+      <c r="F18" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A18-$I$1))</f>
+        <v>5.16381165694332</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <f aca="false">ABS(D18-F18)</f>
+        <v>0.220803727672062</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
@@ -2967,6 +4797,22 @@
       <c r="E19" s="5" t="n">
         <v>8.07692307692308</v>
       </c>
+      <c r="F19" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A19-$I$1))</f>
+        <v>7.0595054536957</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <f aca="false">ABS(D19-F19)</f>
+        <v>1.01741762322738</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <f aca="false">AVERAGE(B2:B14)</f>
+        <v>12.3224852071006</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <f aca="false">AVERAGE(C2:C14)</f>
+        <v>12.3224852071006</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
@@ -2984,6 +4830,22 @@
       <c r="E20" s="5" t="n">
         <v>9.42307692307692</v>
       </c>
+      <c r="F20" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A20-$I$1))</f>
+        <v>9.65112993301148</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <f aca="false">ABS(D20-F20)</f>
+        <v>0.228053009934564</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <f aca="false">AVERAGE(B3:B15)</f>
+        <v>16.7751479289941</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <f aca="false">AVERAGE(C3:C15)</f>
+        <v>16.7751479289941</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
@@ -3001,6 +4863,22 @@
       <c r="E21" s="5" t="n">
         <v>13.4615384615385</v>
       </c>
+      <c r="F21" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A21-$I$1))</f>
+        <v>13.1941691375999</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <f aca="false">ABS(D21-F21)</f>
+        <v>0.267369323938556</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <f aca="false">AVERAGE(B4:B16)</f>
+        <v>22.7810650887574</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <f aca="false">AVERAGE(C4:C16)</f>
+        <v>22.7810650887574</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -3018,6 +4896,22 @@
       <c r="E22" s="5" t="n">
         <v>18.8461538461538</v>
       </c>
+      <c r="F22" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A22-$I$1))</f>
+        <v>18.0378981984417</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <f aca="false">ABS(D22-F22)</f>
+        <v>0.808255647712077</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <f aca="false">AVERAGE(B5:B17)</f>
+        <v>30.9620562130177</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <f aca="false">AVERAGE(C5:C17)</f>
+        <v>30.9620562130177</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -3035,6 +4929,22 @@
       <c r="E23" s="5" t="n">
         <v>25.5769230769231</v>
       </c>
+      <c r="F23" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A23-$I$1))</f>
+        <v>24.6598151065185</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <f aca="false">ABS(D23-F23)</f>
+        <v>0.917107970404594</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <f aca="false">AVERAGE(B6:B18)</f>
+        <v>42.2495562130178</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <f aca="false">AVERAGE(C6:C18)</f>
+        <v>42.2495562130178</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -3052,6 +4962,22 @@
       <c r="E24" s="5" t="n">
         <v>33.6538461538462</v>
       </c>
+      <c r="F24" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A24-$I$1))</f>
+        <v>33.7127127782666</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <f aca="false">ABS(D24-F24)</f>
+        <v>0.0588666244203822</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <f aca="false">AVERAGE(B7:B19)</f>
+        <v>57.5755177514793</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <f aca="false">AVERAGE(C7:C19)</f>
+        <v>57.5755177514793</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -3069,6 +4995,22 @@
       <c r="E25" s="5" t="n">
         <v>45.7692307692308</v>
       </c>
+      <c r="F25" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A25-$I$1))</f>
+        <v>46.0890318098722</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <f aca="false">ABS(D25-F25)</f>
+        <v>0.319801040641416</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <f aca="false">AVERAGE(B8:B20)</f>
+        <v>78.5967455621302</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <f aca="false">AVERAGE(C8:C20)</f>
+        <v>78.5967455621302</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
@@ -3086,6 +5028,22 @@
       <c r="E26" s="5" t="n">
         <v>63.2692307692308</v>
       </c>
+      <c r="F26" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A26-$I$1))</f>
+        <v>63.008837857178</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <f aca="false">ABS(D26-F26)</f>
+        <v>0.260392912052794</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <f aca="false">AVERAGE(B9:B21)</f>
+        <v>107.280695266272</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <f aca="false">AVERAGE(C9:C21)</f>
+        <v>107.280695266272</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -3103,6 +5061,22 @@
       <c r="E27" s="5" t="n">
         <v>86.1538461538462</v>
       </c>
+      <c r="F27" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A27-$I$1))</f>
+        <v>86.1400965090735</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <f aca="false">ABS(D27-F27)</f>
+        <v>0.0137496447726875</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <f aca="false">AVERAGE(B10:B22)</f>
+        <v>146.526775147929</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <f aca="false">AVERAGE(C10:C22)</f>
+        <v>146.526775147929</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -3120,6 +5094,22 @@
       <c r="E28" s="7" t="n">
         <v>118.468269230769</v>
       </c>
+      <c r="F28" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A28-$I$1))</f>
+        <v>117.763102430355</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <f aca="false">ABS(D28-F28)</f>
+        <v>0.705166800413736</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <f aca="false">AVERAGE(B11:B23)</f>
+        <v>181.527292899408</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <f aca="false">AVERAGE(C11:C23)</f>
+        <v>184.53025147929</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
@@ -3137,6 +5127,22 @@
       <c r="E29" s="5" t="n">
         <v>157.506730769231</v>
       </c>
+      <c r="F29" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A29-$I$1))</f>
+        <v>160.995272306916</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <f aca="false">ABS(D29-F29)</f>
+        <v>4.83469538383918</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <f aca="false">AVERAGE(B12:B24)</f>
+        <v>212.592899408284</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <f aca="false">AVERAGE(C12:C24)</f>
+        <v>221.084023668639</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -3154,6 +5160,22 @@
       <c r="E30" s="5" t="n">
         <v>199.2375</v>
       </c>
+      <c r="F30" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A30-$I$1))</f>
+        <v>220.09846182939</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <f aca="false">ABS(D30-F30)</f>
+        <v>23.5532695216982</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <f aca="false">AVERAGE(B13:B25)</f>
+        <v>240.03424556213</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <f aca="false">AVERAGE(C13:C25)</f>
+        <v>256.291642011834</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
@@ -3171,6 +5193,22 @@
       <c r="E31" s="5" t="n">
         <v>242.314423076923</v>
       </c>
+      <c r="F31" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A31-$I$1))</f>
+        <v>300.899102225267</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <f aca="false">ABS(D31-F31)</f>
+        <v>66.6616022252671</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <f aca="false">AVERAGE(B14:B26)</f>
+        <v>263.954881656805</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <f aca="false">AVERAGE(C14:C26)</f>
+        <v>289.842455621302</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
@@ -3188,6 +5226,22 @@
       <c r="E32" s="5" t="n">
         <v>282.699038461538</v>
       </c>
+      <c r="F32" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A32-$I$1))</f>
+        <v>411.36257367466</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <f aca="false">ABS(D32-F32)</f>
+        <v>146.163535213122</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <f aca="false">AVERAGE(B15:B27)</f>
+        <v>284.354807692308</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <f aca="false">AVERAGE(C15:C27)</f>
+        <v>321.632914201183</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -3205,6 +5259,22 @@
       <c r="E33" s="5" t="n">
         <v>317.699038461538</v>
       </c>
+      <c r="F33" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A33-$I$1))</f>
+        <v>562.378437718151</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <f aca="false">ABS(D33-F33)</f>
+        <v>272.948630025843</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <f aca="false">AVERAGE(B16:B28)</f>
+        <v>301.234023668639</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <f aca="false">AVERAGE(C16:C28)</f>
+        <v>351.248816568047</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
@@ -3222,6 +5292,22 @@
       <c r="E34" s="5" t="n">
         <v>347.314423076923</v>
       </c>
+      <c r="F34" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A34-$I$1))</f>
+        <v>768.833937383037</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <f aca="false">ABS(D34-F34)</f>
+        <v>463.250283536883</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <f aca="false">AVERAGE(B17:B29)</f>
+        <v>314.385428994083</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <f aca="false">AVERAGE(C17:C29)</f>
+        <v>378.379511834319</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -3239,6 +5325,22 @@
       <c r="E35" s="5" t="n">
         <v>370.199038461538</v>
       </c>
+      <c r="F35" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A35-$I$1))</f>
+        <v>1051.08159137522</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <f aca="false">ABS(D35-F35)</f>
+        <v>737.421014452141</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <f aca="false">AVERAGE(B18:B30)</f>
+        <v>323.394304733728</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <f aca="false">AVERAGE(C18:C30)</f>
+        <v>402.403180473373</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
@@ -3256,6 +5358,22 @@
       <c r="E36" s="5" t="n">
         <v>387.699038461538</v>
       </c>
+      <c r="F36" s="1" t="n">
+        <f aca="false">EXP(0.3127*(A36-$I$1))</f>
+        <v>1436.94555873573</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <f aca="false">ABS(D36-F36)</f>
+        <v>1121.9388279665</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <f aca="false">AVERAGE(B19:B31)</f>
+        <v>327.536316568047</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <f aca="false">AVERAGE(C19:C31)</f>
+        <v>422.491937869823</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
@@ -3273,6 +5391,14 @@
       <c r="E37" s="5" t="n">
         <v>401.160576923077</v>
       </c>
+      <c r="K37" s="1" t="n">
+        <f aca="false">AVERAGE(B20:B32)</f>
+        <v>325.983062130177</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <f aca="false">AVERAGE(C20:C32)</f>
+        <v>437.610281065089</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
@@ -3290,6 +5416,14 @@
       <c r="E38" s="5" t="n">
         <v>409.2375</v>
       </c>
+      <c r="K38" s="1" t="n">
+        <f aca="false">AVERAGE(B21:B33)</f>
+        <v>317.284837278106</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <f aca="false">AVERAGE(C21:C33)</f>
+        <v>446.204955621302</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
@@ -3307,6 +5441,14 @@
       <c r="E39" s="7" t="n">
         <v>413.275961538462</v>
       </c>
+      <c r="K39" s="1" t="n">
+        <f aca="false">AVERAGE(B22:B34)</f>
+        <v>299.57773668639</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <f aca="false">AVERAGE(C22:C34)</f>
+        <v>446.204955621302</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
@@ -3324,6 +5466,14 @@
       <c r="E40" s="7" t="n">
         <v>413.275961538462</v>
       </c>
+      <c r="K40" s="1" t="n">
+        <f aca="false">AVERAGE(B23:B35)</f>
+        <v>269.962352071006</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <f aca="false">AVERAGE(C23:C35)</f>
+        <v>434.710872781065</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -3341,6 +5491,14 @@
       <c r="E41" s="5" t="n">
         <v>411.929807692308</v>
       </c>
+      <c r="K41" s="1" t="n">
+        <f aca="false">AVERAGE(B24:B36)</f>
+        <v>243.349926035503</v>
+      </c>
+      <c r="L41" s="1" t="n">
+        <f aca="false">AVERAGE(C24:C36)</f>
+        <v>423.527440828402</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
@@ -3358,6 +5516,14 @@
       <c r="E42" s="5" t="n">
         <v>409.2375</v>
       </c>
+      <c r="K42" s="1" t="n">
+        <f aca="false">AVERAGE(B25:B37)</f>
+        <v>219.32625739645</v>
+      </c>
+      <c r="L42" s="1" t="n">
+        <f aca="false">AVERAGE(C25:C37)</f>
+        <v>412.654659763314</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
@@ -3375,6 +5541,14 @@
       <c r="E43" s="5" t="n">
         <v>403.852884615385</v>
       </c>
+      <c r="K43" s="1" t="n">
+        <f aca="false">AVERAGE(B26:B38)</f>
+        <v>197.683727810651</v>
+      </c>
+      <c r="L43" s="1" t="n">
+        <f aca="false">AVERAGE(C26:C38)</f>
+        <v>401.988979289941</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
@@ -3392,6 +5566,14 @@
       <c r="E44" s="5" t="n">
         <v>398.468269230769</v>
       </c>
+      <c r="K44" s="1" t="n">
+        <f aca="false">AVERAGE(B27:B39)</f>
+        <v>178.21575443787</v>
+      </c>
+      <c r="L44" s="1" t="n">
+        <f aca="false">AVERAGE(C27:C39)</f>
+        <v>391.7375</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
@@ -3409,6 +5591,14 @@
       <c r="E45" s="5" t="n">
         <v>391.7375</v>
       </c>
+      <c r="K45" s="1" t="n">
+        <f aca="false">AVERAGE(B28:B40)</f>
+        <v>160.611686390533</v>
+      </c>
+      <c r="L45" s="1" t="n">
+        <f aca="false">AVERAGE(C28:C40)</f>
+        <v>381.589571005917</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
@@ -3426,6 +5616,14 @@
       <c r="E46" s="5" t="n">
         <v>383.660576923077</v>
       </c>
+      <c r="K46" s="1" t="n">
+        <f aca="false">AVERAGE(B29:B41)</f>
+        <v>144.767973372781</v>
+      </c>
+      <c r="L46" s="1" t="n">
+        <f aca="false">AVERAGE(C29:C41)</f>
+        <v>371.752292899408</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
@@ -3443,6 +5641,14 @@
       <c r="E47" s="5" t="n">
         <v>375.583653846154</v>
       </c>
+      <c r="K47" s="1" t="n">
+        <f aca="false">AVERAGE(B30:B42)</f>
+        <v>130.477514792899</v>
+      </c>
+      <c r="L47" s="1" t="n">
+        <f aca="false">AVERAGE(C30:C42)</f>
+        <v>362.225665680473</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
@@ -3460,6 +5666,14 @@
       <c r="E48" s="5" t="n">
         <v>367.506730769231</v>
       </c>
+      <c r="K48" s="1" t="n">
+        <f aca="false">AVERAGE(B31:B43)</f>
+        <v>117.63676035503</v>
+      </c>
+      <c r="L48" s="1" t="n">
+        <f aca="false">AVERAGE(C31:C43)</f>
+        <v>352.906139053254</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
@@ -3477,6 +5691,14 @@
       <c r="E49" s="5" t="n">
         <v>359.429807692308</v>
       </c>
+      <c r="K49" s="1" t="n">
+        <f aca="false">AVERAGE(B32:B44)</f>
+        <v>106.038609467456</v>
+      </c>
+      <c r="L49" s="1" t="n">
+        <f aca="false">AVERAGE(C32:C44)</f>
+        <v>343.897263313609</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
@@ -3494,6 +5716,14 @@
       <c r="E50" s="5" t="n">
         <v>351.352884615385</v>
       </c>
+      <c r="K50" s="1" t="n">
+        <f aca="false">AVERAGE(B33:B45)</f>
+        <v>95.5795118343195</v>
+      </c>
+      <c r="L50" s="1" t="n">
+        <f aca="false">AVERAGE(C33:C45)</f>
+        <v>335.09548816568</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
@@ -3511,6 +5741,22 @@
       <c r="E51" s="5" t="n">
         <v>341.929807692308</v>
       </c>
+      <c r="G51" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A51-$I$2-20))</f>
+        <v>117.631141793267</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <f aca="false">ABS(D51-G51)</f>
+        <v>8.58594948557482</v>
+      </c>
+      <c r="K51" s="1" t="n">
+        <f aca="false">AVERAGE(B34:B46)</f>
+        <v>86.1559171597633</v>
+      </c>
+      <c r="L51" s="1" t="n">
+        <f aca="false">AVERAGE(C34:C46)</f>
+        <v>326.500813609467</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
@@ -3528,6 +5774,22 @@
       <c r="E52" s="5" t="n">
         <v>333.852884615385</v>
       </c>
+      <c r="G52" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A52-$I$2-20))</f>
+        <v>105.980361870478</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <f aca="false">ABS(D52-G52)</f>
+        <v>6.36497725509382</v>
+      </c>
+      <c r="K52" s="1" t="n">
+        <f aca="false">AVERAGE(B35:B47)</f>
+        <v>77.664275147929</v>
+      </c>
+      <c r="L52" s="1" t="n">
+        <f aca="false">AVERAGE(C35:C47)</f>
+        <v>318.11323964497</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
@@ -3545,6 +5807,22 @@
       <c r="E53" s="5" t="n">
         <v>325.775961538462</v>
       </c>
+      <c r="G53" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A53-$I$2-20))</f>
+        <v>95.483533790203</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <f aca="false">ABS(D53-G53)</f>
+        <v>5.29122609789545</v>
+      </c>
+      <c r="K53" s="1" t="n">
+        <f aca="false">AVERAGE(B36:B48)</f>
+        <v>70.0010355029586</v>
+      </c>
+      <c r="L53" s="1" t="n">
+        <f aca="false">AVERAGE(C36:C48)</f>
+        <v>309.932766272189</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
@@ -3562,6 +5840,22 @@
       <c r="E54" s="5" t="n">
         <v>317.699038461539</v>
       </c>
+      <c r="G54" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A54-$I$2-20))</f>
+        <v>86.0263643580224</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <f aca="false">ABS(D54-G54)</f>
+        <v>5.25713358879175</v>
+      </c>
+      <c r="K54" s="1" t="n">
+        <f aca="false">AVERAGE(B37:B49)</f>
+        <v>63.0626479289941</v>
+      </c>
+      <c r="L54" s="1" t="n">
+        <f aca="false">AVERAGE(C37:C49)</f>
+        <v>301.959393491124</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
@@ -3579,6 +5873,22 @@
       <c r="E55" s="5" t="n">
         <v>309.622115384616</v>
       </c>
+      <c r="G55" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A55-$I$2-20))</f>
+        <v>77.5058805523446</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <f aca="false">ABS(D55-G55)</f>
+        <v>3.46741901388307</v>
+      </c>
+      <c r="K55" s="1" t="n">
+        <f aca="false">AVERAGE(B38:B50)</f>
+        <v>56.8491124260355</v>
+      </c>
+      <c r="L55" s="1" t="n">
+        <f aca="false">AVERAGE(C38:C50)</f>
+        <v>294.193121301775</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
@@ -3596,6 +5906,22 @@
       <c r="E56" s="5" t="n">
         <v>301.545192307693</v>
       </c>
+      <c r="G56" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A56-$I$2-20))</f>
+        <v>69.8293083175507</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <f aca="false">ABS(D56-G56)</f>
+        <v>3.86776985601232</v>
+      </c>
+      <c r="K56" s="1" t="n">
+        <f aca="false">AVERAGE(B39:B51)</f>
+        <v>51.2573964497041</v>
+      </c>
+      <c r="L56" s="1" t="n">
+        <f aca="false">AVERAGE(C39:C51)</f>
+        <v>286.633949704142</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
@@ -3613,6 +5939,22 @@
       <c r="E57" s="5" t="n">
         <v>294.814423076923</v>
       </c>
+      <c r="G57" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A57-$I$2-20))</f>
+        <v>62.9130624071086</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <f aca="false">ABS(D57-G57)</f>
+        <v>2.33613933018559</v>
+      </c>
+      <c r="K57" s="1" t="n">
+        <f aca="false">AVERAGE(B40:B52)</f>
+        <v>46.1834319526627</v>
+      </c>
+      <c r="L57" s="1" t="n">
+        <f aca="false">AVERAGE(C40:C52)</f>
+        <v>279.281878698225</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
@@ -3630,6 +5972,22 @@
       <c r="E58" s="5" t="n">
         <v>286.7375</v>
       </c>
+      <c r="G58" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A58-$I$2-20))</f>
+        <v>56.6818362777042</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <f aca="false">ABS(D58-G58)</f>
+        <v>2.83568243155041</v>
+      </c>
+      <c r="K58" s="1" t="n">
+        <f aca="false">AVERAGE(B41:B53)</f>
+        <v>41.7307692307692</v>
+      </c>
+      <c r="L58" s="1" t="n">
+        <f aca="false">AVERAGE(C41:C53)</f>
+        <v>272.136908284024</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
@@ -3647,6 +6005,22 @@
       <c r="E59" s="5" t="n">
         <v>280.006730769231</v>
       </c>
+      <c r="G59" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A59-$I$2-20))</f>
+        <v>51.0677821248366</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <f aca="false">ABS(D59-G59)</f>
+        <v>2.60624366329814</v>
+      </c>
+      <c r="K59" s="1" t="n">
+        <f aca="false">AVERAGE(B42:B54)</f>
+        <v>37.5887573964497</v>
+      </c>
+      <c r="L59" s="1" t="n">
+        <f aca="false">AVERAGE(C42:C54)</f>
+        <v>265.199038461538</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
@@ -3664,6 +6038,22 @@
       <c r="E60" s="5" t="n">
         <v>271.929807692308</v>
       </c>
+      <c r="G60" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A60-$I$2-20))</f>
+        <v>46.0097721318108</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <f aca="false">ABS(D60-G60)</f>
+        <v>1.58669520873396</v>
+      </c>
+      <c r="K60" s="1" t="n">
+        <f aca="false">AVERAGE(B43:B55)</f>
+        <v>33.9644970414201</v>
+      </c>
+      <c r="L60" s="1" t="n">
+        <f aca="false">AVERAGE(C43:C55)</f>
+        <v>258.364718934911</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
@@ -3681,6 +6071,22 @@
       <c r="E61" s="5" t="n">
         <v>265.199038461539</v>
       </c>
+      <c r="G61" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A61-$I$2-20))</f>
+        <v>41.452732888347</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <f aca="false">ABS(D61-G61)</f>
+        <v>1.06811750373166</v>
+      </c>
+      <c r="K61" s="1" t="n">
+        <f aca="false">AVERAGE(B44:B56)</f>
+        <v>30.6508875739645</v>
+      </c>
+      <c r="L61" s="1" t="n">
+        <f aca="false">AVERAGE(C44:C56)</f>
+        <v>251.7375</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
@@ -3698,6 +6104,22 @@
       <c r="E62" s="5" t="n">
         <v>258.468269230769</v>
       </c>
+      <c r="G62" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A62-$I$2-20))</f>
+        <v>37.3470457317176</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <f aca="false">ABS(D62-G62)</f>
+        <v>1.00089188556381</v>
+      </c>
+      <c r="K62" s="1" t="n">
+        <f aca="false">AVERAGE(B45:B57)</f>
+        <v>27.6479289940828</v>
+      </c>
+      <c r="L62" s="1" t="n">
+        <f aca="false">AVERAGE(C45:C57)</f>
+        <v>245.213831360947</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
@@ -3715,6 +6137,22 @@
       <c r="E63" s="5" t="n">
         <v>251.7375</v>
       </c>
+      <c r="G63" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A63-$I$2-20))</f>
+        <v>33.6480064811145</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <f aca="false">ABS(D63-G63)</f>
+        <v>1.34031417342228</v>
+      </c>
+      <c r="K63" s="1" t="n">
+        <f aca="false">AVERAGE(B46:B58)</f>
+        <v>24.9556213017751</v>
+      </c>
+      <c r="L63" s="1" t="n">
+        <f aca="false">AVERAGE(C46:C58)</f>
+        <v>238.89726331361</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
@@ -3732,6 +6170,22 @@
       <c r="E64" s="5" t="n">
         <v>245.006730769231</v>
       </c>
+      <c r="G64" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A64-$I$2-20))</f>
+        <v>30.3153386826416</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <f aca="false">ABS(D64-G64)</f>
+        <v>0.699954067257064</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <f aca="false">AVERAGE(B47:B59)</f>
+        <v>22.5739644970414</v>
+      </c>
+      <c r="L64" s="1" t="n">
+        <f aca="false">AVERAGE(C47:C59)</f>
+        <v>232.68424556213</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
@@ -3749,6 +6203,22 @@
       <c r="E65" s="5" t="n">
         <v>239.622115384616</v>
       </c>
+      <c r="G65" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A65-$I$2-20))</f>
+        <v>27.3127550649718</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <f aca="false">ABS(D65-G65)</f>
+        <v>0.389678141895018</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <f aca="false">AVERAGE(B48:B60)</f>
+        <v>20.3994082840236</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <f aca="false">AVERAGE(C48:C60)</f>
+        <v>226.781878698225</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
@@ -3766,6 +6236,22 @@
       <c r="E66" s="5" t="n">
         <v>232.891346153846</v>
       </c>
+      <c r="G66" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A66-$I$2-20))</f>
+        <v>24.6075624306415</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <f aca="false">ABS(D66-G66)</f>
+        <v>0.376793199872289</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <f aca="false">AVERAGE(B49:B61)</f>
+        <v>18.4319526627219</v>
+      </c>
+      <c r="L66" s="1" t="n">
+        <f aca="false">AVERAGE(C49:C61)</f>
+        <v>220.983062130178</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
@@ -3783,6 +6269,22 @@
       <c r="E67" s="5" t="n">
         <v>227.506730769231</v>
       </c>
+      <c r="G67" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A67-$I$2-20))</f>
+        <v>22.1703056808979</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <f aca="false">ABS(D67-G67)</f>
+        <v>0.631844142436446</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <f aca="false">AVERAGE(B50:B62)</f>
+        <v>16.6715976331361</v>
+      </c>
+      <c r="L67" s="1" t="n">
+        <f aca="false">AVERAGE(C50:C62)</f>
+        <v>215.287795857988</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
@@ -3800,6 +6302,22 @@
       <c r="E68" s="5" t="n">
         <v>220.775961538462</v>
       </c>
+      <c r="G68" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A68-$I$2-20))</f>
+        <v>19.9744470981168</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <f aca="false">ABS(D68-G68)</f>
+        <v>0.217860594190764</v>
+      </c>
+      <c r="K68" s="1" t="n">
+        <f aca="false">AVERAGE(B51:B63)</f>
+        <v>15.1183431952663</v>
+      </c>
+      <c r="L68" s="1" t="n">
+        <f aca="false">AVERAGE(C51:C63)</f>
+        <v>209.799630177515</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
@@ -3817,6 +6335,22 @@
       <c r="E69" s="5" t="n">
         <v>215.391346153846</v>
       </c>
+      <c r="G69" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A69-$I$2-20))</f>
+        <v>17.9960773937019</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <f aca="false">ABS(D69-G69)</f>
+        <v>0.496077393701977</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <f aca="false">AVERAGE(B52:B64)</f>
+        <v>13.6686390532544</v>
+      </c>
+      <c r="L69" s="1" t="n">
+        <f aca="false">AVERAGE(C52:C64)</f>
+        <v>204.415014792899</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
@@ -3834,6 +6368,22 @@
       <c r="E70" s="5" t="n">
         <v>210.006730769231</v>
       </c>
+      <c r="G70" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A70-$I$2-20))</f>
+        <v>16.213655375254</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <f aca="false">ABS(D70-G70)</f>
+        <v>0.059809221407864</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <f aca="false">AVERAGE(B53:B65)</f>
+        <v>12.4260355029586</v>
+      </c>
+      <c r="L70" s="1" t="n">
+        <f aca="false">AVERAGE(C53:C65)</f>
+        <v>199.133949704142</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
@@ -3851,6 +6401,22 @@
       <c r="E71" s="5" t="n">
         <v>204.622115384615</v>
       </c>
+      <c r="G71" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A71-$I$2-20))</f>
+        <v>14.6077733984131</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <f aca="false">ABS(D71-G71)</f>
+        <v>0.199918909279102</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <f aca="false">AVERAGE(B54:B66)</f>
+        <v>11.1834319526627</v>
+      </c>
+      <c r="L71" s="1" t="n">
+        <f aca="false">AVERAGE(C54:C66)</f>
+        <v>194.059985207101</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
@@ -3868,6 +6434,22 @@
       <c r="E72" s="5" t="n">
         <v>199.2375</v>
       </c>
+      <c r="G72" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A72-$I$2-20))</f>
+        <v>13.1609460495298</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <f aca="false">ABS(D72-G72)</f>
+        <v>0.300592412008651</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <f aca="false">AVERAGE(B55:B67)</f>
+        <v>10.1479289940828</v>
+      </c>
+      <c r="L72" s="1" t="n">
+        <f aca="false">AVERAGE(C55:C67)</f>
+        <v>189.089571005917</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
@@ -3885,6 +6467,22 @@
       <c r="E73" s="5" t="n">
         <v>193.852884615385</v>
       </c>
+      <c r="G73" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A73-$I$2-20))</f>
+        <v>11.8574197582672</v>
+      </c>
+      <c r="H73" s="1" t="n">
+        <f aca="false">ABS(D73-G73)</f>
+        <v>0.257964857117351</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <f aca="false">AVERAGE(B56:B68)</f>
+        <v>9.21597633136093</v>
+      </c>
+      <c r="L73" s="1" t="n">
+        <f aca="false">AVERAGE(C56:C68)</f>
+        <v>184.32625739645</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
@@ -3902,6 +6500,22 @@
       <c r="E74" s="5" t="n">
         <v>189.814423076923</v>
       </c>
+      <c r="G74" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A74-$I$2-20))</f>
+        <v>10.6830012671291</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <f aca="false">ABS(D74-G74)</f>
+        <v>0.0862295021015953</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <f aca="false">AVERAGE(B57:B69)</f>
+        <v>8.28402366863904</v>
+      </c>
+      <c r="L74" s="1" t="n">
+        <f aca="false">AVERAGE(C57:C69)</f>
+        <v>179.66649408284</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
@@ -3919,6 +6533,22 @@
       <c r="E75" s="5" t="n">
         <v>184.429807692308</v>
       </c>
+      <c r="G75" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A75-$I$2-20))</f>
+        <v>9.62490309022851</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <f aca="false">ABS(D75-G75)</f>
+        <v>0.201826167151664</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <f aca="false">AVERAGE(B58:B70)</f>
+        <v>7.55917159763313</v>
+      </c>
+      <c r="L75" s="1" t="n">
+        <f aca="false">AVERAGE(C58:C70)</f>
+        <v>175.110281065089</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
@@ -3936,6 +6566,22 @@
       <c r="E76" s="5" t="n">
         <v>180.391346153846</v>
       </c>
+      <c r="G76" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A76-$I$2-20))</f>
+        <v>8.67160427859667</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <f aca="false">ABS(D76-G76)</f>
+        <v>0.751472644480179</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <f aca="false">AVERAGE(B59:B71)</f>
+        <v>6.9378698224852</v>
+      </c>
+      <c r="L76" s="1" t="n">
+        <f aca="false">AVERAGE(C59:C71)</f>
+        <v>170.657618343195</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
@@ -3953,6 +6599,22 @@
       <c r="E77" s="5" t="n">
         <v>175.006730769231</v>
       </c>
+      <c r="G77" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A77-$I$2-20))</f>
+        <v>7.81272497599669</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <f aca="false">ABS(D77-G77)</f>
+        <v>0.264198100926318</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <f aca="false">AVERAGE(B60:B72)</f>
+        <v>6.21301775147928</v>
+      </c>
+      <c r="L77" s="1" t="n">
+        <f aca="false">AVERAGE(C60:C72)</f>
+        <v>166.30850591716</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
@@ -3970,6 +6632,22 @@
       <c r="E78" s="5" t="n">
         <v>170.968269230769</v>
       </c>
+      <c r="G78" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A78-$I$2-20))</f>
+        <v>7.0389133993601</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <f aca="false">ABS(D78-G78)</f>
+        <v>0.308144168590943</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <f aca="false">AVERAGE(B61:B73)</f>
+        <v>5.59171597633135</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <f aca="false">AVERAGE(C61:C73)</f>
+        <v>161.959393491124</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
@@ -3987,6 +6665,22 @@
       <c r="E79" s="5" t="n">
         <v>165.583653846154</v>
       </c>
+      <c r="G79" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A79-$I$2-20))</f>
+        <v>6.34174401324942</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <f aca="false">ABS(D79-G79)</f>
+        <v>0.389025217519739</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <f aca="false">AVERAGE(B62:B74)</f>
+        <v>5.07396449704141</v>
+      </c>
+      <c r="L79" s="1" t="n">
+        <f aca="false">AVERAGE(C62:C74)</f>
+        <v>157.817381656805</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
@@ -4004,6 +6698,22 @@
       <c r="E80" s="5" t="n">
         <v>161.545192307692</v>
       </c>
+      <c r="G80" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A80-$I$2-20))</f>
+        <v>5.71362578963409</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <f aca="false">ABS(D80-G80)</f>
+        <v>0.329010405018778</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <f aca="false">AVERAGE(B63:B75)</f>
+        <v>4.65976331360946</v>
+      </c>
+      <c r="L80" s="1" t="n">
+        <f aca="false">AVERAGE(C63:C75)</f>
+        <v>153.778920118343</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
@@ -4021,6 +6731,22 @@
       <c r="E81" s="5" t="n">
         <v>157.506730769231</v>
       </c>
+      <c r="G81" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A81-$I$2-20))</f>
+        <v>5.14771955407968</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <f aca="false">ABS(D81-G81)</f>
+        <v>0.236895830535635</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <f aca="false">AVERAGE(B64:B76)</f>
+        <v>4.2455621301775</v>
+      </c>
+      <c r="L81" s="1" t="n">
+        <f aca="false">AVERAGE(C64:C76)</f>
+        <v>149.84400887574</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
@@ -4038,10 +6764,30 @@
       <c r="E82" s="5" t="n">
         <v>153.468269230769</v>
       </c>
+      <c r="G82" s="1" t="n">
+        <f aca="false">520*EXP(-0.1043*(A82-$I$2-20))</f>
+        <v>4.63786351838616</v>
+      </c>
+      <c r="H82" s="1" t="n">
+        <f aca="false">ABS(D82-G82)</f>
+        <v>0.746751866229146</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <f aca="false">AVERAGE(H65:H82)</f>
+        <v>0.346894043025748</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <f aca="false">AVERAGE(B65:B77)</f>
+        <v>3.93491124260354</v>
+      </c>
+      <c r="L82" s="1" t="n">
+        <f aca="false">AVERAGE(C65:C77)</f>
+        <v>146.012647928994</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B83" s="2" t="n">
         <f aca="false">SUM(B2:B82)</f>
@@ -4070,4 +6816,1015 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:M69"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I37" activeCellId="0" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="1" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="25.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="n">
+        <v>1.12327996471184</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.061775655303156</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-0.00697420228057542</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.0451348734257755</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.0429208350483045</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.0138421938024694</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J2*$M$2)*EXP(-POWER(LOG(J2)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>1.07981933026376</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>-0.7354761022403</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.0330335800418027</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>-0.0159199695833129</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.029099008756962</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.0140610361567077</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.00539199208007016</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J3*$M$2)*EXP(-POWER(LOG(J3)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>1.50159582492146</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>0.0280591130062911</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.0425209185605964</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.328797531025692</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.0324187928601825</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.0285142950295176</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.0128467076404498</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J4*$M$2)*EXP(-POWER(LOG(J4)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>1.53937591940225</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>0.0612469640888136</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.0478051825185973</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.00419829578325327</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.0430917293754226</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.0329614903740409</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.00898014569081832</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J5*$M$2)*EXP(-POWER(LOG(J5)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>1.45322740304836</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>0.0537634710543376</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.0646952964460093</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.318342033875975</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.0473404754945881</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.0426504849778899</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.0234357263123796</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J6*$M$2)*EXP(-POWER(LOG(J6)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>1.33124914914609</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>0.074723616815351</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.0708168680409013</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.642372510822393</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.0648623871658647</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.0474992690612985</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.0138983065165547</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J7*$M$2)*EXP(-POWER(LOG(J7)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>1.20514577617999</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>0.0914529585234447</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.0831337701207956</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>-0.628142900416092</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.0711691400691718</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.065196484328576</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.02876563252789</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J8*$M$2)*EXP(-POWER(LOG(J8)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>1.0864270289436</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>0.0805739405456047</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.0945632276149882</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.642974318480073</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.0825407633642956</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.0706065560136546</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.0327170676594892</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J9*$M$2)*EXP(-POWER(LOG(J9)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.978797107494311</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>0.104279286952616</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.100028280590678</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.044824247327532</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.0947425806772225</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.0827096594127479</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.04278912269271</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J10*$M$2)*EXP(-POWER(LOG(J10)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.88283378692787</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>0.103535766946964</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.0975415178485796</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.0161327408030588</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.100283295208103</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.0949863656736421</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.0475276304739219</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J11*$M$2)*EXP(-POWER(LOG(J11)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.797884560802865</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>0.0982515678606666</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.0992763268268569</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>-0.00757599201969699</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.097498235271222</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.100242006340237</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.0650193229728936</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J12*$M$2)*EXP(-POWER(LOG(J12)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.722868292680364</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
+        <v>0.0689666573752724</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.0789009925446748</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.622265434211488</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.098854194104386</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.0970965445088304</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.0707025267217578</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J13*$M$2)*EXP(-POWER(LOG(J13)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.656618401489037</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>0.0615904421747406</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.0485897648536517</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">49.1505200930414</f>
+        <v>49.1505200930414</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.0794523920973246</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.0993782969409751</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.0828631534514098</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J14*$M$2)*EXP(-POWER(LOG(J14)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.59802555478998</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>0.0169116593288288</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.0232160071720521</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>-54.9597623534308</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.0481964850926238</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.0790796713873782</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.0948016815288677</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J15*$M$2)*EXP(-POWER(LOG(J15)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.546090593473415</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="0" t="n">
+        <v>0.0233562257367896</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.0484444525817138</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.100235265571974</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J16*$M$2)*EXP(-POWER(LOG(J16)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.499937232327822</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="0" t="n">
+        <v>0.0232278701016298</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.0972455255165329</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J17*$M$2)*EXP(-POWER(LOG(J17)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.458807330396794</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="0" t="n">
+        <v>0.0992165759588585</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J18*$M$2)*EXP(-POWER(LOG(J18)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.42204935600144</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="0" t="n">
+        <v>0.079215849354095</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J19*$M$2)*EXP(-POWER(LOG(J19)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.389104971843141</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="0" t="n">
+        <v>0.0482759168109645</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J20*$M$2)*EXP(-POWER(LOG(J20)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.359495945911008</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="0" t="n">
+        <v>0.0233122312418564</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J21*$M$2)*EXP(-POWER(LOG(J21)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.332812287286522</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J22" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J22*$M$2)*EXP(-POWER(LOG(J22)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.308701883786458</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J23*$M$2)*EXP(-POWER(LOG(J23)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.286861632072851</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J24*$M$2)*EXP(-POWER(LOG(J24)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.267029929788053</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J25" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J25*$M$2)*EXP(-POWER(LOG(J25)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.248980358626595</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J26*$M$2)*EXP(-POWER(LOG(J26)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.232516384487737</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J27" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J27*$M$2)*EXP(-POWER(LOG(J27)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.217466914617736</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J28" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J28*$M$2)*EXP(-POWER(LOG(J28)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.203682571366083</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J29*$M$2)*EXP(-POWER(LOG(J29)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.191032562759714</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J30" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J30*$M$2)*EXP(-POWER(LOG(J30)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.17940204926173</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J31*$M$2)*EXP(-POWER(LOG(J31)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.168689922957026</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J32" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J32*$M$2)*EXP(-POWER(LOG(J32)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.158806929817626</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J33" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J33*$M$2)*EXP(-POWER(LOG(J33)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.149674077784386</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J34" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J34*$M$2)*EXP(-POWER(LOG(J34)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.141221283424687</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J35" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J35*$M$2)*EXP(-POWER(LOG(J35)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.13338621818587</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J36" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J36*$M$2)*EXP(-POWER(LOG(J36)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.126113322046993</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J37" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J37*$M$2)*EXP(-POWER(LOG(J37)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.119352957931938</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J38" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J38*$M$2)*EXP(-POWER(LOG(J38)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.113060684803631</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J39" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J39*$M$2)*EXP(-POWER(LOG(J39)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.107196631095316</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J40" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J40*$M$2)*EXP(-POWER(LOG(J40)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.101724953201961</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J41*$M$2)*EXP(-POWER(LOG(J41)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0966133662768581</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J42" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J42*$M$2)*EXP(-POWER(LOG(J42)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0918327366564223</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J43" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J43*$M$2)*EXP(-POWER(LOG(J43)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0873567269519289</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J44" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J44*$M$2)*EXP(-POWER(LOG(J44)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.083161486267039</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J45" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J45*$M$2)*EXP(-POWER(LOG(J45)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0792253791782327</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J46" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J46*$M$2)*EXP(-POWER(LOG(J46)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0755287480953662</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J47" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J47*$M$2)*EXP(-POWER(LOG(J47)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0720537044369165</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J48" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J48*$M$2)*EXP(-POWER(LOG(J48)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0687839447378499</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J49" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J49*$M$2)*EXP(-POWER(LOG(J49)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0657045883808789</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J50" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J50*$M$2)*EXP(-POWER(LOG(J50)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0628020341232608</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J51" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J51*$M$2)*EXP(-POWER(LOG(J51)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0600638329968584</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J52" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J52*$M$2)*EXP(-POWER(LOG(J52)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0574785755017199</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J53" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J53*$M$2)*EXP(-POWER(LOG(J53)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0550357913034452</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J54" s="0" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J54*$M$2)*EXP(-POWER(LOG(J54)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0527258598907346</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J55" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J55*$M$2)*EXP(-POWER(LOG(J55)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0505399308588955</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J56" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J56*$M$2)*EXP(-POWER(LOG(J56)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0484698526636093</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J57" s="0" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J57*$M$2)*EXP(-POWER(LOG(J57)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0465081088418269</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J58" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J58*$M$2)*EXP(-POWER(LOG(J58)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.04464776082733</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J59" s="0" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J59*$M$2)*EXP(-POWER(LOG(J59)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0428823966006454</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J60" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J60*$M$2)*EXP(-POWER(LOG(J60)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0412060845094715</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J61" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J61*$M$2)*EXP(-POWER(LOG(J61)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0396133316789142</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J62" s="0" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J62*$M$2)*EXP(-POWER(LOG(J62)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.03809904650264</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J63" s="0" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J63*$M$2)*EXP(-POWER(LOG(J63)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0366585047681858</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J64" s="0" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J64*$M$2)*EXP(-POWER(LOG(J64)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.035287319023538</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J65" s="0" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J65*$M$2)*EXP(-POWER(LOG(J65)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0339814108388825</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J66" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J66*$M$2)*EXP(-POWER(LOG(J66)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0327369856581485</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J67" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J67*$M$2)*EXP(-POWER(LOG(J67)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0315505099704624</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J68" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J68*$M$2)*EXP(-POWER(LOG(J68)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0304186905626249</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J69" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <f aca="false">1/(2.506628274631*J69*$M$2)*EXP(-POWER(LOG(J69)-$M$1,2)/(2*$M$2*$M$2))</f>
+        <v>0.0293384556408424</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/punch04-02.xlsx
+++ b/punch04-02.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t xml:space="preserve">流行時刻（日）</t>
   </si>
@@ -50,17 +52,57 @@
     <t xml:space="preserve">合算</t>
   </si>
   <si>
+    <t xml:space="preserve">日前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">横軸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">確率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">累積</t>
+  </si>
+  <si>
     <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">差分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最頻値</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中央値</t>
+  </si>
+  <si>
+    <t xml:space="preserve">σ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -173,7 +215,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -203,6 +245,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -278,7 +328,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart215.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2511,11 +2561,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="68897549"/>
-        <c:axId val="14408249"/>
+        <c:axId val="43497914"/>
+        <c:axId val="10690109"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68897549"/>
+        <c:axId val="43497914"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -2545,12 +2595,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14408249"/>
+        <c:crossAx val="10690109"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="14408249"/>
+        <c:axId val="10690109"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2588,7 +2638,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68897549"/>
+        <c:crossAx val="43497914"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2637,7 +2687,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart216.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3150,11 +3200,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="20966784"/>
-        <c:axId val="6260432"/>
+        <c:axId val="27331300"/>
+        <c:axId val="94771962"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="20966784"/>
+        <c:axId val="27331300"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3182,14 +3232,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6260432"/>
+        <c:crossAx val="94771962"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6260432"/>
+        <c:axId val="94771962"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3226,7 +3276,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20966784"/>
+        <c:crossAx val="27331300"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3274,7 +3324,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart217.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3370,11 +3420,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="30630809"/>
-        <c:axId val="90912329"/>
+        <c:axId val="90674802"/>
+        <c:axId val="91047187"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="30630809"/>
+        <c:axId val="90674802"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3402,14 +3452,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90912329"/>
+        <c:crossAx val="91047187"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90912329"/>
+        <c:axId val="91047187"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3446,7 +3496,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30630809"/>
+        <c:crossAx val="90674802"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3493,7 +3543,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart218.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3592,11 +3642,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="46050245"/>
-        <c:axId val="25023962"/>
+        <c:axId val="34537958"/>
+        <c:axId val="38399615"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46050245"/>
+        <c:axId val="34537958"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3624,14 +3674,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25023962"/>
+        <c:crossAx val="38399615"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="25023962"/>
+        <c:axId val="38399615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3668,7 +3718,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46050245"/>
+        <c:crossAx val="34537958"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3715,7 +3765,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart219.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3817,11 +3867,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="90229562"/>
-        <c:axId val="7702728"/>
+        <c:axId val="99881331"/>
+        <c:axId val="1276641"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90229562"/>
+        <c:axId val="99881331"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3849,14 +3899,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7702728"/>
+        <c:crossAx val="1276641"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7702728"/>
+        <c:axId val="1276641"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3893,7 +3943,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90229562"/>
+        <c:crossAx val="99881331"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3940,7 +3990,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart220.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4054,11 +4104,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="31819029"/>
-        <c:axId val="50130613"/>
+        <c:axId val="88605243"/>
+        <c:axId val="83670533"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="31819029"/>
+        <c:axId val="88605243"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4086,14 +4136,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50130613"/>
+        <c:crossAx val="83670533"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50130613"/>
+        <c:axId val="83670533"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4130,8 +4180,2624 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31819029"/>
+        <c:crossAx val="88605243"/>
         <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart221.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.0138421938024694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00539199208007016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0128467076404498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00898014569081832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0234357263123796</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0138983065165547</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02876563252789</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0327170676594892</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04278912269271</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0475276304739219</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0650193229728936</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0707025267217578</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0828631534514098</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0948016815288677</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.100235265571974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0972455255165329</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0992165759588585</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.079215849354095</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0482759168109645</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0233122312418564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="2561213"/>
+        <c:axId val="61983064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2561213"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="61983064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="61983064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2561213"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart222.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>26/80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.0138421938024694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00539199208007016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0128467076404498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00898014569081832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0234357263123796</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0138983065165547</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02876563252789</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0327170676594892</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04278912269271</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0475276304739219</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0650193229728936</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0707025267217578</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0828631534514098</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0948016815288677</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.100235265571974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0972455255165329</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0992165759588585</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.079215849354095</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0482759168109645</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0233122312418564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>26/60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$2:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.0119387927650432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00479610409598613</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0135230489400412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.016441253708067</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00984387071078756</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0275183301640934</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0240683227382583</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0253610874887031</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0457345023944862</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0521946805047521</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0665986244270937</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0666184777869981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.080757222141416</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0970149546874368</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.098459776016903</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.105164830663897</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0944463977749418</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0705601187765976</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0574372029590095</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0212315276237521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="35878449"/>
+        <c:axId val="90496294"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="35878449"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="90496294"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90496294"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="35878449"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart223.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>26/avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$2:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.0128904932837563</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00509404808802815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0131848782902455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0127106996994426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0166397985115836</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0207083183403241</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0264169776330741</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0290390775740961</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0442618125435981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.049861155489337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0658089736999936</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0686605022543779</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0818101877964129</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0959083181081522</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0993475207944385</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.101205178090215</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0968314868669002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0748879840653463</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.052856559884987</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0222718794328042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="24681072"/>
+        <c:axId val="20335467"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="24681072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="20335467"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="20335467"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24681072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart224.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>26/avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$2:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0128904932837563</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00509404808802815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0131848782902455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0127106996994426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0166397985115836</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0207083183403241</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0264169776330741</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0290390775740961</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0442618125435981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.049861155489337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0658089736999936</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0686605022543779</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0818101877964129</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0959083181081522</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0993475207944385</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.101205178090215</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0968314868669002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0748879840653463</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.052856559884987</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0222718794328042</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="24519519"/>
+        <c:axId val="70994035"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="24519519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70994035"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="70994035"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24519519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart225.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$3:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.0106510993417001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0537603104516631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.114300045049152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.179757213895785</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.244108595785583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.304736582510232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.360667582622649</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.411711891857455</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.458044872785659</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.537965771424617</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.572334808836768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.603479689632152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.631742607836675</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.657432169485154</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.680823787674827</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.702161792699145</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.721662252065085</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.739515971034705</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.755891404214417</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.770937350975443</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.784785384817143</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.797552007950479</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.809340543335114</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.820242786104215</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.830340439823572</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.839706363236407</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.848405651677334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.856496575119626</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.864031392358576</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.871057058402467</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.877615839877453</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.883745851211882</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.889481522565263</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.894854008899885</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.899891548241091</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.904619776012425</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.909062001340873</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.913239450382379</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.917171480998301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="65503769"/>
+        <c:axId val="20447131"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="65503769"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="20447131"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="20447131"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65503769"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart226.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$3:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.0106510993417001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.043109211109963</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0605397345974884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0654571688466338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0643513818897974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0606279867246489</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0559310001124175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0510443092348058</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0463329809282039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0419551272143411</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.037965771424617</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0343690374121514</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0311448807953834</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0282629182045236</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0256895616484788</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0233916181896725</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0213380050243186</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0195004593659394</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0178537189696205</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.016375433179712</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.015045946761026</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0138480338416997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0127666231333358</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0117885353846358</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0109022427691002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0100976537193573</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.00936592341283526</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.00869928844092671</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00809092344229234</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.00753481723894933</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.00702566604389143</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.00655878147498545</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.00613001133442914</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.00573567135338082</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.00537248633462273</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.00503753934120543</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.00472822777133419</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.00444222532844829</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.00417744904150563</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.00393203061592273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="32122287"/>
+        <c:axId val="17660084"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="32122287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17660084"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="17660084"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="32122287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart227.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>確率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0222718794328042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.052856559884987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0748879840653463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0968314868669002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.101205178090215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0993475207944385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0959083181081522</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0818101877964129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0686605022543779</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0658089736999936</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.049861155489337</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0442618125435981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0290390775740961</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0264169776330741</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0207083183403241</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0166397985115836</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0127106996994426</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0131848782902455</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.00509404808802815</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0128904932837563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>確率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$G$2:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0022003675291628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0178417167579174</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0482281994972372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0782989382763224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0973445148748264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.103795618841467</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.100698118522456</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0919209842901926</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0805734903331328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0687038172886059</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0574789025399601</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0474594610773869</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0388337743978616</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.031582479692188</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0255835959555181</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0206747488161526</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0166875262307264</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0134647836084814</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0108680411966696</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.00877942917172969</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.00710084423069057</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="91342576"/>
+        <c:axId val="79453013"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="91342576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79453013"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="79453013"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91342576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart228.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>累積</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0222718794328042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0751284393177912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.150016423383138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.246847910250038</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.348053088340253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.447400609134691</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.543308927242843</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.625119115039256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.693779617293634</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.759588590993628</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.809449746482965</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.853711559026563</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.882750636600659</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.909167614233733</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.929875932574057</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.946515731085641</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.959226430785083</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.972411309075329</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.977505357163357</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.990395850447113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>累積</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$F$2:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0022003675291628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0200420842870802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0682702837843174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14656922206064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.243913736935466</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.347709355776934</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44840747429939</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.540328458589582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.620901948922715</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.689605766211321</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.747084668751281</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.794544129828668</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.833377904226529</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.864960383918717</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.890543979874236</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.911218728690388</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.927906254921115</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.941371038529596</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.952239079726266</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.961018508897995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.968119353128686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="36822824"/>
+        <c:axId val="37417754"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="36822824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="37417754"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="37417754"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="36822824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4307,7 +6973,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1821600</xdr:colOff>
+      <xdr:colOff>729360</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>52200</xdr:rowOff>
     </xdr:from>
@@ -4364,6 +7030,256 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>149040</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>752400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>140760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4212720" y="4053600"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>372960</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>163800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6875280" y="5400360"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>637920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>82800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>708120</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12296520" y="245160"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>36000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>36360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>639720</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>24840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3287160" y="3612600"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>146160</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>241920</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>59760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5835600" y="233640"/>
+        <a:ext cx="4159800" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>725400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>633960</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>12960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5601960" y="3763080"/>
+        <a:ext cx="4785480" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>629640</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>62280</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7131960" y="233640"/>
+        <a:ext cx="6747840" cy="3795480"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>629280</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>59040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>699480</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>11880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7131600" y="4285440"/>
+        <a:ext cx="5759640" cy="3854160"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4374,8 +7290,8 @@
   </sheetPr>
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6823,998 +9739,2473 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:M69"/>
+  <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I37" activeCellId="0" sqref="I37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="1" style="0" width="10.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="25.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="10.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="C1" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="n">
+      <c r="D1" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="n">
+      <c r="G1" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="H1" s="0" t="n">
-        <v>26</v>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="n">
+        <v>1.12327996471184</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.061775655303156</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>-0.00697420228057542</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.0451348734257755</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.0429208350483045</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0.0138421938024694</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0.014245426139273</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0.0119387927650432</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <f aca="false">AVERAGE(H2,J2)</f>
+        <v>0.0128904932837563</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="n">
+        <v>-0.7354761022403</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.0330335800418027</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>-0.0159199695833129</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.029099008756962</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.0140610361567077</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0.00539199208007016</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0.00526011671654317</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0.00479610409598613</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <f aca="false">AVERAGE(H3,J3)</f>
+        <v>0.00509404808802815</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="n">
+        <v>0.0280591130062911</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.0425209185605964</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.328797531025692</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.0324187928601825</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.0285142950295176</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0.0128467076404498</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0.0132306313678337</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0.0135230489400412</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <f aca="false">AVERAGE(H4,J4)</f>
+        <v>0.0131848782902455</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="n">
+        <v>0.0612469640888136</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.0478051825185973</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.00419829578325327</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.0430917293754226</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.0329614903740409</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0.00898014569081832</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0.00882256674765919</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0.016441253708067</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <f aca="false">AVERAGE(H5,J5)</f>
+        <v>0.0127106996994426</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="n">
+        <v>0.0537634710543376</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.0646952964460093</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.318342033875975</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.0473404754945881</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.0426504849778899</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0.0234357263123796</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0.0238291297917285</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0.00984387071078756</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <f aca="false">AVERAGE(H6,J6)</f>
+        <v>0.0166397985115836</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="n">
+        <v>0.074723616815351</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.0708168680409013</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.642372510822393</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0.0648623871658647</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.0474992690612985</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0.0138983065165547</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0.0138704449499993</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0.0275183301640934</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <f aca="false">AVERAGE(H7,J7)</f>
+        <v>0.0207083183403241</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="n">
+        <v>0.0914529585234447</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.0831337701207956</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>-0.628142900416092</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0.0711691400691718</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0.065196484328576</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0.02876563252789</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0.0288831893048217</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>0.0240683227382583</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <f aca="false">AVERAGE(H8,J8)</f>
+        <v>0.0264169776330741</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="n">
+        <v>0.0805739405456047</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.0945632276149882</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.642974318480073</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0.0825407633642956</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0.0706065560136546</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0.0327170676594892</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0.0325958625684843</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>0.0253610874887031</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <f aca="false">AVERAGE(H9,J9)</f>
+        <v>0.0290390775740961</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="n">
+        <v>0.104279286952616</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.100028280590678</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0.044824247327532</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0.0947425806772225</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0.0827096594127479</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0.04278912269271</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0.0429407569853159</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>0.0457345023944862</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <f aca="false">AVERAGE(H10,J10)</f>
+        <v>0.0442618125435981</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="n">
+        <v>0.103535766946964</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.0975415178485796</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0.0161327408030588</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0.100283295208103</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0.0949863656736421</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0.0475276304739219</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0.0473373782669761</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0.0521946805047521</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <f aca="false">AVERAGE(H11,J11)</f>
+        <v>0.049861155489337</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="n">
+        <v>0.0982515678606666</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.0992763268268569</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>-0.00757599201969699</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0.097498235271222</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0.100242006340237</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0.0650193229728936</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0.0649984376643663</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>0.0665986244270937</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <f aca="false">AVERAGE(H12,J12)</f>
+        <v>0.0658089736999936</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="n">
+        <v>0.0689666573752724</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0.0789009925446748</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0.622265434211488</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="M1" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="n">
-        <v>1.12327996471184</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.061775655303156</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>-0.00697420228057542</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.0451348734257755</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0.0429208350483045</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0.0138421938024694</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J2*$M$2)*EXP(-POWER(LOG(J2)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>1.07981933026376</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="n">
-        <v>-0.7354761022403</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0.0330335800418027</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>-0.0159199695833129</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.029099008756962</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.0140610361567077</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0.00539199208007016</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J3*$M$2)*EXP(-POWER(LOG(J3)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>1.50159582492146</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
-        <v>0.0280591130062911</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.0425209185605964</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.328797531025692</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.0324187928601825</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0.0285142950295176</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0.0128467076404498</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J4*$M$2)*EXP(-POWER(LOG(J4)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>1.53937591940225</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
-        <v>0.0612469640888136</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0.0478051825185973</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.00419829578325327</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.0430917293754226</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0.0329614903740409</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0.00898014569081832</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J5*$M$2)*EXP(-POWER(LOG(J5)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>1.45322740304836</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
-        <v>0.0537634710543376</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.0646952964460093</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.318342033875975</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.0473404754945881</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0.0426504849778899</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0.0234357263123796</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J6*$M$2)*EXP(-POWER(LOG(J6)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>1.33124914914609</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
-        <v>0.074723616815351</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0.0708168680409013</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0.642372510822393</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0.0648623871658647</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0.0474992690612985</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0.0138983065165547</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J7*$M$2)*EXP(-POWER(LOG(J7)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>1.20514577617999</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
-        <v>0.0914529585234447</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0.0831337701207956</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>-0.628142900416092</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0.0711691400691718</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0.065196484328576</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0.02876563252789</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J8*$M$2)*EXP(-POWER(LOG(J8)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>1.0864270289436</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
-        <v>0.0805739405456047</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0.0945632276149882</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0.642974318480073</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0.0825407633642956</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0.0706065560136546</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0.0327170676594892</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J9*$M$2)*EXP(-POWER(LOG(J9)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.978797107494311</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
-        <v>0.104279286952616</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.100028280590678</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0.044824247327532</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0.0947425806772225</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0.0827096594127479</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0.04278912269271</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J10*$M$2)*EXP(-POWER(LOG(J10)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.88283378692787</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
-        <v>0.103535766946964</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0.0975415178485796</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0.0161327408030588</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0.100283295208103</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0.0949863656736421</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0.0475276304739219</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J11*$M$2)*EXP(-POWER(LOG(J11)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.797884560802865</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
-        <v>0.0982515678606666</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0.0992763268268569</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>-0.00757599201969699</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0.097498235271222</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0.100242006340237</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>0.0650193229728936</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J12*$M$2)*EXP(-POWER(LOG(J12)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.722868292680364</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
-        <v>0.0689666573752724</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0.0789009925446748</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.622265434211488</v>
-      </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>0.098854194104386</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>0.0970965445088304</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>0.0707025267217578</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J13*$M$2)*EXP(-POWER(LOG(J13)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.656618401489037</v>
+      <c r="I13" s="1" t="n">
+        <v>0.0707536823176591</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>0.0666184777869981</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <f aca="false">AVERAGE(H13,J13)</f>
+        <v>0.0686605022543779</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>0.0615904421747406</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>0.0485897648536517</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <f aca="false">49.1505200930414</f>
         <v>49.1505200930414</v>
       </c>
+      <c r="E14" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0.0794523920973246</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0.0993782969409751</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>0.0828631534514098</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0.0825384902371038</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>0.080757222141416</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <f aca="false">AVERAGE(H14,J14)</f>
+        <v>0.0818101877964129</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1" t="n">
+        <v>0.0169116593288288</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0.0232160071720521</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>-54.9597623534308</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0.0481964850926238</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0.0790796713873782</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>0.0948016815288677</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0.094597232037119</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>0.0970149546874368</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <f aca="false">AVERAGE(H15,J15)</f>
+        <v>0.0959083181081522</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0.0233562257367896</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0.0484444525817138</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0.100235265571974</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0.0998907707648682</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0.098459776016903</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <f aca="false">AVERAGE(H16,J16)</f>
+        <v>0.0993475207944385</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0.0232278701016298</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>0.0972455255165329</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0.0971386818260775</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>0.105164830663897</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <f aca="false">AVERAGE(H17,J17)</f>
+        <v>0.101205178090215</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0.0992165759588585</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0.0989183653629974</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0.0944463977749418</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <f aca="false">AVERAGE(H18,J18)</f>
+        <v>0.0968314868669002</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0.079215849354095</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0.0791737105573144</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>0.0705601187765976</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <f aca="false">AVERAGE(H19,J19)</f>
+        <v>0.0748879840653463</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>0.0482759168109645</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0.0483332416189501</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>0.0574372029590095</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <f aca="false">AVERAGE(H20,J20)</f>
+        <v>0.052856559884987</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>0.0233122312418564</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0.0239100476169733</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>0.0212315276237521</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <f aca="false">AVERAGE(H21,J21)</f>
+        <v>0.0222718794328042</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E52" activeCellId="0" sqref="E52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A2,0,E$1,TRUE())</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.00019804773299184</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.28159018901527</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A3,0,D$1,FALSE())</f>
+        <v>0.281590189015268</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A3,0,E$1,TRUE())</f>
+        <v>0.0106510993417001</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">E3-E2</f>
+        <v>0.0106510993417001</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.022439460776792</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.54626787075818</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A4,0,D$1,FALSE())</f>
+        <v>0.54626787075818</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A4,0,E$1,TRUE())</f>
+        <v>0.0537603104516631</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">E4-E3</f>
+        <v>0.043109211109963</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.14647220793768</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.6442032573592</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A5,0,D$1,FALSE())</f>
+        <v>0.6442032573592</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A5,0,E$1,TRUE())</f>
+        <v>0.114300045049152</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">E5-E4</f>
+        <v>0.0605397345974884</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.37206822856429</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.65544416806031</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A6,0,D$1,FALSE())</f>
+        <v>0.655444168060311</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A6,0,E$1,TRUE())</f>
+        <v>0.179757213895785</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">E6-E5</f>
+        <v>0.0654571688466338</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.61045530419018</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.62749607711592</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A7,0,D$1,FALSE())</f>
+        <v>0.627496077115924</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A7,0,E$1,TRUE())</f>
+        <v>0.244108595785583</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">E7-E6</f>
+        <v>0.0643513818897974</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.78910856871344</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.5835738225945</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A8,0,D$1,FALSE())</f>
+        <v>0.583573822594504</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A8,0,E$1,TRUE())</f>
+        <v>0.304736582510232</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">E8-E7</f>
+        <v>0.0606279867246489</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.8837770624283</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.53479483207692</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A9,0,D$1,FALSE())</f>
+        <v>0.53479483207692</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A9,0,E$1,TRUE())</f>
+        <v>0.360667582622649</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">E9-E8</f>
+        <v>0.0559310001124175</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.90281836649905</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.48641578111155</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A10,0,D$1,FALSE())</f>
+        <v>0.486415781111553</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A10,0,E$1,TRUE())</f>
+        <v>0.411711891857455</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">E10-E9</f>
+        <v>0.0510443092348058</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.86707264784234</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.44081568591203</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A11,0,D$1,FALSE())</f>
+        <v>0.440815685912027</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A11,0,E$1,TRUE())</f>
+        <v>0.458044872785659</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">E11-E10</f>
+        <v>0.0463329809282039</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.79788456080287</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.39894228040143</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A12,0,D$1,FALSE())</f>
+        <v>0.398942280401433</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A12,0,E$1,TRUE())</f>
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">E12-E11</f>
+        <v>0.0419551272143411</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.71229039455689</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.36103126122904</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A13,0,D$1,FALSE())</f>
+        <v>0.36103126122904</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A13,0,E$1,TRUE())</f>
+        <v>0.537965771424617</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">E13-E12</f>
+        <v>0.037965771424617</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.62213684053329</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.32697202407426</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A14,0,D$1,FALSE())</f>
+        <v>0.326972024074256</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A14,0,E$1,TRUE())</f>
+        <v>0.572334808836768</v>
+      </c>
       <c r="F14" s="0" t="n">
-        <v>0.0794523920973246</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>0.0993782969409751</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0.0828631534514098</v>
-      </c>
-      <c r="I14" s="0" t="n">
+        <f aca="false">E14-E13</f>
+        <v>0.0343690374121514</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.53481968212685</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.2964963706361</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A15,0,D$1,FALSE())</f>
+        <v>0.296496370636105</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A15,0,E$1,TRUE())</f>
+        <v>0.603479689632152</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">E15-E14</f>
+        <v>0.0311448807953834</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.45443939376869</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.26927622894993</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A16,0,D$1,FALSE())</f>
+        <v>0.269276228949933</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A16,0,E$1,TRUE())</f>
+        <v>0.631742607836675</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">E16-E15</f>
+        <v>0.0282629182045236</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.38286977198859</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.24497365171051</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A17,0,D$1,FALSE())</f>
+        <v>0.24497365171051</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A17,0,E$1,TRUE())</f>
+        <v>0.657432169485154</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">E17-E16</f>
+        <v>0.0256895616484788</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.32058693065727</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.2232654474303</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A18,0,D$1,FALSE())</f>
+        <v>0.223265447430299</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A18,0,E$1,TRUE())</f>
+        <v>0.680823787674827</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">E18-E17</f>
+        <v>0.0233916181896725</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.26725492912949</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.20385425949787</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A19,0,D$1,FALSE())</f>
+        <v>0.203854259497871</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A19,0,E$1,TRUE())</f>
+        <v>0.702161792699145</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">E19-E18</f>
+        <v>0.0213380050243186</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.22211403797682</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.18647244853891</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A20,0,D$1,FALSE())</f>
+        <v>0.186472448538908</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A20,0,E$1,TRUE())</f>
+        <v>0.721662252065085</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">E20-E19</f>
+        <v>0.0195004593659394</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.18422488598737</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.17088223824122</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A21,0,D$1,FALSE())</f>
+        <v>0.170882238241215</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A21,0,E$1,TRUE())</f>
+        <v>0.739515971034705</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">E21-E20</f>
+        <v>0.0178537189696205</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.15261382604755</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.15687401927898</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A22,0,D$1,FALSE())</f>
+        <v>0.156874019278981</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A22,0,E$1,TRUE())</f>
+        <v>0.755891404214417</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">E22-E21</f>
+        <v>0.016375433179712</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.12635362639378</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.14426384634321</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A23,0,D$1,FALSE())</f>
+        <v>0.144263846343208</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A23,0,E$1,TRUE())</f>
+        <v>0.770937350975443</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">E23-E22</f>
+        <v>0.015045946761026</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.10460345145079</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.13289068604819</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A24,0,D$1,FALSE())</f>
+        <v>0.132890686048187</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A24,0,E$1,TRUE())</f>
+        <v>0.784785384817143</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">E24-E23</f>
+        <v>0.0138480338416997</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.0866242317917</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.12261370693199</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A25,0,D$1,FALSE())</f>
+        <v>0.122613706931988</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A25,0,E$1,TRUE())</f>
+        <v>0.797552007950479</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">E25-E24</f>
+        <v>0.0127666231333358</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.071779876760735</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.11330975388971</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A26,0,D$1,FALSE())</f>
+        <v>0.113309753889709</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A26,0,E$1,TRUE())</f>
+        <v>0.809340543335114</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">E26-E25</f>
+        <v>0.0117885353846358</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.059530916570286</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.10487106688965</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A27,0,D$1,FALSE())</f>
+        <v>0.10487106688965</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A27,0,E$1,TRUE())</f>
+        <v>0.820242786104215</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">E27-E26</f>
+        <v>0.0109022427691002</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.049424598131726</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.097203259024293</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A28,0,D$1,FALSE())</f>
+        <v>0.0972032590242929</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A28,0,E$1,TRUE())</f>
+        <v>0.830340439823572</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">E28-E27</f>
+        <v>0.0100976537193573</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.04108380414677</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.090223545579696</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A29,0,D$1,FALSE())</f>
+        <v>0.0902235455796965</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A29,0,E$1,TRUE())</f>
+        <v>0.839706363236407</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <f aca="false">E29-E28</f>
+        <v>0.00936592341283526</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.034196121140205</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.083859204569488</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A30,0,D$1,FALSE())</f>
+        <v>0.0838592045694877</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A30,0,E$1,TRUE())</f>
+        <v>0.848405651677334</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">E30-E29</f>
+        <v>0.00869928844092671</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0.028503739306673</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.078046244721627</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A31,0,D$1,FALSE())</f>
+        <v>0.0780462447216266</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A31,0,E$1,TRUE())</f>
+        <v>0.856496575119626</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <f aca="false">E31-E30</f>
+        <v>0.00809092344229234</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A32,0,D$1,FALSE())</f>
+        <v>0.0727282561399947</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A32,0,E$1,TRUE())</f>
+        <v>0.864031392358576</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <f aca="false">E32-E31</f>
+        <v>0.00753481723894933</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A33,0,D$1,FALSE())</f>
+        <v>0.0678554200108418</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A33,0,E$1,TRUE())</f>
+        <v>0.871057058402467</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <f aca="false">E33-E32</f>
+        <v>0.00702566604389143</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A34,0,D$1,FALSE())</f>
+        <v>0.0633836557708631</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A34,0,E$1,TRUE())</f>
+        <v>0.877615839877453</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">E34-E33</f>
+        <v>0.00655878147498545</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A35,0,D$1,FALSE())</f>
+        <v>0.0592738865291035</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A35,0,E$1,TRUE())</f>
+        <v>0.883745851211882</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <f aca="false">E35-E34</f>
+        <v>0.00613001133442914</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A36,0,D$1,FALSE())</f>
+        <v>0.0554914059289083</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A36,0,E$1,TRUE())</f>
+        <v>0.889481522565263</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <f aca="false">E36-E35</f>
+        <v>0.00573567135338082</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A37,0,D$1,FALSE())</f>
+        <v>0.0520053318897058</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A37,0,E$1,TRUE())</f>
+        <v>0.894854008899885</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <f aca="false">E37-E36</f>
+        <v>0.00537248633462273</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A38,0,D$1,FALSE())</f>
+        <v>0.0487881347091861</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A38,0,E$1,TRUE())</f>
+        <v>0.899891548241091</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <f aca="false">E38-E37</f>
+        <v>0.00503753934120543</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A39,0,D$1,FALSE())</f>
+        <v>0.045815228810908</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A39,0,E$1,TRUE())</f>
+        <v>0.904619776012425</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <f aca="false">E39-E38</f>
+        <v>0.00472822777133419</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A40,0,D$1,FALSE())</f>
+        <v>0.043064618993389</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A40,0,E$1,TRUE())</f>
+        <v>0.909062001340873</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <f aca="false">E40-E39</f>
+        <v>0.00444222532844829</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A41,0,D$1,FALSE())</f>
+        <v>0.0405165933905346</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A41,0,E$1,TRUE())</f>
+        <v>0.913239450382379</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <f aca="false">E41-E40</f>
+        <v>0.00417744904150563</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A42,0,D$1,FALSE())</f>
+        <v>0.0381534565118864</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A42,0,E$1,TRUE())</f>
+        <v>0.917171480998301</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <f aca="false">E42-E41</f>
+        <v>0.00393203061592273</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A43,0,D$1,FALSE())</f>
+        <v>0.0359592967182337</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A43,0,E$1,TRUE())</f>
+        <v>0.920875772501003</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <f aca="false">E43-E42</f>
+        <v>0.00370429150270168</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A44,0,D$1,FALSE())</f>
+        <v>0.0339197833265839</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A44,0,E$1,TRUE())</f>
+        <v>0.92436849366537</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <f aca="false">E44-E43</f>
+        <v>0.0034927211643665</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A45,0,D$1,FALSE())</f>
+        <v>0.0320219892494392</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A45,0,E$1,TRUE())</f>
+        <v>0.927664451759009</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <f aca="false">E45-E44</f>
+        <v>0.00329595809363903</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A46,0,D$1,FALSE())</f>
+        <v>0.0302542356756333</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A46,0,E$1,TRUE())</f>
+        <v>0.930777224965305</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <f aca="false">E46-E45</f>
+        <v>0.00311277320629622</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A47,0,D$1,FALSE())</f>
+        <v>0.02860595581011</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A47,0,E$1,TRUE())</f>
+        <v>0.933719280250451</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <f aca="false">E47-E46</f>
+        <v>0.00294205528514568</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A48,0,D$1,FALSE())</f>
+        <v>0.0270675751221885</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A48,0,E$1,TRUE())</f>
+        <v>0.936502078449514</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <f aca="false">E48-E47</f>
+        <v>0.00278279819906357</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A49,0,D$1,FALSE())</f>
+        <v>0.0256304059181798</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A49,0,E$1,TRUE())</f>
+        <v>0.939136168110381</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <f aca="false">E49-E48</f>
+        <v>0.00263408966086676</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A50,0,D$1,FALSE())</f>
+        <v>0.0242865543650145</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A50,0,E$1,TRUE())</f>
+        <v>0.941631269431952</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <f aca="false">E50-E49</f>
+        <v>0.00249510132157105</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A51,0,D$1,FALSE())</f>
+        <v>0.0230288383555034</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A51,0,E$1,TRUE())</f>
+        <v>0.943996349459209</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <f aca="false">E51-E50</f>
+        <v>0.00236508002725688</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A52,0,D$1,FALSE())</f>
+        <v>0.0218507148303272</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST($A52,0,E$1,TRUE())</f>
+        <v>0.946239689548337</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <f aca="false">E52-E51</f>
+        <v>0.00224334008912797</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="10.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="0" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J14*$M$2)*EXP(-POWER(LOG(J14)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.59802555478998</v>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <f aca="false">C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <f aca="false">(B2-$B$28)*$B$27</f>
+        <v>0.234</v>
+      </c>
+      <c r="F2" s="9" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(E2,0,$B$26,TRUE())</f>
+        <v>0.0022003675291628</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <f aca="false">F2</f>
+        <v>0.0022003675291628</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <f aca="false">POWER(C2-G2,2)</f>
+        <v>4.841617263394E-006</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.0222718794328042</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <f aca="false">D2+C3</f>
+        <v>0.0222718794328042</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <f aca="false">(B3-$B$28)*$B$27</f>
+        <v>0.351</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(E3,0,$B$26,TRUE())</f>
+        <v>0.0200420842870802</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <f aca="false">F3-F2</f>
+        <v>0.0178417167579174</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <f aca="false">POWER(C3-G3,2)</f>
+        <v>1.96263413259607E-005</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.052856559884987</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <f aca="false">D3+C4</f>
+        <v>0.0751284393177912</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <f aca="false">(B4-$B$28)*$B$27</f>
+        <v>0.468</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(E4,0,$B$26,TRUE())</f>
+        <v>0.0682702837843174</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <f aca="false">F4-F3</f>
+        <v>0.0482281994972372</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <f aca="false">POWER(C4-G4,2)</f>
+        <v>2.14217198788916E-005</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.0748879840653463</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <f aca="false">D4+C5</f>
+        <v>0.150016423383138</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <f aca="false">(B5-$B$28)*$B$27</f>
+        <v>0.585</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(E5,0,$B$26,TRUE())</f>
+        <v>0.14656922206064</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <f aca="false">F5-F4</f>
+        <v>0.0782989382763224</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <f aca="false">POWER(C5-G5,2)</f>
+        <v>1.16346086293754E-005</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.0968314868669002</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <f aca="false">D5+C6</f>
+        <v>0.246847910250038</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <f aca="false">(B6-$B$28)*$B$27</f>
+        <v>0.702</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(E6,0,$B$26,TRUE())</f>
+        <v>0.243913736935466</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <f aca="false">F6-F5</f>
+        <v>0.0973445148748264</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <f aca="false">POWER(C6-G6,2)</f>
+        <v>2.63197736916825E-007</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.101205178090215</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">D6+C7</f>
+        <v>0.348053088340253</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <f aca="false">(B7-$B$28)*$B$27</f>
+        <v>0.819</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(E7,0,$B$26,TRUE())</f>
+        <v>0.347709355776934</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <f aca="false">F7-F6</f>
+        <v>0.103795618841467</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">POWER(C7-G7,2)</f>
+        <v>6.71038328574949E-006</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.0993475207944385</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <f aca="false">D7+C8</f>
+        <v>0.447400609134691</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <f aca="false">(B8-$B$28)*$B$27</f>
+        <v>0.936</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(E8,0,$B$26,TRUE())</f>
+        <v>0.44840747429939</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <f aca="false">F8-F7</f>
+        <v>0.100698118522456</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <f aca="false">POWER(C8-G8,2)</f>
+        <v>1.82411422292615E-006</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.0959083181081522</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <f aca="false">D8+C9</f>
+        <v>0.543308927242843</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <f aca="false">(B9-$B$28)*$B$27</f>
+        <v>1.053</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(E9,0,$B$26,TRUE())</f>
+        <v>0.540328458589582</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <f aca="false">F9-F8</f>
+        <v>0.0919209842901926</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <f aca="false">POWER(C9-G9,2)</f>
+        <v>1.58988309758448E-005</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.0818101877964129</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <f aca="false">D9+C10</f>
+        <v>0.625119115039256</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <f aca="false">(B10-$B$28)*$B$27</f>
+        <v>1.17</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(E10,0,$B$26,TRUE())</f>
+        <v>0.620901948922715</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <f aca="false">F10-F9</f>
+        <v>0.0805734903331328</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <f aca="false">POWER(C10-G10,2)</f>
+        <v>1.52942061568348E-006</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.0686605022543779</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <f aca="false">D10+C11</f>
+        <v>0.693779617293634</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <f aca="false">(B11-$B$28)*$B$27</f>
+        <v>1.287</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(E11,0,$B$26,TRUE())</f>
+        <v>0.689605766211321</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <f aca="false">F11-F10</f>
+        <v>0.0687038172886059</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <f aca="false">POWER(C11-G11,2)</f>
+        <v>1.87619219016779E-009</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.0658089736999936</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <f aca="false">D11+C12</f>
+        <v>0.759588590993628</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <f aca="false">(B12-$B$28)*$B$27</f>
+        <v>1.404</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(E12,0,$B$26,TRUE())</f>
+        <v>0.747084668751281</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <f aca="false">F12-F11</f>
+        <v>0.0574789025399601</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <f aca="false">POWER(C12-G12,2)</f>
+        <v>6.9390085531222E-005</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0.049861155489337</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <f aca="false">D12+C13</f>
+        <v>0.809449746482965</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <f aca="false">(B13-$B$28)*$B$27</f>
+        <v>1.521</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(E13,0,$B$26,TRUE())</f>
+        <v>0.794544129828668</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <f aca="false">F13-F12</f>
+        <v>0.0474594610773869</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <f aca="false">POWER(C13-G13,2)</f>
+        <v>5.76813604839251E-006</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0.0442618125435981</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <f aca="false">D13+C14</f>
+        <v>0.853711559026563</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <f aca="false">(B14-$B$28)*$B$27</f>
+        <v>1.638</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(E14,0,$B$26,TRUE())</f>
+        <v>0.833377904226529</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <f aca="false">F14-F13</f>
+        <v>0.0388337743978616</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <f aca="false">POWER(C14-G14,2)</f>
+        <v>2.94635981115701E-005</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
-        <v>0.0169116593288288</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0.0232160071720521</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>-54.9597623534308</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0.0481964850926238</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0.0790796713873782</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>0.0948016815288677</v>
-      </c>
-      <c r="I15" s="0" t="n">
+      <c r="A15" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0.0290390775740961</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <f aca="false">D14+C15</f>
+        <v>0.882750636600659</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <f aca="false">(B15-$B$28)*$B$27</f>
+        <v>1.755</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(E15,0,$B$26,TRUE())</f>
+        <v>0.864960383918717</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <f aca="false">F15-F14</f>
+        <v>0.031582479692188</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <f aca="false">POWER(C15-G15,2)</f>
+        <v>6.46889433431398E-006</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="J15" s="0" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J15*$M$2)*EXP(-POWER(LOG(J15)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.546090593473415</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="0" t="n">
-        <v>0.0233562257367896</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>0.0484444525817138</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0.100235265571974</v>
-      </c>
-      <c r="I16" s="0" t="n">
+      <c r="C16" s="1" t="n">
+        <v>0.0264169776330741</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <f aca="false">D15+C16</f>
+        <v>0.909167614233733</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <f aca="false">(B16-$B$28)*$B$27</f>
+        <v>1.872</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(E16,0,$B$26,TRUE())</f>
+        <v>0.890543979874236</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <f aca="false">F16-F15</f>
+        <v>0.0255835959555181</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <f aca="false">POWER(C16-G16,2)</f>
+        <v>6.94525020486154E-007</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="J16" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J16*$M$2)*EXP(-POWER(LOG(J16)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.499937232327822</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G17" s="0" t="n">
-        <v>0.0232278701016298</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>0.0972455255165329</v>
-      </c>
-      <c r="I17" s="0" t="n">
+      <c r="C17" s="1" t="n">
+        <v>0.0207083183403241</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <f aca="false">D16+C17</f>
+        <v>0.929875932574057</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <f aca="false">(B17-$B$28)*$B$27</f>
+        <v>1.989</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(E17,0,$B$26,TRUE())</f>
+        <v>0.911218728690388</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <f aca="false">F17-F16</f>
+        <v>0.0206747488161526</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <f aca="false">POWER(C17-G17,2)</f>
+        <v>1.12691295309826E-009</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="J17" s="0" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J17*$M$2)*EXP(-POWER(LOG(J17)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.458807330396794</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="0" t="n">
-        <v>0.0992165759588585</v>
-      </c>
-      <c r="I18" s="0" t="n">
+      <c r="C18" s="1" t="n">
+        <v>0.0166397985115836</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <f aca="false">D17+C18</f>
+        <v>0.946515731085641</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <f aca="false">(B18-$B$28)*$B$27</f>
+        <v>2.106</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(E18,0,$B$26,TRUE())</f>
+        <v>0.927906254921115</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <f aca="false">F18-F17</f>
+        <v>0.0166875262307264</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <f aca="false">POWER(C18-G18,2)</f>
+        <v>2.27793517457913E-009</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="J18" s="0" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J18*$M$2)*EXP(-POWER(LOG(J18)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.42204935600144</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="0" t="n">
-        <v>0.079215849354095</v>
-      </c>
-      <c r="I19" s="0" t="n">
+      <c r="C19" s="1" t="n">
+        <v>0.0127106996994426</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <f aca="false">D18+C19</f>
+        <v>0.959226430785083</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <f aca="false">(B19-$B$28)*$B$27</f>
+        <v>2.223</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(E19,0,$B$26,TRUE())</f>
+        <v>0.941371038529596</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <f aca="false">F19-F18</f>
+        <v>0.0134647836084814</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <f aca="false">POWER(C19-G19,2)</f>
+        <v>5.68642541871109E-007</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="J19" s="0" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J19*$M$2)*EXP(-POWER(LOG(J19)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.389104971843141</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="0" t="n">
-        <v>0.0482759168109645</v>
-      </c>
-      <c r="I20" s="0" t="n">
+      <c r="C20" s="1" t="n">
+        <v>0.0131848782902455</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <f aca="false">D19+C20</f>
+        <v>0.972411309075329</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <f aca="false">(B20-$B$28)*$B$27</f>
+        <v>2.34</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(E20,0,$B$26,TRUE())</f>
+        <v>0.952239079726266</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <f aca="false">F20-F19</f>
+        <v>0.0108680411966696</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <f aca="false">POWER(C20-G20,2)</f>
+        <v>5.36773411816918E-006</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="J20" s="0" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J20*$M$2)*EXP(-POWER(LOG(J20)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.359495945911008</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="0" t="n">
-        <v>0.0233122312418564</v>
-      </c>
-      <c r="I21" s="0" t="n">
+      <c r="C21" s="1" t="n">
+        <v>0.00509404808802815</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <f aca="false">D20+C21</f>
+        <v>0.977505357163357</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <f aca="false">(B21-$B$28)*$B$27</f>
+        <v>2.457</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(E21,0,$B$26,TRUE())</f>
+        <v>0.961018508897995</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <f aca="false">F21-F20</f>
+        <v>0.00877942917172969</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <f aca="false">POWER(C21-G21,2)</f>
+        <v>1.35820337321052E-005</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="J21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J21*$M$2)*EXP(-POWER(LOG(J21)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.332812287286522</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="0" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J22*$M$2)*EXP(-POWER(LOG(J22)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.308701883786458</v>
+      <c r="C22" s="1" t="n">
+        <v>0.0128904932837563</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <f aca="false">D21+C22</f>
+        <v>0.990395850447113</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <f aca="false">(B22-$B$28)*$B$27</f>
+        <v>2.574</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(E22,0,$B$26,TRUE())</f>
+        <v>0.968119353128686</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <f aca="false">F22-F21</f>
+        <v>0.00710084423069057</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <f aca="false">POWER(C22-G22,2)</f>
+        <v>3.35200361576651E-005</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J23*$M$2)*EXP(-POWER(LOG(J23)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.286861632072851</v>
+      <c r="H23" s="1" t="n">
+        <f aca="false">SUM(H2:H22)/21</f>
+        <v>1.18371047890884E-005</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="0" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J24*$M$2)*EXP(-POWER(LOG(J24)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.267029929788053</v>
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J25*$M$2)*EXP(-POWER(LOG(J25)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.248980358626595</v>
-      </c>
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J26*$M$2)*EXP(-POWER(LOG(J26)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.232516384487737</v>
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="0" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J27*$M$2)*EXP(-POWER(LOG(J27)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.217466914617736</v>
+      <c r="A27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0.117</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J28*$M$2)*EXP(-POWER(LOG(J28)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.203682571366083</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="0" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J29*$M$2)*EXP(-POWER(LOG(J29)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.191032562759714</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J30" s="0" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K30" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J30*$M$2)*EXP(-POWER(LOG(J30)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.17940204926173</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J31" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J31*$M$2)*EXP(-POWER(LOG(J31)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.168689922957026</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J32" s="0" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J32*$M$2)*EXP(-POWER(LOG(J32)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.158806929817626</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J33" s="0" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J33*$M$2)*EXP(-POWER(LOG(J33)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.149674077784386</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J34" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J34*$M$2)*EXP(-POWER(LOG(J34)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.141221283424687</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J35" s="0" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K35" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J35*$M$2)*EXP(-POWER(LOG(J35)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.13338621818587</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J36" s="0" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J36*$M$2)*EXP(-POWER(LOG(J36)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.126113322046993</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J37" s="0" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J37*$M$2)*EXP(-POWER(LOG(J37)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.119352957931938</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J38" s="0" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K38" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J38*$M$2)*EXP(-POWER(LOG(J38)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.113060684803631</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J39" s="0" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J39*$M$2)*EXP(-POWER(LOG(J39)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.107196631095316</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J40" s="0" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K40" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J40*$M$2)*EXP(-POWER(LOG(J40)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.101724953201961</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J41" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J41*$M$2)*EXP(-POWER(LOG(J41)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0966133662768581</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J42" s="0" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K42" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J42*$M$2)*EXP(-POWER(LOG(J42)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0918327366564223</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J43" s="0" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K43" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J43*$M$2)*EXP(-POWER(LOG(J43)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0873567269519289</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J44" s="0" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K44" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J44*$M$2)*EXP(-POWER(LOG(J44)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.083161486267039</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J45" s="0" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K45" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J45*$M$2)*EXP(-POWER(LOG(J45)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0792253791782327</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J46" s="0" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K46" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J46*$M$2)*EXP(-POWER(LOG(J46)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0755287480953662</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J47" s="0" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K47" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J47*$M$2)*EXP(-POWER(LOG(J47)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0720537044369165</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J48" s="0" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K48" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J48*$M$2)*EXP(-POWER(LOG(J48)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0687839447378499</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J49" s="0" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K49" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J49*$M$2)*EXP(-POWER(LOG(J49)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0657045883808789</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J50" s="0" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K50" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J50*$M$2)*EXP(-POWER(LOG(J50)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0628020341232608</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J51" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K51" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J51*$M$2)*EXP(-POWER(LOG(J51)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0600638329968584</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J52" s="0" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K52" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J52*$M$2)*EXP(-POWER(LOG(J52)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0574785755017199</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J53" s="0" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K53" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J53*$M$2)*EXP(-POWER(LOG(J53)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0550357913034452</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J54" s="0" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K54" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J54*$M$2)*EXP(-POWER(LOG(J54)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0527258598907346</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J55" s="0" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K55" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J55*$M$2)*EXP(-POWER(LOG(J55)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0505399308588955</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J56" s="0" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K56" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J56*$M$2)*EXP(-POWER(LOG(J56)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0484698526636093</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J57" s="0" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K57" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J57*$M$2)*EXP(-POWER(LOG(J57)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0465081088418269</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J58" s="0" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K58" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J58*$M$2)*EXP(-POWER(LOG(J58)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.04464776082733</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J59" s="0" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K59" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J59*$M$2)*EXP(-POWER(LOG(J59)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0428823966006454</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J60" s="0" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K60" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J60*$M$2)*EXP(-POWER(LOG(J60)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0412060845094715</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J61" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K61" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J61*$M$2)*EXP(-POWER(LOG(J61)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0396133316789142</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J62" s="0" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K62" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J62*$M$2)*EXP(-POWER(LOG(J62)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.03809904650264</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J63" s="0" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K63" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J63*$M$2)*EXP(-POWER(LOG(J63)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0366585047681858</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J64" s="0" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="K64" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J64*$M$2)*EXP(-POWER(LOG(J64)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.035287319023538</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J65" s="0" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K65" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J65*$M$2)*EXP(-POWER(LOG(J65)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0339814108388825</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J66" s="0" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K66" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J66*$M$2)*EXP(-POWER(LOG(J66)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0327369856581485</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J67" s="0" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K67" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J67*$M$2)*EXP(-POWER(LOG(J67)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0315505099704624</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J68" s="0" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="K68" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J68*$M$2)*EXP(-POWER(LOG(J68)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0304186905626249</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J69" s="0" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K69" s="0" t="n">
-        <f aca="false">1/(2.506628274631*J69*$M$2)*EXP(-POWER(LOG(J69)-$M$1,2)/(2*$M$2*$M$2))</f>
-        <v>0.0293384556408424</v>
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>-2</v>
       </c>
     </row>
   </sheetData>

--- a/punch04-02.xlsx
+++ b/punch04-02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t xml:space="preserve">流行時刻（日）</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">26/avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/new</t>
   </si>
   <si>
     <t xml:space="preserve">横軸</t>
@@ -215,7 +218,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -248,11 +251,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -328,7 +327,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart215.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart259.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2561,11 +2560,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="43497914"/>
-        <c:axId val="10690109"/>
+        <c:axId val="6422883"/>
+        <c:axId val="88348883"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43497914"/>
+        <c:axId val="6422883"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -2595,12 +2594,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10690109"/>
+        <c:crossAx val="88348883"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10690109"/>
+        <c:axId val="88348883"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2638,7 +2637,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43497914"/>
+        <c:crossAx val="6422883"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2687,7 +2686,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart216.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart260.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3200,11 +3199,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="27331300"/>
-        <c:axId val="94771962"/>
+        <c:axId val="78686534"/>
+        <c:axId val="54786062"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="27331300"/>
+        <c:axId val="78686534"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3232,14 +3231,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94771962"/>
+        <c:crossAx val="54786062"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94771962"/>
+        <c:axId val="54786062"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3276,7 +3275,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27331300"/>
+        <c:crossAx val="78686534"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3324,7 +3323,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart217.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart261.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3347,6 +3346,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -3358,6 +3358,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3420,11 +3421,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="90674802"/>
-        <c:axId val="91047187"/>
+        <c:axId val="45380688"/>
+        <c:axId val="96350537"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90674802"/>
+        <c:axId val="45380688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3452,14 +3453,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91047187"/>
+        <c:crossAx val="96350537"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91047187"/>
+        <c:axId val="96350537"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3474,7 +3475,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3496,7 +3497,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90674802"/>
+        <c:crossAx val="45380688"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3543,7 +3544,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart218.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart262.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3566,6 +3567,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -3577,6 +3579,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3642,11 +3645,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="34537958"/>
-        <c:axId val="38399615"/>
+        <c:axId val="61176189"/>
+        <c:axId val="98616028"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="34537958"/>
+        <c:axId val="61176189"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3674,14 +3677,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38399615"/>
+        <c:crossAx val="98616028"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38399615"/>
+        <c:axId val="98616028"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3696,7 +3699,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3718,7 +3721,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34537958"/>
+        <c:crossAx val="61176189"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3765,7 +3768,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart219.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart263.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3788,6 +3791,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -3799,6 +3803,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3867,11 +3872,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="99881331"/>
-        <c:axId val="1276641"/>
+        <c:axId val="88654566"/>
+        <c:axId val="55484134"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99881331"/>
+        <c:axId val="88654566"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3899,14 +3904,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1276641"/>
+        <c:crossAx val="55484134"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1276641"/>
+        <c:axId val="55484134"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3921,7 +3926,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3943,7 +3948,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99881331"/>
+        <c:crossAx val="88654566"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3990,7 +3995,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart220.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart264.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4013,6 +4018,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -4024,6 +4030,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4104,11 +4111,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="88605243"/>
-        <c:axId val="83670533"/>
+        <c:axId val="47735257"/>
+        <c:axId val="86684938"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88605243"/>
+        <c:axId val="47735257"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4136,14 +4143,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83670533"/>
+        <c:crossAx val="86684938"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83670533"/>
+        <c:axId val="86684938"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4158,7 +4165,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4180,7 +4187,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88605243"/>
+        <c:crossAx val="47735257"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4227,7 +4234,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart221.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart265.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4254,6 +4261,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -4265,6 +4273,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4367,11 +4376,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="2561213"/>
-        <c:axId val="61983064"/>
+        <c:axId val="30768964"/>
+        <c:axId val="67564257"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2561213"/>
+        <c:axId val="30768964"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4399,14 +4408,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61983064"/>
+        <c:crossAx val="67564257"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61983064"/>
+        <c:axId val="67564257"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4421,7 +4430,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4443,7 +4452,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2561213"/>
+        <c:crossAx val="30768964"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4491,7 +4500,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart222.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart266.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4529,6 +4538,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -4540,6 +4550,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4648,6 +4659,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -4659,6 +4671,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4746,11 +4759,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="35878449"/>
-        <c:axId val="90496294"/>
+        <c:axId val="81037791"/>
+        <c:axId val="32968976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="35878449"/>
+        <c:axId val="81037791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4778,14 +4791,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90496294"/>
+        <c:crossAx val="32968976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90496294"/>
+        <c:axId val="32968976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4800,7 +4813,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4822,7 +4835,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35878449"/>
+        <c:crossAx val="81037791"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4870,7 +4883,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart223.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart267.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4908,6 +4921,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -4919,6 +4933,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5006,11 +5021,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="24681072"/>
-        <c:axId val="20335467"/>
+        <c:axId val="14504438"/>
+        <c:axId val="89919481"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="24681072"/>
+        <c:axId val="14504438"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5038,14 +5053,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20335467"/>
+        <c:crossAx val="89919481"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20335467"/>
+        <c:axId val="89919481"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5060,7 +5075,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5082,7 +5097,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24681072"/>
+        <c:crossAx val="14504438"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5130,7 +5145,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart224.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart268.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5168,6 +5183,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -5179,6 +5195,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5333,17 +5350,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="24519519"/>
-        <c:axId val="70994035"/>
+        <c:axId val="90072408"/>
+        <c:axId val="31438171"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="24519519"/>
+        <c:axId val="90072408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5365,12 +5382,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70994035"/>
+        <c:crossAx val="31438171"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70994035"/>
+        <c:axId val="31438171"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5385,7 +5402,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5407,7 +5424,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24519519"/>
+        <c:crossAx val="90072408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5455,7 +5472,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart225.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart269.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5503,129 +5520,72 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$E$3:$E$42</c:f>
+              <c:f>Sheet2!$L$2:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.0106510993417001</c:v>
+                  <c:v>0.0209968318652202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0537603104516631</c:v>
+                  <c:v>0.0578550524286772</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.114300045049152</c:v>
+                  <c:v>0.0703162989778507</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.179757213895785</c:v>
+                  <c:v>0.0945700207210482</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.244108595785583</c:v>
+                  <c:v>0.104942271784255</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.304736582510232</c:v>
+                  <c:v>0.098895562650128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.360667582622649</c:v>
+                  <c:v>0.0964712453032246</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.411711891857455</c:v>
+                  <c:v>0.0809469792936124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.458044872785659</c:v>
+                  <c:v>0.0670079845228297</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>0.0661264024388064</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.537965771424617</c:v>
+                  <c:v>0.052158621049925</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.572334808836768</c:v>
+                  <c:v>0.0460529839826458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.603479689632152</c:v>
+                  <c:v>0.0254285710818039</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.631742607836675</c:v>
+                  <c:v>0.023539028105354</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.657432169485154</c:v>
+                  <c:v>0.0281432800234436</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.680823787674827</c:v>
+                  <c:v>0.00930674011170574</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.702161792699145</c:v>
+                  <c:v>0.0167884458565697</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.721662252065085</c:v>
+                  <c:v>0.0135026824476707</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.739515971034705</c:v>
+                  <c:v>0.00456651485771431</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.755891404214417</c:v>
+                  <c:v>-0.0135508530706829</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.770937350975443</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.784785384817143</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.797552007950479</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.809340543335114</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.820242786104215</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.830340439823572</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.839706363236407</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.848405651677334</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.856496575119626</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.864031392358576</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.871057058402467</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.877615839877453</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.883745851211882</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.889481522565263</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.894854008899885</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.899891548241091</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.904619776012425</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.909062001340873</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.913239450382379</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.917171480998301</c:v>
+                  <c:v>0.0350690863766374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5640,11 +5600,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="65503769"/>
-        <c:axId val="20447131"/>
+        <c:axId val="51370087"/>
+        <c:axId val="35786986"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65503769"/>
+        <c:axId val="51370087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5672,14 +5632,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20447131"/>
+        <c:crossAx val="35786986"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20447131"/>
+        <c:axId val="35786986"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5716,7 +5676,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65503769"/>
+        <c:crossAx val="51370087"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5764,7 +5724,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart226.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart270.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5791,6 +5751,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -5802,6 +5763,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5812,7 +5774,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$F$3:$F$42</c:f>
+              <c:f>Sheet3!$E$3:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -5820,121 +5782,121 @@
                   <c:v>0.0106510993417001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.043109211109963</c:v>
+                  <c:v>0.0537603104516631</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0605397345974884</c:v>
+                  <c:v>0.114300045049152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0654571688466338</c:v>
+                  <c:v>0.179757213895785</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0643513818897974</c:v>
+                  <c:v>0.244108595785583</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0606279867246489</c:v>
+                  <c:v>0.304736582510232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0559310001124175</c:v>
+                  <c:v>0.360667582622649</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0510443092348058</c:v>
+                  <c:v>0.411711891857455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0463329809282039</c:v>
+                  <c:v>0.458044872785659</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0419551272143411</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.037965771424617</c:v>
+                  <c:v>0.537965771424617</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0343690374121514</c:v>
+                  <c:v>0.572334808836768</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0311448807953834</c:v>
+                  <c:v>0.603479689632152</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0282629182045236</c:v>
+                  <c:v>0.631742607836675</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0256895616484788</c:v>
+                  <c:v>0.657432169485154</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0233916181896725</c:v>
+                  <c:v>0.680823787674827</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0213380050243186</c:v>
+                  <c:v>0.702161792699145</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0195004593659394</c:v>
+                  <c:v>0.721662252065085</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0178537189696205</c:v>
+                  <c:v>0.739515971034705</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.016375433179712</c:v>
+                  <c:v>0.755891404214417</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.015045946761026</c:v>
+                  <c:v>0.770937350975443</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0138480338416997</c:v>
+                  <c:v>0.784785384817143</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0127666231333358</c:v>
+                  <c:v>0.797552007950479</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0117885353846358</c:v>
+                  <c:v>0.809340543335114</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0109022427691002</c:v>
+                  <c:v>0.820242786104215</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0100976537193573</c:v>
+                  <c:v>0.830340439823572</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.00936592341283526</c:v>
+                  <c:v>0.839706363236407</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.00869928844092671</c:v>
+                  <c:v>0.848405651677334</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.00809092344229234</c:v>
+                  <c:v>0.856496575119626</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.00753481723894933</c:v>
+                  <c:v>0.864031392358576</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.00702566604389143</c:v>
+                  <c:v>0.871057058402467</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.00655878147498545</c:v>
+                  <c:v>0.877615839877453</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.00613001133442914</c:v>
+                  <c:v>0.883745851211882</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.00573567135338082</c:v>
+                  <c:v>0.889481522565263</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.00537248633462273</c:v>
+                  <c:v>0.894854008899885</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.00503753934120543</c:v>
+                  <c:v>0.899891548241091</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.00472822777133419</c:v>
+                  <c:v>0.904619776012425</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.00444222532844829</c:v>
+                  <c:v>0.909062001340873</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.00417744904150563</c:v>
+                  <c:v>0.913239450382379</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.00393203061592273</c:v>
+                  <c:v>0.917171480998301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5949,11 +5911,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="32122287"/>
-        <c:axId val="17660084"/>
+        <c:axId val="19541928"/>
+        <c:axId val="24059580"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="32122287"/>
+        <c:axId val="19541928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5981,14 +5943,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17660084"/>
+        <c:crossAx val="24059580"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17660084"/>
+        <c:axId val="24059580"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6003,7 +5965,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6025,7 +5987,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32122287"/>
+        <c:crossAx val="19541928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6073,7 +6035,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart227.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart271.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6085,17 +6047,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>確率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -6111,6 +6062,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -6122,6 +6074,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6132,194 +6085,129 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$C$2:$C$22</c:f>
+              <c:f>Sheet3!$F$3:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0106510993417001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0222718794328042</c:v>
+                  <c:v>0.043109211109963</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.052856559884987</c:v>
+                  <c:v>0.0605397345974884</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0748879840653463</c:v>
+                  <c:v>0.0654571688466338</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0968314868669002</c:v>
+                  <c:v>0.0643513818897974</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.101205178090215</c:v>
+                  <c:v>0.0606279867246489</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0993475207944385</c:v>
+                  <c:v>0.0559310001124175</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0959083181081522</c:v>
+                  <c:v>0.0510443092348058</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0818101877964129</c:v>
+                  <c:v>0.0463329809282039</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0686605022543779</c:v>
+                  <c:v>0.0419551272143411</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0658089736999936</c:v>
+                  <c:v>0.037965771424617</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.049861155489337</c:v>
+                  <c:v>0.0343690374121514</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0442618125435981</c:v>
+                  <c:v>0.0311448807953834</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0290390775740961</c:v>
+                  <c:v>0.0282629182045236</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0264169776330741</c:v>
+                  <c:v>0.0256895616484788</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0207083183403241</c:v>
+                  <c:v>0.0233916181896725</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0166397985115836</c:v>
+                  <c:v>0.0213380050243186</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0127106996994426</c:v>
+                  <c:v>0.0195004593659394</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0131848782902455</c:v>
+                  <c:v>0.0178537189696205</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00509404808802815</c:v>
+                  <c:v>0.016375433179712</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0128904932837563</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>確率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$G$2:$G$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.0022003675291628</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0178417167579174</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0482281994972372</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0782989382763224</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0973445148748264</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.103795618841467</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.100698118522456</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0919209842901926</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0805734903331328</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0687038172886059</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0574789025399601</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0474594610773869</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0388337743978616</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.031582479692188</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0255835959555181</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0206747488161526</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0166875262307264</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0134647836084814</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0108680411966696</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.00877942917172969</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.00710084423069057</c:v>
+                  <c:v>0.015045946761026</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0138480338416997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0127666231333358</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0117885353846358</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0109022427691002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0100976537193573</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.00936592341283526</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.00869928844092671</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00809092344229234</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.00753481723894933</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.00702566604389143</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.00655878147498545</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.00613001133442914</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.00573567135338082</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.00537248633462273</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.00503753934120543</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.00472822777133419</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.00444222532844829</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.00417744904150563</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.00393203061592273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6334,11 +6222,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="91342576"/>
-        <c:axId val="79453013"/>
+        <c:axId val="90100047"/>
+        <c:axId val="26005210"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91342576"/>
+        <c:axId val="90100047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6366,14 +6254,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79453013"/>
+        <c:crossAx val="26005210"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79453013"/>
+        <c:axId val="26005210"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6388,7 +6276,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6410,7 +6298,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91342576"/>
+        <c:crossAx val="90100047"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6458,7 +6346,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart228.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart272.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6472,11 +6360,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$D$1</c:f>
+              <c:f>Sheet4!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>累積</c:v>
+                  <c:v>確率</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6496,6 +6384,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -6507,6 +6396,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6517,7 +6407,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$D$2:$D$22</c:f>
+              <c:f>Sheet4!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -6528,61 +6418,61 @@
                   <c:v>0.0222718794328042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0751284393177912</c:v>
+                  <c:v>0.052856559884987</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.150016423383138</c:v>
+                  <c:v>0.0748879840653463</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.246847910250038</c:v>
+                  <c:v>0.0968314868669002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.348053088340253</c:v>
+                  <c:v>0.101205178090215</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.447400609134691</c:v>
+                  <c:v>0.0993475207944385</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.543308927242843</c:v>
+                  <c:v>0.0959083181081522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.625119115039256</c:v>
+                  <c:v>0.0818101877964129</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.693779617293634</c:v>
+                  <c:v>0.0686605022543779</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.759588590993628</c:v>
+                  <c:v>0.0658089736999936</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.809449746482965</c:v>
+                  <c:v>0.049861155489337</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.853711559026563</c:v>
+                  <c:v>0.0442618125435981</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.882750636600659</c:v>
+                  <c:v>0.0290390775740961</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.909167614233733</c:v>
+                  <c:v>0.0264169776330741</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.929875932574057</c:v>
+                  <c:v>0.0207083183403241</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.946515731085641</c:v>
+                  <c:v>0.0166397985115836</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.959226430785083</c:v>
+                  <c:v>0.0127106996994426</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.972411309075329</c:v>
+                  <c:v>0.0131848782902455</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.977505357163357</c:v>
+                  <c:v>0.00509404808802815</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.990395850447113</c:v>
+                  <c:v>0.0128904932837563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6594,11 +6484,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$F$1</c:f>
+              <c:f>Sheet4!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>累積</c:v>
+                  <c:v>確率</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6618,6 +6508,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -6629,6 +6520,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6639,7 +6531,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$F$2:$F$22</c:f>
+              <c:f>Sheet4!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -6647,64 +6539,64 @@
                   <c:v>0.0022003675291628</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0200420842870802</c:v>
+                  <c:v>0.0178417167579174</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0682702837843174</c:v>
+                  <c:v>0.0482281994972372</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14656922206064</c:v>
+                  <c:v>0.0782989382763224</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.243913736935466</c:v>
+                  <c:v>0.0973445148748264</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.347709355776934</c:v>
+                  <c:v>0.103795618841467</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44840747429939</c:v>
+                  <c:v>0.100698118522456</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.540328458589582</c:v>
+                  <c:v>0.0919209842901926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.620901948922715</c:v>
+                  <c:v>0.0805734903331328</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.689605766211321</c:v>
+                  <c:v>0.0687038172886059</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.747084668751281</c:v>
+                  <c:v>0.0574789025399601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.794544129828668</c:v>
+                  <c:v>0.0474594610773869</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.833377904226529</c:v>
+                  <c:v>0.0388337743978616</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.864960383918717</c:v>
+                  <c:v>0.031582479692188</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.890543979874236</c:v>
+                  <c:v>0.0255835959555181</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.911218728690388</c:v>
+                  <c:v>0.0206747488161526</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.927906254921115</c:v>
+                  <c:v>0.0166875262307264</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.941371038529596</c:v>
+                  <c:v>0.0134647836084814</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.952239079726266</c:v>
+                  <c:v>0.0108680411966696</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.961018508897995</c:v>
+                  <c:v>0.00877942917172969</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.968119353128686</c:v>
+                  <c:v>0.00710084423069057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6719,11 +6611,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="36822824"/>
-        <c:axId val="37417754"/>
+        <c:axId val="24682340"/>
+        <c:axId val="26478787"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="36822824"/>
+        <c:axId val="24682340"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6751,14 +6643,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37417754"/>
+        <c:crossAx val="26478787"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37417754"/>
+        <c:axId val="26478787"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6773,6 +6665,351 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24682340"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart273.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>累積</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0222718794328042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0751284393177912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.150016423383138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.246847910250038</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.348053088340253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.447400609134691</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.543308927242843</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.625119115039256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.693779617293634</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.759588590993628</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.809449746482965</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.853711559026563</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.882750636600659</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.909167614233733</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.929875932574057</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.946515731085641</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.959226430785083</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.972411309075329</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.977505357163357</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.990395850447113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>累積</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$F$2:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0022003675291628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0200420842870802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0682702837843174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14656922206064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.243913736935466</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.347709355776934</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44840747429939</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.540328458589582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.620901948922715</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.689605766211321</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.747084668751281</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.794544129828668</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.833377904226529</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.864960383918717</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.890543979874236</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.911218728690388</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.927906254921115</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.941371038529596</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.952239079726266</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.961018508897995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.968119353128686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="18619011"/>
+        <c:axId val="76292955"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="18619011"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -6795,7 +7032,51 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36822824"/>
+        <c:crossAx val="76292955"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76292955"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="18619011"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6854,9 +7135,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>210960</xdr:colOff>
+      <xdr:colOff>210600</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6864,8 +7145,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14488560" y="3564360"/>
-        <a:ext cx="5771160" cy="3238200"/>
+        <a:off x="14488920" y="3564360"/>
+        <a:ext cx="5771160" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6884,9 +7165,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>807120</xdr:colOff>
+      <xdr:colOff>806760</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6894,8 +7175,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14282280" y="7416000"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:off x="14283000" y="7416000"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6919,9 +7200,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>114480</xdr:colOff>
+      <xdr:colOff>114120</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6929,8 +7210,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10890000" y="507240"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="10896840" y="507240"/>
+        <a:ext cx="5763960" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6949,9 +7230,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>422280</xdr:colOff>
+      <xdr:colOff>421920</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6959,8 +7240,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10873800" y="4083480"/>
-        <a:ext cx="6083640" cy="3239640"/>
+        <a:off x="10880640" y="4083480"/>
+        <a:ext cx="6087960" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6979,9 +7260,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>294840</xdr:colOff>
+      <xdr:colOff>294480</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6989,8 +7270,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10762200" y="7692480"/>
-        <a:ext cx="6067800" cy="3239640"/>
+        <a:off x="10768680" y="7692480"/>
+        <a:ext cx="6072480" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7009,9 +7290,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
+      <xdr:colOff>299880</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7019,8 +7300,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1042920" y="6734520"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="1043640" y="6734520"/>
+        <a:ext cx="5763600" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7039,9 +7320,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>752400</xdr:colOff>
+      <xdr:colOff>752040</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>140400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7049,8 +7330,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4212720" y="4053600"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="4215960" y="4053600"/>
+        <a:ext cx="5761800" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7069,9 +7350,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
+      <xdr:colOff>163440</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7079,8 +7360,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6875280" y="5400360"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="6880320" y="5400360"/>
+        <a:ext cx="5762520" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7099,9 +7380,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>708120</xdr:colOff>
+      <xdr:colOff>707760</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7109,8 +7390,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12296520" y="245160"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="12304080" y="245160"/>
+        <a:ext cx="5763600" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7129,9 +7410,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>639720</xdr:colOff>
+      <xdr:colOff>639360</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7139,12 +7420,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3287160" y="3612600"/>
+        <a:off x="3289680" y="3612600"/>
+        <a:ext cx="5762160" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>176400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4243320" y="198360"/>
         <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7164,18 +7475,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>241920</xdr:colOff>
+      <xdr:colOff>241560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:rowOff>59400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name=""/>
+        <xdr:cNvPr id="11" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5835600" y="233640"/>
-        <a:ext cx="4159800" cy="3239640"/>
+        <a:off x="5839920" y="233640"/>
+        <a:ext cx="4162680" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7194,18 +7505,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>633960</xdr:colOff>
+      <xdr:colOff>633600</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvPr id="12" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5601960" y="3763080"/>
-        <a:ext cx="4785480" cy="3239640"/>
+        <a:off x="5605920" y="3763080"/>
+        <a:ext cx="4788720" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7229,18 +7540,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>61920</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name=""/>
+        <xdr:cNvPr id="13" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7131960" y="233640"/>
-        <a:ext cx="6747840" cy="3795480"/>
+        <a:off x="7137000" y="233640"/>
+        <a:ext cx="6753240" cy="3795120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7259,18 +7570,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>699480</xdr:colOff>
+      <xdr:colOff>699120</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name=""/>
+        <xdr:cNvPr id="14" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7131600" y="4285440"/>
-        <a:ext cx="5759640" cy="3854160"/>
+        <a:off x="7136640" y="4285440"/>
+        <a:ext cx="5763960" cy="3853800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7290,8 +7601,8 @@
   </sheetPr>
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9739,19 +10050,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:K22"/>
+  <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="10.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9782,6 +10091,9 @@
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="n">
@@ -9815,6 +10127,9 @@
         <f aca="false">AVERAGE(H2,J2)</f>
         <v>0.0128904932837563</v>
       </c>
+      <c r="L2" s="1" t="n">
+        <v>0.0209968318652202</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="n">
@@ -9848,6 +10163,9 @@
         <f aca="false">AVERAGE(H3,J3)</f>
         <v>0.00509404808802815</v>
       </c>
+      <c r="L3" s="1" t="n">
+        <v>0.0578550524286772</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="n">
@@ -9881,6 +10199,9 @@
         <f aca="false">AVERAGE(H4,J4)</f>
         <v>0.0131848782902455</v>
       </c>
+      <c r="L4" s="1" t="n">
+        <v>0.0703162989778507</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="n">
@@ -9914,6 +10235,9 @@
         <f aca="false">AVERAGE(H5,J5)</f>
         <v>0.0127106996994426</v>
       </c>
+      <c r="L5" s="1" t="n">
+        <v>0.0945700207210482</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="n">
@@ -9947,6 +10271,9 @@
         <f aca="false">AVERAGE(H6,J6)</f>
         <v>0.0166397985115836</v>
       </c>
+      <c r="L6" s="1" t="n">
+        <v>0.104942271784255</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="n">
@@ -9980,6 +10307,9 @@
         <f aca="false">AVERAGE(H7,J7)</f>
         <v>0.0207083183403241</v>
       </c>
+      <c r="L7" s="1" t="n">
+        <v>0.098895562650128</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="n">
@@ -10013,6 +10343,9 @@
         <f aca="false">AVERAGE(H8,J8)</f>
         <v>0.0264169776330741</v>
       </c>
+      <c r="L8" s="1" t="n">
+        <v>0.0964712453032246</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="n">
@@ -10046,6 +10379,9 @@
         <f aca="false">AVERAGE(H9,J9)</f>
         <v>0.0290390775740961</v>
       </c>
+      <c r="L9" s="1" t="n">
+        <v>0.0809469792936124</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="n">
@@ -10079,6 +10415,9 @@
         <f aca="false">AVERAGE(H10,J10)</f>
         <v>0.0442618125435981</v>
       </c>
+      <c r="L10" s="1" t="n">
+        <v>0.0670079845228297</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="n">
@@ -10112,6 +10451,9 @@
         <f aca="false">AVERAGE(H11,J11)</f>
         <v>0.049861155489337</v>
       </c>
+      <c r="L11" s="1" t="n">
+        <v>0.0661264024388064</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="n">
@@ -10145,6 +10487,9 @@
         <f aca="false">AVERAGE(H12,J12)</f>
         <v>0.0658089736999936</v>
       </c>
+      <c r="L12" s="1" t="n">
+        <v>0.052158621049925</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="n">
@@ -10178,6 +10523,9 @@
         <f aca="false">AVERAGE(H13,J13)</f>
         <v>0.0686605022543779</v>
       </c>
+      <c r="L13" s="1" t="n">
+        <v>0.0460529839826458</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="n">
@@ -10212,6 +10560,9 @@
         <f aca="false">AVERAGE(H14,J14)</f>
         <v>0.0818101877964129</v>
       </c>
+      <c r="L14" s="1" t="n">
+        <v>0.0254285710818039</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="n">
@@ -10245,6 +10596,9 @@
         <f aca="false">AVERAGE(H15,J15)</f>
         <v>0.0959083181081522</v>
       </c>
+      <c r="L15" s="1" t="n">
+        <v>0.023539028105354</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="1" t="n">
@@ -10269,6 +10623,9 @@
         <f aca="false">AVERAGE(H16,J16)</f>
         <v>0.0993475207944385</v>
       </c>
+      <c r="L16" s="1" t="n">
+        <v>0.0281432800234436</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="1" t="n">
@@ -10290,6 +10647,9 @@
         <f aca="false">AVERAGE(H17,J17)</f>
         <v>0.101205178090215</v>
       </c>
+      <c r="L17" s="1" t="n">
+        <v>0.00930674011170574</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="1" t="n">
@@ -10308,6 +10668,9 @@
         <f aca="false">AVERAGE(H18,J18)</f>
         <v>0.0968314868669002</v>
       </c>
+      <c r="L18" s="1" t="n">
+        <v>0.0167884458565697</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E19" s="1" t="n">
@@ -10326,6 +10689,9 @@
         <f aca="false">AVERAGE(H19,J19)</f>
         <v>0.0748879840653463</v>
       </c>
+      <c r="L19" s="1" t="n">
+        <v>0.0135026824476707</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E20" s="1" t="n">
@@ -10344,6 +10710,9 @@
         <f aca="false">AVERAGE(H20,J20)</f>
         <v>0.052856559884987</v>
       </c>
+      <c r="L20" s="1" t="n">
+        <v>0.00456651485771431</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="1" t="n">
@@ -10362,6 +10731,9 @@
         <f aca="false">AVERAGE(H21,J21)</f>
         <v>0.0222718794328042</v>
       </c>
+      <c r="L21" s="1" t="n">
+        <v>-0.0135508530706829</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E22" s="1" t="n">
@@ -10369,6 +10741,9 @@
       </c>
       <c r="K22" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>0.0350690863766374</v>
       </c>
     </row>
   </sheetData>
@@ -10396,11 +10771,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="8" t="n">
+      <c r="B1" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="C1" s="0" t="n">
@@ -11466,12 +11841,12 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11479,25 +11854,25 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11518,7 +11893,7 @@
         <f aca="false">(B2-$B$28)*$B$27</f>
         <v>0.234</v>
       </c>
-      <c r="F2" s="9" t="n">
+      <c r="F2" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E2,0,$B$26,TRUE())</f>
         <v>0.0022003675291628</v>
       </c>
@@ -11549,7 +11924,7 @@
         <f aca="false">(B3-$B$28)*$B$27</f>
         <v>0.351</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E3,0,$B$26,TRUE())</f>
         <v>0.0200420842870802</v>
       </c>
@@ -11559,7 +11934,7 @@
       </c>
       <c r="H3" s="1" t="n">
         <f aca="false">POWER(C3-G3,2)</f>
-        <v>1.96263413259607E-005</v>
+        <v>1.96263413259603E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11580,7 +11955,7 @@
         <f aca="false">(B4-$B$28)*$B$27</f>
         <v>0.468</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E4,0,$B$26,TRUE())</f>
         <v>0.0682702837843174</v>
       </c>
@@ -11590,7 +11965,7 @@
       </c>
       <c r="H4" s="1" t="n">
         <f aca="false">POWER(C4-G4,2)</f>
-        <v>2.14217198788916E-005</v>
+        <v>2.14217198788917E-005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11611,7 +11986,7 @@
         <f aca="false">(B5-$B$28)*$B$27</f>
         <v>0.585</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E5,0,$B$26,TRUE())</f>
         <v>0.14656922206064</v>
       </c>
@@ -11642,7 +12017,7 @@
         <f aca="false">(B6-$B$28)*$B$27</f>
         <v>0.702</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E6,0,$B$26,TRUE())</f>
         <v>0.243913736935466</v>
       </c>
@@ -11652,7 +12027,7 @@
       </c>
       <c r="H6" s="1" t="n">
         <f aca="false">POWER(C6-G6,2)</f>
-        <v>2.63197736916825E-007</v>
+        <v>2.63197736916782E-007</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11673,7 +12048,7 @@
         <f aca="false">(B7-$B$28)*$B$27</f>
         <v>0.819</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E7,0,$B$26,TRUE())</f>
         <v>0.347709355776934</v>
       </c>
@@ -11683,7 +12058,7 @@
       </c>
       <c r="H7" s="1" t="n">
         <f aca="false">POWER(C7-G7,2)</f>
-        <v>6.71038328574949E-006</v>
+        <v>6.71038328574921E-006</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11704,7 +12079,7 @@
         <f aca="false">(B8-$B$28)*$B$27</f>
         <v>0.936</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E8,0,$B$26,TRUE())</f>
         <v>0.44840747429939</v>
       </c>
@@ -11714,7 +12089,7 @@
       </c>
       <c r="H8" s="1" t="n">
         <f aca="false">POWER(C8-G8,2)</f>
-        <v>1.82411422292615E-006</v>
+        <v>1.82411422292611E-006</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11735,7 +12110,7 @@
         <f aca="false">(B9-$B$28)*$B$27</f>
         <v>1.053</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E9,0,$B$26,TRUE())</f>
         <v>0.540328458589582</v>
       </c>
@@ -11745,7 +12120,7 @@
       </c>
       <c r="H9" s="1" t="n">
         <f aca="false">POWER(C9-G9,2)</f>
-        <v>1.58988309758448E-005</v>
+        <v>1.58988309758445E-005</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11766,7 +12141,7 @@
         <f aca="false">(B10-$B$28)*$B$27</f>
         <v>1.17</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E10,0,$B$26,TRUE())</f>
         <v>0.620901948922715</v>
       </c>
@@ -11776,7 +12151,7 @@
       </c>
       <c r="H10" s="1" t="n">
         <f aca="false">POWER(C10-G10,2)</f>
-        <v>1.52942061568348E-006</v>
+        <v>1.52942061568351E-006</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11797,7 +12172,7 @@
         <f aca="false">(B11-$B$28)*$B$27</f>
         <v>1.287</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E11,0,$B$26,TRUE())</f>
         <v>0.689605766211321</v>
       </c>
@@ -11807,7 +12182,7 @@
       </c>
       <c r="H11" s="1" t="n">
         <f aca="false">POWER(C11-G11,2)</f>
-        <v>1.87619219016779E-009</v>
+        <v>1.87619219017019E-009</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11828,7 +12203,7 @@
         <f aca="false">(B12-$B$28)*$B$27</f>
         <v>1.404</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E12,0,$B$26,TRUE())</f>
         <v>0.747084668751281</v>
       </c>
@@ -11838,7 +12213,7 @@
       </c>
       <c r="H12" s="1" t="n">
         <f aca="false">POWER(C12-G12,2)</f>
-        <v>6.9390085531222E-005</v>
+        <v>6.93900855312213E-005</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11859,7 +12234,7 @@
         <f aca="false">(B13-$B$28)*$B$27</f>
         <v>1.521</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F13" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E13,0,$B$26,TRUE())</f>
         <v>0.794544129828668</v>
       </c>
@@ -11869,7 +12244,7 @@
       </c>
       <c r="H13" s="1" t="n">
         <f aca="false">POWER(C13-G13,2)</f>
-        <v>5.76813604839251E-006</v>
+        <v>5.76813604839258E-006</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11890,7 +12265,7 @@
         <f aca="false">(B14-$B$28)*$B$27</f>
         <v>1.638</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E14,0,$B$26,TRUE())</f>
         <v>0.833377904226529</v>
       </c>
@@ -11900,7 +12275,7 @@
       </c>
       <c r="H14" s="1" t="n">
         <f aca="false">POWER(C14-G14,2)</f>
-        <v>2.94635981115701E-005</v>
+        <v>2.94635981115703E-005</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11921,7 +12296,7 @@
         <f aca="false">(B15-$B$28)*$B$27</f>
         <v>1.755</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E15,0,$B$26,TRUE())</f>
         <v>0.864960383918717</v>
       </c>
@@ -11931,7 +12306,7 @@
       </c>
       <c r="H15" s="1" t="n">
         <f aca="false">POWER(C15-G15,2)</f>
-        <v>6.46889433431398E-006</v>
+        <v>6.46889433431421E-006</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11952,7 +12327,7 @@
         <f aca="false">(B16-$B$28)*$B$27</f>
         <v>1.872</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F16" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E16,0,$B$26,TRUE())</f>
         <v>0.890543979874236</v>
       </c>
@@ -11962,7 +12337,7 @@
       </c>
       <c r="H16" s="1" t="n">
         <f aca="false">POWER(C16-G16,2)</f>
-        <v>6.94525020486154E-007</v>
+        <v>6.94525020486102E-007</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11983,7 +12358,7 @@
         <f aca="false">(B17-$B$28)*$B$27</f>
         <v>1.989</v>
       </c>
-      <c r="F17" s="9" t="n">
+      <c r="F17" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E17,0,$B$26,TRUE())</f>
         <v>0.911218728690388</v>
       </c>
@@ -11993,7 +12368,7 @@
       </c>
       <c r="H17" s="1" t="n">
         <f aca="false">POWER(C17-G17,2)</f>
-        <v>1.12691295309826E-009</v>
+        <v>1.12691295310013E-009</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12014,7 +12389,7 @@
         <f aca="false">(B18-$B$28)*$B$27</f>
         <v>2.106</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F18" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E18,0,$B$26,TRUE())</f>
         <v>0.927906254921115</v>
       </c>
@@ -12024,7 +12399,7 @@
       </c>
       <c r="H18" s="1" t="n">
         <f aca="false">POWER(C18-G18,2)</f>
-        <v>2.27793517457913E-009</v>
+        <v>2.27793517457847E-009</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12045,7 +12420,7 @@
         <f aca="false">(B19-$B$28)*$B$27</f>
         <v>2.223</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E19,0,$B$26,TRUE())</f>
         <v>0.941371038529596</v>
       </c>
@@ -12055,7 +12430,7 @@
       </c>
       <c r="H19" s="1" t="n">
         <f aca="false">POWER(C19-G19,2)</f>
-        <v>5.68642541871109E-007</v>
+        <v>5.68642541871172E-007</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12076,7 +12451,7 @@
         <f aca="false">(B20-$B$28)*$B$27</f>
         <v>2.34</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E20,0,$B$26,TRUE())</f>
         <v>0.952239079726266</v>
       </c>
@@ -12086,7 +12461,7 @@
       </c>
       <c r="H20" s="1" t="n">
         <f aca="false">POWER(C20-G20,2)</f>
-        <v>5.36773411816918E-006</v>
+        <v>5.36773411816913E-006</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12107,7 +12482,7 @@
         <f aca="false">(B21-$B$28)*$B$27</f>
         <v>2.457</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E21,0,$B$26,TRUE())</f>
         <v>0.961018508897995</v>
       </c>
@@ -12117,7 +12492,7 @@
       </c>
       <c r="H21" s="1" t="n">
         <f aca="false">POWER(C21-G21,2)</f>
-        <v>1.35820337321052E-005</v>
+        <v>1.35820337321051E-005</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12138,7 +12513,7 @@
         <f aca="false">(B22-$B$28)*$B$27</f>
         <v>2.574</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E22,0,$B$26,TRUE())</f>
         <v>0.968119353128686</v>
       </c>
@@ -12148,18 +12523,18 @@
       </c>
       <c r="H22" s="1" t="n">
         <f aca="false">POWER(C22-G22,2)</f>
-        <v>3.35200361576651E-005</v>
+        <v>3.35200361576649E-005</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H23" s="1" t="n">
         <f aca="false">SUM(H2:H22)/21</f>
-        <v>1.18371047890884E-005</v>
+        <v>1.18371047890883E-005</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>5</v>
@@ -12167,7 +12542,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>6.5</v>
@@ -12177,7 +12552,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>0.51</v>
@@ -12188,7 +12563,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>0.117</v>
@@ -12199,7 +12574,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>-2</v>

--- a/punch04-02.xlsx
+++ b/punch04-02.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t xml:space="preserve">流行時刻（日）</t>
   </si>
@@ -67,10 +68,13 @@
     <t xml:space="preserve">26/new</t>
   </si>
   <si>
+    <t xml:space="preserve">aの添字（日後）</t>
+  </si>
+  <si>
     <t xml:space="preserve">横軸</t>
   </si>
   <si>
-    <t xml:space="preserve">確率</t>
+    <t xml:space="preserve">連立方程式の解</t>
   </si>
   <si>
     <t xml:space="preserve">累積</t>
@@ -79,7 +83,13 @@
     <t xml:space="preserve">x</t>
   </si>
   <si>
+    <t xml:space="preserve">対数正規分布による近似</t>
+  </si>
+  <si>
     <t xml:space="preserve">差分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aの添字（日）</t>
   </si>
   <si>
     <t xml:space="preserve">最頻値</t>
@@ -96,18 +106,25 @@
   <si>
     <t xml:space="preserve">d</t>
   </si>
+  <si>
+    <t xml:space="preserve">aの添字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">確率</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="0%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Hiragino Mincho ProN"/>
@@ -143,6 +160,11 @@
     <font>
       <sz val="10"/>
       <name val="Hiragino Mincho ProN"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Hiragino Sans"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -218,7 +240,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -252,6 +274,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -327,7 +353,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart259.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart228.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2560,11 +2586,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="6422883"/>
-        <c:axId val="88348883"/>
+        <c:axId val="70929372"/>
+        <c:axId val="46216068"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="6422883"/>
+        <c:axId val="70929372"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -2594,12 +2620,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88348883"/>
+        <c:crossAx val="46216068"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88348883"/>
+        <c:axId val="46216068"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2637,7 +2663,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6422883"/>
+        <c:crossAx val="70929372"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2686,7 +2712,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart260.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart229.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3199,11 +3225,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="78686534"/>
-        <c:axId val="54786062"/>
+        <c:axId val="26293121"/>
+        <c:axId val="80888264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78686534"/>
+        <c:axId val="26293121"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3231,14 +3257,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54786062"/>
+        <c:crossAx val="80888264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54786062"/>
+        <c:axId val="80888264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3275,7 +3301,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78686534"/>
+        <c:crossAx val="26293121"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3323,7 +3349,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart261.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart230.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3421,11 +3447,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="45380688"/>
-        <c:axId val="96350537"/>
+        <c:axId val="58207047"/>
+        <c:axId val="76952695"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45380688"/>
+        <c:axId val="58207047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3453,14 +3479,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96350537"/>
+        <c:crossAx val="76952695"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96350537"/>
+        <c:axId val="76952695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3497,7 +3523,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45380688"/>
+        <c:crossAx val="58207047"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3544,7 +3570,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart262.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart231.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3645,11 +3671,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="61176189"/>
-        <c:axId val="98616028"/>
+        <c:axId val="70628981"/>
+        <c:axId val="71045287"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61176189"/>
+        <c:axId val="70628981"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3677,14 +3703,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98616028"/>
+        <c:crossAx val="71045287"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98616028"/>
+        <c:axId val="71045287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3721,7 +3747,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61176189"/>
+        <c:crossAx val="70628981"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3768,7 +3794,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart263.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart232.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3872,11 +3898,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="88654566"/>
-        <c:axId val="55484134"/>
+        <c:axId val="7025612"/>
+        <c:axId val="74990077"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88654566"/>
+        <c:axId val="7025612"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3904,14 +3930,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55484134"/>
+        <c:crossAx val="74990077"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55484134"/>
+        <c:axId val="74990077"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3948,7 +3974,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88654566"/>
+        <c:crossAx val="7025612"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3995,7 +4021,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart264.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart233.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4111,11 +4137,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="47735257"/>
-        <c:axId val="86684938"/>
+        <c:axId val="42087216"/>
+        <c:axId val="78263925"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47735257"/>
+        <c:axId val="42087216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4143,14 +4169,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86684938"/>
+        <c:crossAx val="78263925"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86684938"/>
+        <c:axId val="78263925"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,7 +4213,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47735257"/>
+        <c:crossAx val="42087216"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4234,7 +4260,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart265.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart234.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4376,11 +4402,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="30768964"/>
-        <c:axId val="67564257"/>
+        <c:axId val="59728298"/>
+        <c:axId val="78827547"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="30768964"/>
+        <c:axId val="59728298"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4408,14 +4434,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67564257"/>
+        <c:crossAx val="78827547"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67564257"/>
+        <c:axId val="78827547"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4452,7 +4478,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30768964"/>
+        <c:crossAx val="59728298"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4500,7 +4526,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart266.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart235.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4759,11 +4785,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="81037791"/>
-        <c:axId val="32968976"/>
+        <c:axId val="91805859"/>
+        <c:axId val="94755778"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81037791"/>
+        <c:axId val="91805859"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4791,14 +4817,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32968976"/>
+        <c:crossAx val="94755778"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32968976"/>
+        <c:axId val="94755778"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4835,7 +4861,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81037791"/>
+        <c:crossAx val="91805859"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4883,7 +4909,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart267.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart236.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5021,11 +5047,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="14504438"/>
-        <c:axId val="89919481"/>
+        <c:axId val="48565472"/>
+        <c:axId val="44122507"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="14504438"/>
+        <c:axId val="48565472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5053,14 +5079,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89919481"/>
+        <c:crossAx val="44122507"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89919481"/>
+        <c:axId val="44122507"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5097,7 +5123,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14504438"/>
+        <c:crossAx val="48565472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5145,7 +5171,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart268.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart237.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5350,11 +5376,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="90072408"/>
-        <c:axId val="31438171"/>
+        <c:axId val="84426855"/>
+        <c:axId val="80596543"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90072408"/>
+        <c:axId val="84426855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5382,12 +5408,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31438171"/>
+        <c:crossAx val="80596543"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="31438171"/>
+        <c:axId val="80596543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5424,7 +5450,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90072408"/>
+        <c:crossAx val="84426855"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5472,7 +5498,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart269.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart238.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5499,6 +5525,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -5510,6 +5537,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5600,11 +5628,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="51370087"/>
-        <c:axId val="35786986"/>
+        <c:axId val="69692818"/>
+        <c:axId val="93996524"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51370087"/>
+        <c:axId val="69692818"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5632,14 +5660,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35786986"/>
+        <c:crossAx val="93996524"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35786986"/>
+        <c:axId val="93996524"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5654,7 +5682,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5676,7 +5704,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51370087"/>
+        <c:crossAx val="69692818"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5724,7 +5752,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart270.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart239.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5911,11 +5939,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="19541928"/>
-        <c:axId val="24059580"/>
+        <c:axId val="21568182"/>
+        <c:axId val="74681134"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="19541928"/>
+        <c:axId val="21568182"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5943,14 +5971,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24059580"/>
+        <c:crossAx val="74681134"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24059580"/>
+        <c:axId val="74681134"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5987,7 +6015,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19541928"/>
+        <c:crossAx val="21568182"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6035,7 +6063,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart271.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart240.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6222,11 +6250,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="90100047"/>
-        <c:axId val="26005210"/>
+        <c:axId val="52111407"/>
+        <c:axId val="77401805"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90100047"/>
+        <c:axId val="52111407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6254,14 +6282,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26005210"/>
+        <c:crossAx val="77401805"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26005210"/>
+        <c:axId val="77401805"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6298,7 +6326,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90100047"/>
+        <c:crossAx val="52111407"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6346,7 +6374,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart272.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart241.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6364,7 +6392,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>確率</c:v>
+                  <c:v>連立方程式の解</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6488,7 +6516,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>確率</c:v>
+                  <c:v>対数正規分布による近似</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6536,67 +6564,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.0022003675291628</c:v>
+                  <c:v>0.00164449685379458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0178417167579174</c:v>
+                  <c:v>0.0150065699308644</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0482281994972372</c:v>
+                  <c:v>0.0435536229176562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0782989382763224</c:v>
+                  <c:v>0.073991898234766</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0973445148748264</c:v>
+                  <c:v>0.0948084984018493</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.103795618841467</c:v>
+                  <c:v>0.103202312339454</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.100698118522456</c:v>
+                  <c:v>0.101570781935194</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0919209842901926</c:v>
+                  <c:v>0.0936485460063541</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0805734903331328</c:v>
+                  <c:v>0.0826518679625258</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0687038172886059</c:v>
+                  <c:v>0.0707954226262327</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0574789025399601</c:v>
+                  <c:v>0.0593924085161318</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0474594610773869</c:v>
+                  <c:v>0.0491079672866271</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0388337743978616</c:v>
+                  <c:v>0.0401958540552565</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.031582479692188</c:v>
+                  <c:v>0.0326731722354765</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0255835959555181</c:v>
+                  <c:v>0.0264352492410985</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0206747488161526</c:v>
+                  <c:v>0.0213254485062817</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0166875262307264</c:v>
+                  <c:v>0.0171747078457167</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0134647836084814</c:v>
+                  <c:v>0.0138221168131725</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0108680411966696</c:v>
+                  <c:v>0.0111242478562256</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00877942917172969</c:v>
+                  <c:v>0.00895816537644256</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00710084423069057</c:v>
+                  <c:v>0.00722111188682228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6611,11 +6639,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="24682340"/>
-        <c:axId val="26478787"/>
+        <c:axId val="4626120"/>
+        <c:axId val="67290219"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="24682340"/>
+        <c:axId val="4626120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6643,14 +6671,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26478787"/>
+        <c:crossAx val="67290219"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26478787"/>
+        <c:axId val="67290219"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6687,7 +6715,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24682340"/>
+        <c:crossAx val="4626120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6735,7 +6763,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart273.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart242.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6925,67 +6953,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.0022003675291628</c:v>
+                  <c:v>0.00164449685379458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0200420842870802</c:v>
+                  <c:v>0.0166510667846589</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0682702837843174</c:v>
+                  <c:v>0.0602046897023152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14656922206064</c:v>
+                  <c:v>0.134196587937081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.243913736935466</c:v>
+                  <c:v>0.22900508633893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.347709355776934</c:v>
+                  <c:v>0.332207398678385</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44840747429939</c:v>
+                  <c:v>0.433778180613579</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.540328458589582</c:v>
+                  <c:v>0.527426726619933</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.620901948922715</c:v>
+                  <c:v>0.610078594582459</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.689605766211321</c:v>
+                  <c:v>0.680874017208691</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.747084668751281</c:v>
+                  <c:v>0.740266425724823</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.794544129828668</c:v>
+                  <c:v>0.78937439301145</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.833377904226529</c:v>
+                  <c:v>0.829570247066707</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.864960383918717</c:v>
+                  <c:v>0.862243419302183</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.890543979874236</c:v>
+                  <c:v>0.888678668543282</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.911218728690388</c:v>
+                  <c:v>0.910004117049564</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.927906254921115</c:v>
+                  <c:v>0.92717882489528</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.941371038529596</c:v>
+                  <c:v>0.941000941708453</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.952239079726266</c:v>
+                  <c:v>0.952125189564678</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.961018508897995</c:v>
+                  <c:v>0.961083354941121</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.968119353128686</c:v>
+                  <c:v>0.968304466827943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7000,11 +7028,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="18619011"/>
-        <c:axId val="76292955"/>
+        <c:axId val="36371928"/>
+        <c:axId val="63745666"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="18619011"/>
+        <c:axId val="36371928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7032,14 +7060,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76292955"/>
+        <c:crossAx val="63745666"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76292955"/>
+        <c:axId val="63745666"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7076,7 +7104,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18619011"/>
+        <c:crossAx val="36371928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7124,6 +7152,2064 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart243.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>連立方程式の解</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0000ff"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="0000ff"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0222718794328042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.052856559884987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0748879840653463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0968314868669002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.101205178090215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0993475207944385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0959083181081522</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0818101877964129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0686605022543779</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0658089736999936</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.049861155489337</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0442618125435981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0290390775740961</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0264169776330741</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0207083183403241</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0166397985115836</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0127106996994426</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0131848782902455</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.00509404808802815</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0128904932837563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>対数正規分布による近似</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$G$2:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.00164449685379458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0150065699308644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0435536229176562</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.073991898234766</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0948084984018493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.103202312339454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.101570781935194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0936485460063541</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0826518679625258</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0707954226262327</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0593924085161318</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0491079672866271</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0401958540552565</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0326731722354765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0264352492410985</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0213254485062817</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0171747078457167</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0138221168131725</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0111242478562256</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.00895816537644256</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.00722111188682228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="19351769"/>
+        <c:axId val="93866925"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="19351769"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Hiragino Sans"/>
+                    <a:ea typeface="Hiragino Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Hiragino Sans"/>
+                    <a:ea typeface="Hiragino Sans"/>
+                  </a:rPr>
+                  <a:t>aの添字</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Hiragino Sans"/>
+                <a:ea typeface="Hiragino Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93866925"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="93866925"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Hiragino Sans"/>
+                <a:ea typeface="Hiragino Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="19351769"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Hiragino Sans"/>
+              <a:ea typeface="Hiragino Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart244.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>連立方程式の解</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$J$2:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$K$2:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0222718794328042</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.052856559884987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0748879840653463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0968314868669002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.101205178090215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0993475207944385</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0959083181081522</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0818101877964129</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0686605022543779</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0658089736999936</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.049861155489337</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0442618125435981</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0290390775740961</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0264169776330741</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0207083183403241</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0166397985115836</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0127106996994426</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0131848782902455</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.00509404808802815</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>対数正規分布による近似</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$J$2:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$N$2:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.60426442303621E-006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00163689258937155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0150065699308644</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0435536229176562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.073991898234766</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0948084984018493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.103202312339454</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.101570781935194</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0936485460063541</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0826518679625258</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0707954226262327</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0593924085161318</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0491079672866271</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0401958540552565</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0326731722354765</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0264352492410985</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0213254485062817</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0171747078457167</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0138221168131725</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0111242478562256</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.00895816537644256</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.00722111188682228</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.00582862585117261</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.00471207478819324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="90041708"/>
+        <c:axId val="4994904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="90041708"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4994904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="4994904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="90041708"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart245.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>連立方程式の解</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0000ff"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="0000ff"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$J$2:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$K$2:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0222718794328042</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.052856559884987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0748879840653463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0968314868669002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.101205178090215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0993475207944385</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0959083181081522</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0818101877964129</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0686605022543779</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0658089736999936</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.049861155489337</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0442618125435981</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0290390775740961</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0264169776330741</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0207083183403241</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0166397985115836</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0127106996994426</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0131848782902455</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.00509404808802815</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>対数正規分布による近似</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$J$2:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$N$2:$N$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.60426442303621E-006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00163689258937155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0150065699308644</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0435536229176562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.073991898234766</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0948084984018493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.103202312339454</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.101570781935194</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0936485460063541</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0826518679625258</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0707954226262327</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0593924085161318</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0491079672866271</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0401958540552565</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0326731722354765</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0264352492410985</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0213254485062817</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0171747078457167</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0138221168131725</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0111242478562256</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.00895816537644256</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.00722111188682228</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.00582862585117261</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.00471207478819324</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.00381612535447517</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.00309640397676725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="79662037"/>
+        <c:axId val="78361393"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="79662037"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="29"/>
+          <c:min val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Hiragino Sans"/>
+                    <a:ea typeface="Hiragino Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Hiragino Sans"/>
+                    <a:ea typeface="Hiragino Sans"/>
+                  </a:rPr>
+                  <a:t>aの添字（日後）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Hiragino Sans"/>
+                <a:ea typeface="Hiragino Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78361393"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="78361393"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Hiragino Sans"/>
+                <a:ea typeface="Hiragino Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79662037"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Hiragino Sans"/>
+              <a:ea typeface="Hiragino Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart246.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>確率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.0222718794328042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.052856559884987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0748879840653463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0968314868669002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.101205178090215</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0993475207944385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0959083181081522</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0818101877964129</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0686605022543779</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0658089736999936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.049861155489337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0442618125435981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0290390775740961</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0264169776330741</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0207083183403241</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0166397985115836</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0127106996994426</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0131848782902455</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.00509404808802815</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0128904932837563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="97989198"/>
+        <c:axId val="1543353"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="97989198"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+          <c:min val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Hiragino Sans"/>
+                <a:ea typeface="Hiragino Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1543353"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1543353"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Hiragino Sans"/>
+                <a:ea typeface="Hiragino Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="97989198"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -7135,9 +9221,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>210600</xdr:colOff>
+      <xdr:colOff>210240</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7146,7 +9232,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="14488920" y="3564360"/>
-        <a:ext cx="5771160" cy="3237840"/>
+        <a:ext cx="5770800" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7165,9 +9251,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>806760</xdr:colOff>
+      <xdr:colOff>806400</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7176,7 +9262,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="14283000" y="7416000"/>
-        <a:ext cx="5758920" cy="3238920"/>
+        <a:ext cx="5758560" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7200,9 +9286,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>114120</xdr:colOff>
+      <xdr:colOff>113760</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7210,8 +9296,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10896840" y="507240"/>
-        <a:ext cx="5763960" cy="3239280"/>
+        <a:off x="10904040" y="507240"/>
+        <a:ext cx="5767920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7230,9 +9316,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>421920</xdr:colOff>
+      <xdr:colOff>421560</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7240,8 +9326,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10880640" y="4083480"/>
-        <a:ext cx="6087960" cy="3239280"/>
+        <a:off x="10887840" y="4083480"/>
+        <a:ext cx="6091920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7260,9 +9346,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>294480</xdr:colOff>
+      <xdr:colOff>294120</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:rowOff>39960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7270,8 +9356,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10768680" y="7692480"/>
-        <a:ext cx="6072480" cy="3239280"/>
+        <a:off x="10774800" y="7692480"/>
+        <a:ext cx="6077520" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7290,9 +9376,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>299880</xdr:colOff>
+      <xdr:colOff>299520</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7300,8 +9386,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1043640" y="6734520"/>
-        <a:ext cx="5763600" cy="3239280"/>
+        <a:off x="1044360" y="6734520"/>
+        <a:ext cx="5767560" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7320,9 +9406,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>752040</xdr:colOff>
+      <xdr:colOff>751680</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>140400</xdr:rowOff>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7330,8 +9416,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4215960" y="4053600"/>
-        <a:ext cx="5761800" cy="3239280"/>
+        <a:off x="4219200" y="4053600"/>
+        <a:ext cx="5763960" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7350,9 +9436,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>163440</xdr:colOff>
+      <xdr:colOff>163080</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7360,8 +9446,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6880320" y="5400360"/>
-        <a:ext cx="5762520" cy="3239280"/>
+        <a:off x="6885360" y="5400360"/>
+        <a:ext cx="5765400" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7380,9 +9466,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>707760</xdr:colOff>
+      <xdr:colOff>707400</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7390,8 +9476,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12304080" y="245160"/>
-        <a:ext cx="5763600" cy="3239280"/>
+        <a:off x="12311640" y="245160"/>
+        <a:ext cx="5767920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7410,9 +9496,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>639360</xdr:colOff>
+      <xdr:colOff>639000</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7420,8 +9506,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3289680" y="3612600"/>
-        <a:ext cx="5762160" cy="3239280"/>
+        <a:off x="3292200" y="3612600"/>
+        <a:ext cx="5764320" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7433,16 +9519,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>176400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>92520</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>777240</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>155880</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7450,8 +9536,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4243320" y="198360"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="906480" y="2834280"/>
+        <a:ext cx="5761800" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7475,9 +9561,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>241560</xdr:colOff>
+      <xdr:colOff>241200</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7485,8 +9571,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5839920" y="233640"/>
-        <a:ext cx="4162680" cy="3239280"/>
+        <a:off x="5844600" y="233640"/>
+        <a:ext cx="4165200" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7505,9 +9591,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>633600</xdr:colOff>
+      <xdr:colOff>633240</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7515,8 +9601,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5605920" y="3763080"/>
-        <a:ext cx="4788720" cy="3239280"/>
+        <a:off x="5609520" y="3763080"/>
+        <a:ext cx="4792320" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7534,15 +9620,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>629640</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:colOff>421560</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>61920</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>473400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7550,8 +9636,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7137000" y="233640"/>
-        <a:ext cx="6753240" cy="3795120"/>
+        <a:off x="7657200" y="4832280"/>
+        <a:ext cx="6758640" cy="3794760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7563,16 +9649,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>629280</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>264600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>699120</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>207720</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7580,12 +9666,137 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7136640" y="4285440"/>
-        <a:ext cx="5763960" cy="3853800"/>
+        <a:off x="11638440" y="5400360"/>
+        <a:ext cx="5767920" cy="3853440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>610200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>141120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>205560</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>81720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="610200" y="5667840"/>
+        <a:ext cx="6831000" cy="3842280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>625680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>777600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2253600" y="36000"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>996480</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>670680</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>139680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5880600" y="3681000"/>
+        <a:ext cx="6978240" cy="4261320"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295560</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>365400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>150120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4359240" y="974160"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10052,8 +12263,8 @@
   </sheetPr>
   <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10233,7 +12444,7 @@
       </c>
       <c r="K5" s="1" t="n">
         <f aca="false">AVERAGE(H5,J5)</f>
-        <v>0.0127106996994426</v>
+        <v>0.0127106996994427</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>0.0945700207210482</v>
@@ -10305,7 +12516,7 @@
       </c>
       <c r="K7" s="1" t="n">
         <f aca="false">AVERAGE(H7,J7)</f>
-        <v>0.0207083183403241</v>
+        <v>0.020708318340324</v>
       </c>
       <c r="L7" s="1" t="n">
         <v>0.098895562650128</v>
@@ -10485,7 +12696,7 @@
       </c>
       <c r="K12" s="1" t="n">
         <f aca="false">AVERAGE(H12,J12)</f>
-        <v>0.0658089736999936</v>
+        <v>0.0658089736999937</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>0.052158621049925</v>
@@ -10594,7 +12805,7 @@
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">AVERAGE(H15,J15)</f>
-        <v>0.0959083181081522</v>
+        <v>0.0959083181081523</v>
       </c>
       <c r="L15" s="1" t="n">
         <v>0.023539028105354</v>
@@ -10666,7 +12877,7 @@
       </c>
       <c r="K18" s="1" t="n">
         <f aca="false">AVERAGE(H18,J18)</f>
-        <v>0.0968314868669002</v>
+        <v>0.0968314868669001</v>
       </c>
       <c r="L18" s="1" t="n">
         <v>0.0167884458565697</v>
@@ -10932,7 +13143,7 @@
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">E8-E7</f>
-        <v>0.0606279867246489</v>
+        <v>0.060627986724649</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10955,7 +13166,7 @@
       </c>
       <c r="F9" s="0" t="n">
         <f aca="false">E9-E8</f>
-        <v>0.0559310001124175</v>
+        <v>0.0559310001124174</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11139,7 +13350,7 @@
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">E17-E16</f>
-        <v>0.0256895616484788</v>
+        <v>0.0256895616484787</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11162,7 +13373,7 @@
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">E18-E17</f>
-        <v>0.0233916181896725</v>
+        <v>0.0233916181896726</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11204,11 +13415,11 @@
       </c>
       <c r="E20" s="0" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST($A20,0,E$1,TRUE())</f>
-        <v>0.721662252065085</v>
+        <v>0.721662252065084</v>
       </c>
       <c r="F20" s="0" t="n">
         <f aca="false">E20-E19</f>
-        <v>0.0195004593659394</v>
+        <v>0.0195004593659392</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11231,7 +13442,7 @@
       </c>
       <c r="F21" s="0" t="n">
         <f aca="false">E21-E20</f>
-        <v>0.0178537189696205</v>
+        <v>0.0178537189696206</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11315,7 +13526,7 @@
       </c>
       <c r="D25" s="0" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST($A25,0,D$1,FALSE())</f>
-        <v>0.122613706931988</v>
+        <v>0.122613706931989</v>
       </c>
       <c r="E25" s="0" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST($A25,0,E$1,TRUE())</f>
@@ -11346,7 +13557,7 @@
       </c>
       <c r="F26" s="0" t="n">
         <f aca="false">E26-E25</f>
-        <v>0.0117885353846358</v>
+        <v>0.0117885353846356</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11369,7 +13580,7 @@
       </c>
       <c r="F27" s="0" t="n">
         <f aca="false">E27-E26</f>
-        <v>0.0109022427691002</v>
+        <v>0.0109022427691003</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11430,7 +13641,7 @@
       </c>
       <c r="D30" s="0" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST($A30,0,D$1,FALSE())</f>
-        <v>0.0838592045694877</v>
+        <v>0.0838592045694878</v>
       </c>
       <c r="E30" s="0" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST($A30,0,E$1,TRUE())</f>
@@ -11438,7 +13649,7 @@
       </c>
       <c r="F30" s="0" t="n">
         <f aca="false">E30-E29</f>
-        <v>0.00869928844092671</v>
+        <v>0.0086992884409266</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11461,7 +13672,7 @@
       </c>
       <c r="F31" s="0" t="n">
         <f aca="false">E31-E30</f>
-        <v>0.00809092344229234</v>
+        <v>0.00809092344229245</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11576,11 +13787,11 @@
       </c>
       <c r="E38" s="0" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST($A38,0,E$1,TRUE())</f>
-        <v>0.899891548241091</v>
+        <v>0.89989154824109</v>
       </c>
       <c r="F38" s="0" t="n">
         <f aca="false">E38-E37</f>
-        <v>0.00503753934120543</v>
+        <v>0.00503753934120532</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11597,7 +13808,7 @@
       </c>
       <c r="F39" s="0" t="n">
         <f aca="false">E39-E38</f>
-        <v>0.00472822777133419</v>
+        <v>0.0047282277713343</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11623,7 +13834,7 @@
       </c>
       <c r="D41" s="0" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST($A41,0,D$1,FALSE())</f>
-        <v>0.0405165933905346</v>
+        <v>0.0405165933905347</v>
       </c>
       <c r="E41" s="0" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST($A41,0,E$1,TRUE())</f>
@@ -11631,7 +13842,7 @@
       </c>
       <c r="F41" s="0" t="n">
         <f aca="false">E41-E40</f>
-        <v>0.00417744904150563</v>
+        <v>0.00417744904150552</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11648,7 +13859,7 @@
       </c>
       <c r="F42" s="0" t="n">
         <f aca="false">E42-E41</f>
-        <v>0.00393203061592273</v>
+        <v>0.00393203061592284</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11674,7 +13885,7 @@
       </c>
       <c r="D44" s="0" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST($A44,0,D$1,FALSE())</f>
-        <v>0.0339197833265839</v>
+        <v>0.0339197833265838</v>
       </c>
       <c r="E44" s="0" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST($A44,0,E$1,TRUE())</f>
@@ -11708,7 +13919,7 @@
       </c>
       <c r="D46" s="0" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST($A46,0,D$1,FALSE())</f>
-        <v>0.0302542356756333</v>
+        <v>0.0302542356756332</v>
       </c>
       <c r="E46" s="0" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST($A46,0,E$1,TRUE())</f>
@@ -11716,7 +13927,7 @@
       </c>
       <c r="F46" s="0" t="n">
         <f aca="false">E46-E45</f>
-        <v>0.00311277320629622</v>
+        <v>0.00311277320629633</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11725,7 +13936,7 @@
       </c>
       <c r="D47" s="0" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST($A47,0,D$1,FALSE())</f>
-        <v>0.02860595581011</v>
+        <v>0.0286059558101099</v>
       </c>
       <c r="E47" s="0" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST($A47,0,E$1,TRUE())</f>
@@ -11742,7 +13953,7 @@
       </c>
       <c r="D48" s="0" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST($A48,0,D$1,FALSE())</f>
-        <v>0.0270675751221885</v>
+        <v>0.0270675751221884</v>
       </c>
       <c r="E48" s="0" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST($A48,0,E$1,TRUE())</f>
@@ -11750,7 +13961,7 @@
       </c>
       <c r="F48" s="0" t="n">
         <f aca="false">E48-E47</f>
-        <v>0.00278279819906357</v>
+        <v>0.00278279819906346</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11759,7 +13970,7 @@
       </c>
       <c r="D49" s="0" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST($A49,0,D$1,FALSE())</f>
-        <v>0.0256304059181798</v>
+        <v>0.0256304059181797</v>
       </c>
       <c r="E49" s="0" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST($A49,0,E$1,TRUE())</f>
@@ -11767,7 +13978,7 @@
       </c>
       <c r="F49" s="0" t="n">
         <f aca="false">E49-E48</f>
-        <v>0.00263408966086676</v>
+        <v>0.00263408966086687</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11784,7 +13995,7 @@
       </c>
       <c r="F50" s="0" t="n">
         <f aca="false">E50-E49</f>
-        <v>0.00249510132157105</v>
+        <v>0.00249510132157116</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11801,7 +14012,7 @@
       </c>
       <c r="F51" s="0" t="n">
         <f aca="false">E51-E50</f>
-        <v>0.00236508002725688</v>
+        <v>0.00236508002725666</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11838,41 +14049,63 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="23.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11891,19 +14124,38 @@
       </c>
       <c r="E2" s="1" t="n">
         <f aca="false">(B2-$B$28)*$B$27</f>
-        <v>0.234</v>
+        <v>0.23</v>
       </c>
       <c r="F2" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E2,0,$B$26,TRUE())</f>
-        <v>0.0022003675291628</v>
+        <v>0.00164449685379458</v>
       </c>
       <c r="G2" s="1" t="n">
         <f aca="false">F2</f>
-        <v>0.0022003675291628</v>
+        <v>0.00164449685379458</v>
       </c>
       <c r="H2" s="1" t="n">
         <f aca="false">POWER(C2-G2,2)</f>
-        <v>4.841617263394E-006</v>
+        <v>2.70436990214028E-006</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" s="9" t="n">
+        <f aca="false">(J2-3)*$B$27</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L2,0,$B$26,TRUE())</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <f aca="false">M2</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <f aca="false">POWER(N2-K2,2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11922,19 +14174,38 @@
       </c>
       <c r="E3" s="1" t="n">
         <f aca="false">(B3-$B$28)*$B$27</f>
-        <v>0.351</v>
+        <v>0.345</v>
       </c>
       <c r="F3" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E3,0,$B$26,TRUE())</f>
-        <v>0.0200420842870802</v>
+        <v>0.0166510667846589</v>
       </c>
       <c r="G3" s="1" t="n">
         <f aca="false">F3-F2</f>
-        <v>0.0178417167579174</v>
+        <v>0.0150065699308644</v>
       </c>
       <c r="H3" s="1" t="n">
         <f aca="false">POWER(C3-G3,2)</f>
-        <v>1.96263413259603E-005</v>
+        <v>5.27847221589773E-005</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <f aca="false">(J3-3)*$B$27</f>
+        <v>0.115</v>
+      </c>
+      <c r="M3" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L3,0,$B$26,TRUE())</f>
+        <v>7.60426442303621E-006</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <f aca="false">M3-M2</f>
+        <v>7.60426442303621E-006</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <f aca="false">POWER(N3-K3,2)</f>
+        <v>5.78248374154543E-011</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11953,19 +14224,38 @@
       </c>
       <c r="E4" s="1" t="n">
         <f aca="false">(B4-$B$28)*$B$27</f>
-        <v>0.468</v>
+        <v>0.46</v>
       </c>
       <c r="F4" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E4,0,$B$26,TRUE())</f>
-        <v>0.0682702837843174</v>
+        <v>0.0602046897023152</v>
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">F4-F3</f>
-        <v>0.0482281994972372</v>
+        <v>0.0435536229176562</v>
       </c>
       <c r="H4" s="1" t="n">
         <f aca="false">POWER(C4-G4,2)</f>
-        <v>2.14217198788917E-005</v>
+        <v>8.65446362181299E-005</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <f aca="false">(J4-3)*$B$27</f>
+        <v>0.23</v>
+      </c>
+      <c r="M4" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L4,0,$B$26,TRUE())</f>
+        <v>0.00164449685379458</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <f aca="false">M4-M3</f>
+        <v>0.00163689258937155</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <f aca="false">POWER(N4-K4,2)</f>
+        <v>2.67941734913949E-006</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11984,19 +14274,41 @@
       </c>
       <c r="E5" s="1" t="n">
         <f aca="false">(B5-$B$28)*$B$27</f>
-        <v>0.585</v>
+        <v>0.575</v>
       </c>
       <c r="F5" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E5,0,$B$26,TRUE())</f>
-        <v>0.14656922206064</v>
+        <v>0.134196587937081</v>
       </c>
       <c r="G5" s="1" t="n">
         <f aca="false">F5-F4</f>
-        <v>0.0782989382763224</v>
+        <v>0.073991898234766</v>
       </c>
       <c r="H5" s="1" t="n">
         <f aca="false">POWER(C5-G5,2)</f>
-        <v>1.16346086293754E-005</v>
+        <v>8.02969815766718E-007</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0.0222718794328042</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <f aca="false">(J5-3)*$B$27</f>
+        <v>0.345</v>
+      </c>
+      <c r="M5" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L5,0,$B$26,TRUE())</f>
+        <v>0.0166510667846589</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <f aca="false">M5-M4</f>
+        <v>0.0150065699308644</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <f aca="false">POWER(N5-K5,2)</f>
+        <v>5.27847221589773E-005</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12015,19 +14327,41 @@
       </c>
       <c r="E6" s="1" t="n">
         <f aca="false">(B6-$B$28)*$B$27</f>
-        <v>0.702</v>
+        <v>0.69</v>
       </c>
       <c r="F6" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E6,0,$B$26,TRUE())</f>
-        <v>0.243913736935466</v>
+        <v>0.22900508633893</v>
       </c>
       <c r="G6" s="1" t="n">
         <f aca="false">F6-F5</f>
-        <v>0.0973445148748264</v>
+        <v>0.0948084984018493</v>
       </c>
       <c r="H6" s="1" t="n">
         <f aca="false">POWER(C6-G6,2)</f>
-        <v>2.63197736916782E-007</v>
+        <v>4.09248232972901E-006</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0.052856559884987</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <f aca="false">(J6-3)*$B$27</f>
+        <v>0.46</v>
+      </c>
+      <c r="M6" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L6,0,$B$26,TRUE())</f>
+        <v>0.0602046897023152</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <f aca="false">M6-M5</f>
+        <v>0.0435536229176562</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <f aca="false">POWER(N6-K6,2)</f>
+        <v>8.65446362181299E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12046,19 +14380,41 @@
       </c>
       <c r="E7" s="1" t="n">
         <f aca="false">(B7-$B$28)*$B$27</f>
-        <v>0.819</v>
+        <v>0.805</v>
       </c>
       <c r="F7" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E7,0,$B$26,TRUE())</f>
-        <v>0.347709355776934</v>
+        <v>0.332207398678385</v>
       </c>
       <c r="G7" s="1" t="n">
         <f aca="false">F7-F6</f>
-        <v>0.103795618841467</v>
+        <v>0.103202312339454</v>
       </c>
       <c r="H7" s="1" t="n">
         <f aca="false">POWER(C7-G7,2)</f>
-        <v>6.71038328574921E-006</v>
+        <v>3.98854520948498E-006</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>0.0748879840653463</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <f aca="false">(J7-3)*$B$27</f>
+        <v>0.575</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L7,0,$B$26,TRUE())</f>
+        <v>0.134196587937081</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <f aca="false">M7-M6</f>
+        <v>0.073991898234766</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <f aca="false">POWER(N7-K7,2)</f>
+        <v>8.02969815766718E-007</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12077,19 +14433,41 @@
       </c>
       <c r="E8" s="1" t="n">
         <f aca="false">(B8-$B$28)*$B$27</f>
-        <v>0.936</v>
+        <v>0.92</v>
       </c>
       <c r="F8" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E8,0,$B$26,TRUE())</f>
-        <v>0.44840747429939</v>
+        <v>0.433778180613579</v>
       </c>
       <c r="G8" s="1" t="n">
         <f aca="false">F8-F7</f>
-        <v>0.100698118522456</v>
+        <v>0.101570781935194</v>
       </c>
       <c r="H8" s="1" t="n">
         <f aca="false">POWER(C8-G8,2)</f>
-        <v>1.82411422292611E-006</v>
+        <v>4.94289009999336E-006</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>0.0968314868669002</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <f aca="false">(J8-3)*$B$27</f>
+        <v>0.69</v>
+      </c>
+      <c r="M8" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L8,0,$B$26,TRUE())</f>
+        <v>0.22900508633893</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <f aca="false">M8-M7</f>
+        <v>0.0948084984018493</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <f aca="false">POWER(N8-K8,2)</f>
+        <v>4.09248232972901E-006</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12108,19 +14486,41 @@
       </c>
       <c r="E9" s="1" t="n">
         <f aca="false">(B9-$B$28)*$B$27</f>
-        <v>1.053</v>
+        <v>1.035</v>
       </c>
       <c r="F9" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E9,0,$B$26,TRUE())</f>
-        <v>0.540328458589582</v>
+        <v>0.527426726619933</v>
       </c>
       <c r="G9" s="1" t="n">
         <f aca="false">F9-F8</f>
-        <v>0.0919209842901926</v>
+        <v>0.0936485460063541</v>
       </c>
       <c r="H9" s="1" t="n">
         <f aca="false">POWER(C9-G9,2)</f>
-        <v>1.58988309758445E-005</v>
+        <v>5.10656995206509E-006</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>0.101205178090215</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <f aca="false">(J9-3)*$B$27</f>
+        <v>0.805</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L9,0,$B$26,TRUE())</f>
+        <v>0.332207398678385</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <f aca="false">M9-M8</f>
+        <v>0.103202312339454</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <f aca="false">POWER(N9-K9,2)</f>
+        <v>3.98854520948498E-006</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12139,19 +14539,41 @@
       </c>
       <c r="E10" s="1" t="n">
         <f aca="false">(B10-$B$28)*$B$27</f>
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="F10" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E10,0,$B$26,TRUE())</f>
-        <v>0.620901948922715</v>
+        <v>0.610078594582459</v>
       </c>
       <c r="G10" s="1" t="n">
         <f aca="false">F10-F9</f>
-        <v>0.0805734903331328</v>
+        <v>0.0826518679625258</v>
       </c>
       <c r="H10" s="1" t="n">
         <f aca="false">POWER(C10-G10,2)</f>
-        <v>1.52942061568351E-006</v>
+        <v>7.0842550202779E-007</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>0.0993475207944385</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <f aca="false">(J10-3)*$B$27</f>
+        <v>0.92</v>
+      </c>
+      <c r="M10" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L10,0,$B$26,TRUE())</f>
+        <v>0.433778180613579</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <f aca="false">M10-M9</f>
+        <v>0.101570781935194</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <f aca="false">POWER(N10-K10,2)</f>
+        <v>4.94289009999336E-006</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12170,19 +14592,41 @@
       </c>
       <c r="E11" s="1" t="n">
         <f aca="false">(B11-$B$28)*$B$27</f>
-        <v>1.287</v>
+        <v>1.265</v>
       </c>
       <c r="F11" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E11,0,$B$26,TRUE())</f>
-        <v>0.689605766211321</v>
+        <v>0.680874017208691</v>
       </c>
       <c r="G11" s="1" t="n">
         <f aca="false">F11-F10</f>
-        <v>0.0687038172886059</v>
+        <v>0.0707954226262327</v>
       </c>
       <c r="H11" s="1" t="n">
         <f aca="false">POWER(C11-G11,2)</f>
-        <v>1.87619219017019E-009</v>
+        <v>4.5578849941608E-006</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>0.0959083181081522</v>
+      </c>
+      <c r="L11" s="9" t="n">
+        <f aca="false">(J11-3)*$B$27</f>
+        <v>1.035</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L11,0,$B$26,TRUE())</f>
+        <v>0.527426726619933</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <f aca="false">M11-M10</f>
+        <v>0.0936485460063541</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <f aca="false">POWER(N11-K11,2)</f>
+        <v>5.10656995206509E-006</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12201,19 +14645,41 @@
       </c>
       <c r="E12" s="1" t="n">
         <f aca="false">(B12-$B$28)*$B$27</f>
-        <v>1.404</v>
+        <v>1.38</v>
       </c>
       <c r="F12" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E12,0,$B$26,TRUE())</f>
-        <v>0.747084668751281</v>
+        <v>0.740266425724823</v>
       </c>
       <c r="G12" s="1" t="n">
         <f aca="false">F12-F11</f>
-        <v>0.0574789025399601</v>
+        <v>0.0593924085161318</v>
       </c>
       <c r="H12" s="1" t="n">
         <f aca="false">POWER(C12-G12,2)</f>
-        <v>6.93900855312213E-005</v>
+        <v>4.11723087587472E-005</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>0.0818101877964129</v>
+      </c>
+      <c r="L12" s="9" t="n">
+        <f aca="false">(J12-3)*$B$27</f>
+        <v>1.15</v>
+      </c>
+      <c r="M12" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L12,0,$B$26,TRUE())</f>
+        <v>0.610078594582459</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <f aca="false">M12-M11</f>
+        <v>0.0826518679625258</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <f aca="false">POWER(N12-K12,2)</f>
+        <v>7.0842550202779E-007</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12232,19 +14698,41 @@
       </c>
       <c r="E13" s="1" t="n">
         <f aca="false">(B13-$B$28)*$B$27</f>
-        <v>1.521</v>
+        <v>1.495</v>
       </c>
       <c r="F13" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E13,0,$B$26,TRUE())</f>
-        <v>0.794544129828668</v>
+        <v>0.78937439301145</v>
       </c>
       <c r="G13" s="1" t="n">
         <f aca="false">F13-F12</f>
-        <v>0.0474594610773869</v>
+        <v>0.0491079672866271</v>
       </c>
       <c r="H13" s="1" t="n">
         <f aca="false">POWER(C13-G13,2)</f>
-        <v>5.76813604839258E-006</v>
+        <v>5.67292468701316E-007</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>0.0686605022543779</v>
+      </c>
+      <c r="L13" s="9" t="n">
+        <f aca="false">(J13-3)*$B$27</f>
+        <v>1.265</v>
+      </c>
+      <c r="M13" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L13,0,$B$26,TRUE())</f>
+        <v>0.680874017208691</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <f aca="false">M13-M12</f>
+        <v>0.0707954226262327</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <f aca="false">POWER(N13-K13,2)</f>
+        <v>4.5578849941608E-006</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12263,19 +14751,41 @@
       </c>
       <c r="E14" s="1" t="n">
         <f aca="false">(B14-$B$28)*$B$27</f>
-        <v>1.638</v>
+        <v>1.61</v>
       </c>
       <c r="F14" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E14,0,$B$26,TRUE())</f>
-        <v>0.833377904226529</v>
+        <v>0.829570247066707</v>
       </c>
       <c r="G14" s="1" t="n">
         <f aca="false">F14-F13</f>
-        <v>0.0388337743978616</v>
+        <v>0.0401958540552565</v>
       </c>
       <c r="H14" s="1" t="n">
         <f aca="false">POWER(C14-G14,2)</f>
-        <v>2.94635981115703E-005</v>
+        <v>1.65320184289171E-005</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>0.0658089736999936</v>
+      </c>
+      <c r="L14" s="9" t="n">
+        <f aca="false">(J14-3)*$B$27</f>
+        <v>1.38</v>
+      </c>
+      <c r="M14" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L14,0,$B$26,TRUE())</f>
+        <v>0.740266425724823</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <f aca="false">M14-M13</f>
+        <v>0.0593924085161318</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <f aca="false">POWER(N14-K14,2)</f>
+        <v>4.11723087587472E-005</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12294,19 +14804,41 @@
       </c>
       <c r="E15" s="1" t="n">
         <f aca="false">(B15-$B$28)*$B$27</f>
-        <v>1.755</v>
+        <v>1.725</v>
       </c>
       <c r="F15" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E15,0,$B$26,TRUE())</f>
-        <v>0.864960383918717</v>
+        <v>0.862243419302183</v>
       </c>
       <c r="G15" s="1" t="n">
         <f aca="false">F15-F14</f>
-        <v>0.031582479692188</v>
+        <v>0.0326731722354765</v>
       </c>
       <c r="H15" s="1" t="n">
         <f aca="false">POWER(C15-G15,2)</f>
-        <v>6.46889433431421E-006</v>
+        <v>1.32066440078735E-005</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>0.049861155489337</v>
+      </c>
+      <c r="L15" s="9" t="n">
+        <f aca="false">(J15-3)*$B$27</f>
+        <v>1.495</v>
+      </c>
+      <c r="M15" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L15,0,$B$26,TRUE())</f>
+        <v>0.78937439301145</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <f aca="false">M15-M14</f>
+        <v>0.0491079672866271</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <f aca="false">POWER(N15-K15,2)</f>
+        <v>5.67292468701316E-007</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12325,19 +14857,41 @@
       </c>
       <c r="E16" s="1" t="n">
         <f aca="false">(B16-$B$28)*$B$27</f>
-        <v>1.872</v>
+        <v>1.84</v>
       </c>
       <c r="F16" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E16,0,$B$26,TRUE())</f>
-        <v>0.890543979874236</v>
+        <v>0.888678668543282</v>
       </c>
       <c r="G16" s="1" t="n">
         <f aca="false">F16-F15</f>
-        <v>0.0255835959555181</v>
+        <v>0.0264352492410985</v>
       </c>
       <c r="H16" s="1" t="n">
         <f aca="false">POWER(C16-G16,2)</f>
-        <v>6.94525020486102E-007</v>
+        <v>3.33851659798276E-010</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>0.0442618125435981</v>
+      </c>
+      <c r="L16" s="9" t="n">
+        <f aca="false">(J16-3)*$B$27</f>
+        <v>1.61</v>
+      </c>
+      <c r="M16" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L16,0,$B$26,TRUE())</f>
+        <v>0.829570247066707</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <f aca="false">M16-M15</f>
+        <v>0.0401958540552565</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <f aca="false">POWER(N16-K16,2)</f>
+        <v>1.65320184289171E-005</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12356,19 +14910,41 @@
       </c>
       <c r="E17" s="1" t="n">
         <f aca="false">(B17-$B$28)*$B$27</f>
-        <v>1.989</v>
+        <v>1.955</v>
       </c>
       <c r="F17" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E17,0,$B$26,TRUE())</f>
-        <v>0.911218728690388</v>
+        <v>0.910004117049564</v>
       </c>
       <c r="G17" s="1" t="n">
         <f aca="false">F17-F16</f>
-        <v>0.0206747488161526</v>
+        <v>0.0213254485062817</v>
       </c>
       <c r="H17" s="1" t="n">
         <f aca="false">POWER(C17-G17,2)</f>
-        <v>1.12691295310013E-009</v>
+        <v>3.80849641734866E-007</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>0.0290390775740961</v>
+      </c>
+      <c r="L17" s="9" t="n">
+        <f aca="false">(J17-3)*$B$27</f>
+        <v>1.725</v>
+      </c>
+      <c r="M17" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L17,0,$B$26,TRUE())</f>
+        <v>0.862243419302183</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <f aca="false">M17-M16</f>
+        <v>0.0326731722354765</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <f aca="false">POWER(N17-K17,2)</f>
+        <v>1.32066440078735E-005</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12387,19 +14963,41 @@
       </c>
       <c r="E18" s="1" t="n">
         <f aca="false">(B18-$B$28)*$B$27</f>
-        <v>2.106</v>
+        <v>2.07</v>
       </c>
       <c r="F18" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E18,0,$B$26,TRUE())</f>
-        <v>0.927906254921115</v>
+        <v>0.92717882489528</v>
       </c>
       <c r="G18" s="1" t="n">
         <f aca="false">F18-F17</f>
-        <v>0.0166875262307264</v>
+        <v>0.0171747078457167</v>
       </c>
       <c r="H18" s="1" t="n">
         <f aca="false">POWER(C18-G18,2)</f>
-        <v>2.27793517457847E-009</v>
+        <v>2.8612799574275E-007</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>0.0264169776330741</v>
+      </c>
+      <c r="L18" s="9" t="n">
+        <f aca="false">(J18-3)*$B$27</f>
+        <v>1.84</v>
+      </c>
+      <c r="M18" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L18,0,$B$26,TRUE())</f>
+        <v>0.888678668543282</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <f aca="false">M18-M17</f>
+        <v>0.0264352492410985</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <f aca="false">POWER(N18-K18,2)</f>
+        <v>3.33851659798276E-010</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12418,19 +15016,41 @@
       </c>
       <c r="E19" s="1" t="n">
         <f aca="false">(B19-$B$28)*$B$27</f>
-        <v>2.223</v>
+        <v>2.185</v>
       </c>
       <c r="F19" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E19,0,$B$26,TRUE())</f>
-        <v>0.941371038529596</v>
+        <v>0.941000941708453</v>
       </c>
       <c r="G19" s="1" t="n">
         <f aca="false">F19-F18</f>
-        <v>0.0134647836084814</v>
+        <v>0.0138221168131725</v>
       </c>
       <c r="H19" s="1" t="n">
         <f aca="false">POWER(C19-G19,2)</f>
-        <v>5.68642541871172E-007</v>
+        <v>1.23524800069163E-006</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>0.0207083183403241</v>
+      </c>
+      <c r="L19" s="9" t="n">
+        <f aca="false">(J19-3)*$B$27</f>
+        <v>1.955</v>
+      </c>
+      <c r="M19" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L19,0,$B$26,TRUE())</f>
+        <v>0.910004117049564</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <f aca="false">M19-M18</f>
+        <v>0.0213254485062817</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <f aca="false">POWER(N19-K19,2)</f>
+        <v>3.80849641734866E-007</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12449,19 +15069,41 @@
       </c>
       <c r="E20" s="1" t="n">
         <f aca="false">(B20-$B$28)*$B$27</f>
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="F20" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E20,0,$B$26,TRUE())</f>
-        <v>0.952239079726266</v>
+        <v>0.952125189564678</v>
       </c>
       <c r="G20" s="1" t="n">
         <f aca="false">F20-F19</f>
-        <v>0.0108680411966696</v>
+        <v>0.0111242478562256</v>
       </c>
       <c r="H20" s="1" t="n">
         <f aca="false">POWER(C20-G20,2)</f>
-        <v>5.36773411816913E-006</v>
+        <v>4.24619778560918E-006</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>0.0166397985115836</v>
+      </c>
+      <c r="L20" s="9" t="n">
+        <f aca="false">(J20-3)*$B$27</f>
+        <v>2.07</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L20,0,$B$26,TRUE())</f>
+        <v>0.92717882489528</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <f aca="false">M20-M19</f>
+        <v>0.0171747078457167</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <f aca="false">POWER(N20-K20,2)</f>
+        <v>2.8612799574275E-007</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12480,19 +15122,41 @@
       </c>
       <c r="E21" s="1" t="n">
         <f aca="false">(B21-$B$28)*$B$27</f>
-        <v>2.457</v>
+        <v>2.415</v>
       </c>
       <c r="F21" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E21,0,$B$26,TRUE())</f>
-        <v>0.961018508897995</v>
+        <v>0.961083354941121</v>
       </c>
       <c r="G21" s="1" t="n">
         <f aca="false">F21-F20</f>
-        <v>0.00877942917172969</v>
+        <v>0.00895816537644256</v>
       </c>
       <c r="H21" s="1" t="n">
         <f aca="false">POWER(C21-G21,2)</f>
-        <v>1.35820337321051E-005</v>
+        <v>1.49314024186231E-005</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>0.0127106996994426</v>
+      </c>
+      <c r="L21" s="9" t="n">
+        <f aca="false">(J21-3)*$B$27</f>
+        <v>2.185</v>
+      </c>
+      <c r="M21" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L21,0,$B$26,TRUE())</f>
+        <v>0.941000941708453</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <f aca="false">M21-M20</f>
+        <v>0.0138221168131725</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <f aca="false">POWER(N21-K21,2)</f>
+        <v>1.23524800069163E-006</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12511,76 +15175,411 @@
       </c>
       <c r="E22" s="1" t="n">
         <f aca="false">(B22-$B$28)*$B$27</f>
-        <v>2.574</v>
+        <v>2.53</v>
       </c>
       <c r="F22" s="8" t="n">
         <f aca="false">_xlfn.LOGNORM.DIST(E22,0,$B$26,TRUE())</f>
-        <v>0.968119353128686</v>
+        <v>0.968304466827943</v>
       </c>
       <c r="G22" s="1" t="n">
         <f aca="false">F22-F21</f>
-        <v>0.00710084423069057</v>
+        <v>0.00722111188682228</v>
       </c>
       <c r="H22" s="1" t="n">
         <f aca="false">POWER(C22-G22,2)</f>
-        <v>3.35200361576649E-005</v>
+        <v>3.21418854239015E-005</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>0.0131848782902455</v>
+      </c>
+      <c r="L22" s="9" t="n">
+        <f aca="false">(J22-3)*$B$27</f>
+        <v>2.3</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L22,0,$B$26,TRUE())</f>
+        <v>0.952125189564678</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <f aca="false">M22-M21</f>
+        <v>0.0111242478562256</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <f aca="false">POWER(N22-K22,2)</f>
+        <v>4.24619778560918E-006</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H23" s="1" t="n">
         <f aca="false">SUM(H2:H22)/21</f>
-        <v>1.18371047890883E-005</v>
+        <v>1.38539907126037E-005</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>0.00509404808802815</v>
+      </c>
+      <c r="L23" s="9" t="n">
+        <f aca="false">(J23-3)*$B$27</f>
+        <v>2.415</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L23,0,$B$26,TRUE())</f>
+        <v>0.961083354941121</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <f aca="false">M23-M22</f>
+        <v>0.00895816537644256</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <f aca="false">POWER(N23-K23,2)</f>
+        <v>1.49314024186231E-005</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="J24" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L24" s="9" t="n">
+        <f aca="false">(J24-3)*$B$27</f>
+        <v>2.53</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L24,0,$B$26,TRUE())</f>
+        <v>0.968304466827943</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <f aca="false">M24-M23</f>
+        <v>0.00722111188682228</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <f aca="false">POWER(N24-K24,2)</f>
+        <v>5.21444568820061E-005</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>6.5</v>
       </c>
       <c r="C25" s="0"/>
       <c r="D25" s="0"/>
+      <c r="J25" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="L25" s="9" t="n">
+        <f aca="false">(J25-3)*$B$27</f>
+        <v>2.645</v>
+      </c>
+      <c r="M25" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L25,0,$B$26,TRUE())</f>
+        <v>0.974133092679116</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <f aca="false">M25-M24</f>
+        <v>0.00582862585117261</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <f aca="false">POWER(N25-K25,2)</f>
+        <v>3.39728793129576E-005</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>0.5</v>
       </c>
+      <c r="J26" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="L26" s="9" t="n">
+        <f aca="false">(J26-3)*$B$27</f>
+        <v>2.76</v>
+      </c>
+      <c r="M26" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L26,0,$B$26,TRUE())</f>
+        <v>0.978845167467309</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <f aca="false">M26-M25</f>
+        <v>0.00471207478819324</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <f aca="false">POWER(N26-K26,2)</f>
+        <v>2.22036488095264E-005</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>0.117</v>
+        <v>0.115</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>0.117</v>
       </c>
+      <c r="J27" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="L27" s="9" t="n">
+        <f aca="false">(J27-3)*$B$27</f>
+        <v>2.875</v>
+      </c>
+      <c r="M27" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L27,0,$B$26,TRUE())</f>
+        <v>0.982661292821784</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <f aca="false">M27-M26</f>
+        <v>0.00381612535447517</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <f aca="false">POWER(N27-K27,2)</f>
+        <v>1.45628127210683E-005</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>-2</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>-2</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="L28" s="9" t="n">
+        <f aca="false">(J28-3)*$B$27</f>
+        <v>2.99</v>
+      </c>
+      <c r="M28" s="8" t="n">
+        <f aca="false">_xlfn.LOGNORM.DIST(L28,0,$B$26,TRUE())</f>
+        <v>0.985757696798551</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <f aca="false">M28-M27</f>
+        <v>0.00309640397676725</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <f aca="false">POWER(N28-K28,2)</f>
+        <v>9.58771758734003E-006</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="10.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.0222718794328042</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.052856559884987</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.0748879840653463</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.0968314868669002</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.101205178090215</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.0993475207944385</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0.0959083181081522</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0.0818101877964129</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0.0686605022543779</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0.0658089736999936</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0.049861155489337</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0.0442618125435981</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0.0290390775740961</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0.0264169776330741</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0.0207083183403241</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0.0166397985115836</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>0.0127106996994426</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>0.0131848782902455</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>0.00509404808802815</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>0.0128904932837563</v>
       </c>
     </row>
   </sheetData>

--- a/punch04-02.xlsx
+++ b/punch04-02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -121,13 +121,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="General"/>
-    <numFmt numFmtId="168" formatCode="0.0000000000"/>
-    <numFmt numFmtId="169" formatCode="0%"/>
+    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="0.0000000000"/>
+    <numFmt numFmtId="168" formatCode="0%"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -159,12 +158,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Hiragino Sans"/>
+      <name val="Hiragino Mincho ProN"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Hiragino Mincho ProN"/>
+      <name val="Hiragino Sans"/>
       <family val="2"/>
     </font>
     <font>
@@ -245,7 +244,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -278,19 +277,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -352,13 +347,13 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -370,7 +365,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart285.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -883,11 +878,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="157618"/>
-        <c:axId val="72679644"/>
+        <c:axId val="82350714"/>
+        <c:axId val="50351558"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="157618"/>
+        <c:axId val="82350714"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,14 +910,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72679644"/>
+        <c:crossAx val="50351558"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72679644"/>
+        <c:axId val="50351558"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,7 +954,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157618"/>
+        <c:crossAx val="82350714"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1007,26 +1002,25 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart286.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet2!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>感染日（80%削減）</c:v>
+                  <c:v>26/avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1035,13 +1029,18 @@
             <a:solidFill>
               <a:srgbClr val="004586"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000" sourceLinked="1"/>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1053,6 +1052,323 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$2:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0128904932837563</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00509404808802815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0131848782902455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0127106996994427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0166397985115836</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.020708318340324</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0264169776330741</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0290390775740961</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0442618125435981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.049861155489337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0658089736999937</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0686605022543779</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0818101877964129</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0959083181081523</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0993475207944385</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.101205178090215</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0968314868669001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0748879840653463</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.052856559884987</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0222718794328042</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="17569950"/>
+        <c:axId val="17665351"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="17569950"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17665351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="17665351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17569950"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1063,84 +1379,91 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:f>Sheet2!$L$2:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.34615384615385</c:v>
+                  <c:v>0.0209968318652202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.34615384615385</c:v>
+                  <c:v>0.0578550524286772</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6923076923077</c:v>
+                  <c:v>0.0703162989778507</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6923076923077</c:v>
+                  <c:v>0.0945700207210482</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.03846153846154</c:v>
+                  <c:v>0.104942271784255</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.38461538461539</c:v>
+                  <c:v>0.098895562650128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.73076923076923</c:v>
+                  <c:v>0.0964712453032246</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.42307692307693</c:v>
+                  <c:v>0.0809469792936124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.1153846153846</c:v>
+                  <c:v>0.0670079845228297</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.5</c:v>
+                  <c:v>0.0661264024388064</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.8846153846154</c:v>
+                  <c:v>0.052158621049925</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.9615384615385</c:v>
+                  <c:v>0.0460529839826458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43.0769230769231</c:v>
+                  <c:v>0.0254285710818039</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>59.2307692307692</c:v>
+                  <c:v>0.023539028105354</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>79.4230769230769</c:v>
+                  <c:v>0.0281432800234436</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>109.045192307692</c:v>
+                  <c:v>0.00930674011170574</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>149.429807692308</c:v>
+                  <c:v>0.0167884458565697</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>203.275961538462</c:v>
+                  <c:v>0.0135026824476707</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>278.660576923077</c:v>
+                  <c:v>0.00456651485771431</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>379.622115384615</c:v>
+                  <c:v>-0.0135508530706829</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>519.622115384615</c:v>
+                  <c:v>0.0350690863766374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="63159298"/>
-        <c:axId val="87923192"/>
-      </c:barChart>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="63004949"/>
+        <c:axId val="10541344"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="63159298"/>
+        <c:axId val="63004949"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,16 +1491,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87923192"/>
+        <c:crossAx val="10541344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87923192"/>
+        <c:axId val="10541344"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1191,7 +1513,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1213,7 +1535,3727 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63159298"/>
+        <c:crossAx val="63004949"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$3:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.0106510993417001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0537603104516631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.114300045049152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.179757213895785</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.244108595785583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.304736582510232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.360667582622649</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.411711891857455</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.458044872785659</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.537965771424617</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.572334808836768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.603479689632152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.631742607836675</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.657432169485154</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.680823787674827</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.702161792699145</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.721662252065084</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.739515971034705</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.755891404214417</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.770937350975443</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.784785384817143</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.797552007950479</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.809340543335114</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.820242786104215</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.830340439823572</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.839706363236407</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.848405651677334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.856496575119626</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.864031392358576</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.871057058402467</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.877615839877453</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.883745851211882</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.889481522565263</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.894854008899885</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.89989154824109</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.904619776012425</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.909062001340873</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.913239450382379</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.917171480998301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="4194870"/>
+        <c:axId val="2373133"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="4194870"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2373133"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2373133"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4194870"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$3:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.0106510993417001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.043109211109963</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0605397345974884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0654571688466338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0643513818897974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.060627986724649</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0559310001124174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0510443092348058</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0463329809282039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0419551272143411</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.037965771424617</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0343690374121514</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0311448807953834</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0282629182045236</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0256895616484787</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0233916181896726</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0213380050243186</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0195004593659392</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0178537189696206</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.016375433179712</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.015045946761026</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0138480338416997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0127666231333358</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0117885353846356</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0109022427691003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0100976537193573</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.00936592341283526</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0086992884409266</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00809092344229245</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.00753481723894933</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.00702566604389143</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.00655878147498545</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.00613001133442914</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.00573567135338082</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.00537248633462273</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.00503753934120532</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0047282277713343</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.00444222532844829</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.00417744904150552</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.00393203061592284</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="72090918"/>
+        <c:axId val="62058123"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="72090918"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62058123"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62058123"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72090918"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>連立方程式の解</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0222718794328042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.052856559884987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0748879840653463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0968314868669002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.101205178090215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0993475207944385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0959083181081522</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0818101877964129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0686605022543779</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0658089736999936</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.049861155489337</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0442618125435981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0290390775740961</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0264169776330741</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0207083183403241</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0166397985115836</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0127106996994426</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0131848782902455</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.00509404808802815</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0128904932837563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>対数正規分布による近似</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$G$2:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.00168028202491805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0152493420499353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.044076813617021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0746394350860756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09538700126631</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.103602819601738</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.101771201289688</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0936769610999487</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0825543182090517</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0706174032416117</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0591710841062567</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0488704650229718</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0399603139868498</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0324506915796728</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0262318399563281</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.021143672584795</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0170149191028999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0136833479016433</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0110048150546118</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.00885606408683104</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.00713426401785777</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="47078477"/>
+        <c:axId val="72493723"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="47078477"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72493723"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="72493723"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47078477"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>連立方程式の解</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0000ff"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="0000ff"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0222718794328042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.052856559884987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0748879840653463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0968314868669002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.101205178090215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0993475207944385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0959083181081522</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0818101877964129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0686605022543779</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0658089736999936</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.049861155489337</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0442618125435981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0290390775740961</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0264169776330741</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0207083183403241</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0166397985115836</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0127106996994426</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0131848782902455</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.00509404808802815</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0128904932837563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>対数正規分布による近似</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$G$2:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.00168028202491805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0152493420499353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.044076813617021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0746394350860756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09538700126631</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.103602819601738</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.101771201289688</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0936769610999487</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0825543182090517</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0706174032416117</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0591710841062567</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0488704650229718</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0399603139868498</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0324506915796728</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0262318399563281</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.021143672584795</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0170149191028999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0136833479016433</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0110048150546118</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.00885606408683104</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.00713426401785777</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="11181155"/>
+        <c:axId val="70982716"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="11181155"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Hiragino Sans"/>
+                    <a:ea typeface="Hiragino Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Hiragino Sans"/>
+                    <a:ea typeface="Hiragino Sans"/>
+                  </a:rPr>
+                  <a:t>aの添字</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Hiragino Sans"/>
+                <a:ea typeface="Hiragino Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70982716"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="70982716"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Hiragino Sans"/>
+                <a:ea typeface="Hiragino Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11181155"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Hiragino Sans"/>
+              <a:ea typeface="Hiragino Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>連立方程式の解</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$J$2:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$K$2:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0222718794328042</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.052856559884987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0748879840653463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0968314868669002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.101205178090215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0993475207944385</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0959083181081522</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0818101877964129</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0686605022543779</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0658089736999936</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.049861155489337</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0442618125435981</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0290390775740961</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0264169776330741</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0207083183403241</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0166397985115836</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0127106996994426</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0131848782902455</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.00509404808802815</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>対数正規分布による近似</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$J$2:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$N$2:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.83800765652516E-006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00167244401726152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0152493420499353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.044076813617021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0746394350860757</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0953870012663099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.103602819601738</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.101771201289688</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0936769610999487</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0825543182090517</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0706174032416117</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0591710841062567</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0488704650229718</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0399603139868498</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0324506915796728</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0262318399563281</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.021143672584795</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0170149191028999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0136833479016433</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0110048150546118</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.00885606408683104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.00713426401785777</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.00575502606784517</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.00464986984516613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="84422637"/>
+        <c:axId val="5379342"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="84422637"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5379342"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="5379342"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84422637"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>連立方程式の解</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0000ff"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="0000ff"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$J$2:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$K$2:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0222718794328042</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.052856559884987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0748879840653463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0968314868669002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.101205178090215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0993475207944385</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0959083181081522</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0818101877964129</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0686605022543779</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0658089736999936</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.049861155489337</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0442618125435981</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0290390775740961</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0264169776330741</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0207083183403241</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0166397985115836</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0127106996994426</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0131848782902455</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.00509404808802815</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>対数正規分布による近似</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$J$2:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$N$2:$N$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.83800765652516E-006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00167244401726152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0152493420499353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.044076813617021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0746394350860757</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0953870012663099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.103602819601738</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.101771201289688</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0936769610999487</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0825543182090517</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0706174032416117</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0591710841062567</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0488704650229718</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0399603139868498</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0324506915796728</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0262318399563281</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.021143672584795</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0170149191028999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0136833479016433</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0110048150546118</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.00885606408683104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.00713426401785777</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.00575502606784517</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.00464986984516613</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.00376365054180605</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.00305219308422111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="87480300"/>
+        <c:axId val="7679090"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="87480300"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="29"/>
+          <c:min val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Hiragino Sans"/>
+                    <a:ea typeface="Hiragino Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Hiragino Sans"/>
+                    <a:ea typeface="Hiragino Sans"/>
+                  </a:rPr>
+                  <a:t>aの添字（日後）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Hiragino Sans"/>
+                <a:ea typeface="Hiragino Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7679090"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="7679090"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Hiragino Sans"/>
+                <a:ea typeface="Hiragino Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87480300"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Hiragino Sans"/>
+              <a:ea typeface="Hiragino Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>累積</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0222718794328042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0751284393177912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.150016423383138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.246847910250038</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.348053088340253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.447400609134691</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.543308927242843</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.625119115039256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.693779617293634</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.759588590993628</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.809449746482965</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.853711559026563</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.882750636600659</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.909167614233733</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.929875932574057</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.946515731085641</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.959226430785083</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.972411309075329</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.977505357163357</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.990395850447113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>累積</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$F$2:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.00168028202491805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0169296240748534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0610064376918744</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13564587277795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23103287404426</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.334635693645998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.436406894935686</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.530083856035635</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.612638174244687</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.683255577486298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.742426661592555</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.791297126615527</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.831257440602377</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.863708132182049</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.889939972138378</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.911083644723172</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.928098563826072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.941781911727716</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.952786726782327</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.961642790869158</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.968777054887016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="34655245"/>
+        <c:axId val="85288757"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="34655245"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85288757"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85288757"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="34655245"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>確率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.0222718794328042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.052856559884987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0748879840653463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0968314868669002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.101205178090215</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0993475207944385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0959083181081522</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0818101877964129</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0686605022543779</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0658089736999936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.049861155489337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0442618125435981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0290390775740961</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0264169776330741</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0207083183403241</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0166397985115836</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0127106996994426</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0131848782902455</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.00509404808802815</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0128904932837563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="63645627"/>
+        <c:axId val="26688987"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="63645627"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+          <c:min val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Hiragino Sans"/>
+                <a:ea typeface="Hiragino Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26688987"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="26688987"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Hiragino Sans"/>
+                <a:ea typeface="Hiragino Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63645627"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>感染日（80%削減）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.000" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.34615384615385</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.34615384615385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6923076923077</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6923076923077</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.03846153846154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.38461538461539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.73076923076923</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.42307692307693</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.1153846153846</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.8846153846154</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.9615384615385</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.0769230769231</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59.2307692307692</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79.4230769230769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>109.045192307692</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>149.429807692308</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>203.275961538462</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>278.660576923077</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>379.622115384615</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>519.622115384615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="39216450"/>
+        <c:axId val="72315572"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="39216450"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72315572"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="72315572"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39216450"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1260,7 +5302,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart287.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1358,11 +5400,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="82301264"/>
-        <c:axId val="54692181"/>
+        <c:axId val="56962281"/>
+        <c:axId val="25852482"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82301264"/>
+        <c:axId val="56962281"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,14 +5432,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54692181"/>
+        <c:crossAx val="25852482"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54692181"/>
+        <c:axId val="25852482"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,7 +5476,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82301264"/>
+        <c:crossAx val="56962281"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1481,7 +5523,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart288.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1582,11 +5624,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="33209692"/>
-        <c:axId val="39226092"/>
+        <c:axId val="27723879"/>
+        <c:axId val="16755577"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="33209692"/>
+        <c:axId val="27723879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1614,14 +5656,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39226092"/>
+        <c:crossAx val="16755577"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39226092"/>
+        <c:axId val="16755577"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,7 +5700,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33209692"/>
+        <c:crossAx val="27723879"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1705,7 +5747,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart289.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1809,11 +5851,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="60889142"/>
-        <c:axId val="65002343"/>
+        <c:axId val="52127984"/>
+        <c:axId val="43921545"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60889142"/>
+        <c:axId val="52127984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,14 +5883,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65002343"/>
+        <c:crossAx val="43921545"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65002343"/>
+        <c:axId val="43921545"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1885,7 +5927,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60889142"/>
+        <c:crossAx val="52127984"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1932,7 +5974,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart290.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2048,11 +6090,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="26052265"/>
-        <c:axId val="79113356"/>
+        <c:axId val="57084056"/>
+        <c:axId val="87568205"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="26052265"/>
+        <c:axId val="57084056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,14 +6122,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79113356"/>
+        <c:crossAx val="87568205"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79113356"/>
+        <c:axId val="87568205"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2124,7 +6166,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26052265"/>
+        <c:crossAx val="57084056"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2171,7 +6213,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart291.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2313,11 +6355,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="64375061"/>
-        <c:axId val="1691785"/>
+        <c:axId val="43125737"/>
+        <c:axId val="98980703"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64375061"/>
+        <c:axId val="43125737"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2345,14 +6387,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691785"/>
+        <c:crossAx val="98980703"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691785"/>
+        <c:axId val="98980703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,7 +6431,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64375061"/>
+        <c:crossAx val="43125737"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2437,7 +6479,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart292.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2696,11 +6738,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="86352527"/>
-        <c:axId val="50028741"/>
+        <c:axId val="13067489"/>
+        <c:axId val="80426518"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86352527"/>
+        <c:axId val="13067489"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,14 +6770,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50028741"/>
+        <c:crossAx val="80426518"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50028741"/>
+        <c:axId val="80426518"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2772,7 +6814,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86352527"/>
+        <c:crossAx val="13067489"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2820,7 +6862,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart293.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2958,11 +7000,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="85896895"/>
-        <c:axId val="94157790"/>
+        <c:axId val="24469293"/>
+        <c:axId val="27821158"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85896895"/>
+        <c:axId val="24469293"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2990,14 +7032,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94157790"/>
+        <c:crossAx val="27821158"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94157790"/>
+        <c:axId val="27821158"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3034,7 +7076,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85896895"/>
+        <c:crossAx val="24469293"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3082,4052 +7124,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart294.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="line"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>26/avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$E$2:$E$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$K$2:$K$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.0128904932837563</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.00509404808802815</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0131848782902455</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0127106996994427</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0166397985115836</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.020708318340324</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0264169776330741</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0290390775740961</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0442618125435981</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.049861155489337</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0658089736999937</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0686605022543779</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0818101877964129</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0959083181081523</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0993475207944385</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.101205178090215</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0968314868669001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0748879840653463</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.052856559884987</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0222718794328042</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="83182659"/>
-        <c:axId val="74737746"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="83182659"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="74737746"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="74737746"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="83182659"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart295.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$L$2:$L$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.0209968318652202</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0578550524286772</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0703162989778507</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0945700207210482</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.104942271784255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.098895562650128</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0964712453032246</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0809469792936124</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0670079845228297</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0661264024388064</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.052158621049925</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0460529839826458</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0254285710818039</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.023539028105354</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0281432800234436</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.00930674011170574</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0167884458565697</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0135026824476707</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.00456651485771431</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.0135508530706829</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0350690863766374</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="26134315"/>
-        <c:axId val="54798819"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="26134315"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="54798819"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="54798819"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="26134315"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart296.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$E$3:$E$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>0.0106510993417001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0537603104516631</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.114300045049152</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.179757213895785</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.244108595785583</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.304736582510232</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.360667582622649</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.411711891857455</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.458044872785659</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.537965771424617</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.572334808836768</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.603479689632152</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.631742607836675</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.657432169485154</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.680823787674827</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.702161792699145</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.721662252065084</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.739515971034705</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.755891404214417</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.770937350975443</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.784785384817143</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.797552007950479</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.809340543335114</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.820242786104215</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.830340439823572</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.839706363236407</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.848405651677334</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.856496575119626</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.864031392358576</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.871057058402467</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.877615839877453</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.883745851211882</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.889481522565263</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.894854008899885</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.89989154824109</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.904619776012425</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.909062001340873</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.913239450382379</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.917171480998301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="40032842"/>
-        <c:axId val="9921910"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="40032842"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="9921910"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="9921910"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="40032842"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart297.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$F$3:$F$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>0.0106510993417001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.043109211109963</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0605397345974884</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0654571688466338</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0643513818897974</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.060627986724649</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0559310001124174</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0510443092348058</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0463329809282039</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0419551272143411</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.037965771424617</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0343690374121514</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0311448807953834</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0282629182045236</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0256895616484787</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0233916181896726</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0213380050243186</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0195004593659392</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0178537189696206</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.016375433179712</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.015045946761026</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0138480338416997</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0127666231333358</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0117885353846356</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0109022427691003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0100976537193573</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.00936592341283526</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.0086992884409266</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.00809092344229245</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.00753481723894933</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.00702566604389143</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.00655878147498545</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.00613001133442914</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.00573567135338082</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.00537248633462273</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.00503753934120532</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0047282277713343</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.00444222532844829</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.00417744904150552</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.00393203061592284</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="37904361"/>
-        <c:axId val="48913742"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="37904361"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="48913742"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="48913742"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="37904361"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart298.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>連立方程式の解</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$C$2:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0222718794328042</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.052856559884987</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0748879840653463</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0968314868669002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.101205178090215</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0993475207944385</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0959083181081522</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0818101877964129</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0686605022543779</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0658089736999936</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.049861155489337</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0442618125435981</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0290390775740961</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0264169776330741</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0207083183403241</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0166397985115836</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0127106996994426</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0131848782902455</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.00509404808802815</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0128904932837563</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>対数正規分布による近似</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$G$2:$G$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.00168028202491805</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0152493420499353</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.044076813617021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0746394350860757</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0953870012663099</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.103602819601738</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.101771201289688</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0936769610999487</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0825543182090517</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0706174032416117</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0591710841062567</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0488704650229718</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0399603139868498</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0324506915796728</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0262318399563281</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.021143672584795</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0170149191028999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0136833479016433</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0110048150546118</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.00885606408683104</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.00713426401785777</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="27194101"/>
-        <c:axId val="54621798"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="27194101"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="54621798"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="54621798"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="27194101"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart299.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="line"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>連立方程式の解</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0000ff"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="0000ff"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="0%" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$C$2:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0222718794328042</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.052856559884987</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0748879840653463</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0968314868669002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.101205178090215</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0993475207944385</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0959083181081522</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0818101877964129</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0686605022543779</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0658089736999936</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.049861155489337</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0442618125435981</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0290390775740961</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0264169776330741</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0207083183403241</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0166397985115836</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0127106996994426</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0131848782902455</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.00509404808802815</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0128904932837563</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>対数正規分布による近似</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff0000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="0%" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$G$2:$G$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.00168028202491805</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0152493420499353</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.044076813617021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0746394350860757</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0953870012663099</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.103602819601738</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.101771201289688</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0936769610999487</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0825543182090517</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0706174032416117</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0591710841062567</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0488704650229718</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0399603139868498</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0324506915796728</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0262318399563281</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.021143672584795</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0170149191028999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0136833479016433</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0110048150546118</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.00885606408683104</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.00713426401785777</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="46220375"/>
-        <c:axId val="97063462"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="46220375"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="25"/>
-          <c:min val="5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Hiragino Sans"/>
-                    <a:ea typeface="Hiragino Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Hiragino Sans"/>
-                    <a:ea typeface="Hiragino Sans"/>
-                  </a:rPr>
-                  <a:t>aの添字</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Hiragino Sans"/>
-                <a:ea typeface="Hiragino Sans"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="97063462"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="97063462"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Hiragino Sans"/>
-                <a:ea typeface="Hiragino Sans"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="46220375"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Hiragino Sans"/>
-              <a:ea typeface="Hiragino Sans"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart300.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="line"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>連立方程式の解</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$J$2:$J$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>27</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$K$2:$K$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0222718794328042</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.052856559884987</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0748879840653463</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0968314868669002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.101205178090215</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0993475207944385</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0959083181081522</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0818101877964129</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0686605022543779</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0658089736999936</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.049861155489337</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0442618125435981</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0290390775740961</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0264169776330741</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0207083183403241</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0166397985115836</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0127106996994426</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0131848782902455</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.00509404808802815</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>対数正規分布による近似</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$J$2:$J$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>27</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$N$2:$N$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.83800765652516E-006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.00167244401726152</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0152493420499353</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.044076813617021</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0746394350860757</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0953870012663099</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.103602819601738</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.101771201289688</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0936769610999487</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0825543182090517</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0706174032416117</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0591710841062567</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0488704650229718</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0399603139868498</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0324506915796728</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0262318399563281</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.021143672584795</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0170149191028999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0136833479016433</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0110048150546118</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.00885606408683104</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.00713426401785777</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.00575502606784517</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.00464986984516613</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="40747935"/>
-        <c:axId val="5926728"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="40747935"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="5926728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="5926728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="40747935"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart301.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="line"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>連立方程式の解</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0000ff"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="0000ff"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="0%" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$J$2:$J$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$K$2:$K$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0222718794328042</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.052856559884987</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0748879840653463</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0968314868669002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.101205178090215</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0993475207944385</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0959083181081522</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0818101877964129</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0686605022543779</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0658089736999936</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.049861155489337</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0442618125435981</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0290390775740961</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0264169776330741</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0207083183403241</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0166397985115836</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0127106996994426</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0131848782902455</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.00509404808802815</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>対数正規分布による近似</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff0000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="0%" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$J$2:$J$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$N$2:$N$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.83800765652516E-006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.00167244401726152</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0152493420499353</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.044076813617021</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0746394350860757</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0953870012663099</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.103602819601738</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.101771201289688</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0936769610999487</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0825543182090517</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0706174032416117</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0591710841062567</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0488704650229718</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0399603139868498</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0324506915796728</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0262318399563281</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.021143672584795</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0170149191028999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0136833479016433</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0110048150546118</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.00885606408683104</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.00713426401785777</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.00575502606784517</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.00464986984516613</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.00376365054180605</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.00305219308422111</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="46844446"/>
-        <c:axId val="18301534"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="46844446"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="29"/>
-          <c:min val="3"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Hiragino Sans"/>
-                    <a:ea typeface="Hiragino Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Hiragino Sans"/>
-                    <a:ea typeface="Hiragino Sans"/>
-                  </a:rPr>
-                  <a:t>aの添字（日後）</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Hiragino Sans"/>
-                <a:ea typeface="Hiragino Sans"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="18301534"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="18301534"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Hiragino Sans"/>
-                <a:ea typeface="Hiragino Sans"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="46844446"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Hiragino Sans"/>
-              <a:ea typeface="Hiragino Sans"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart302.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>累積</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$D$2:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0222718794328042</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0751284393177912</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.150016423383138</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.246847910250038</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.348053088340253</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.447400609134691</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.543308927242843</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.625119115039256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.693779617293634</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.759588590993628</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.809449746482965</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.853711559026563</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.882750636600659</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.909167614233733</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.929875932574057</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.946515731085641</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.959226430785083</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.972411309075329</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.977505357163357</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.990395850447113</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>累積</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$F$2:$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.00168028202491805</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0169296240748534</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0610064376918744</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13564587277795</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.23103287404426</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.334635693645998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.436406894935686</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.530083856035635</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.612638174244687</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.683255577486298</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.742426661592555</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.791297126615527</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.831257440602377</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.863708132182049</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.889939972138378</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.911083644723172</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.928098563826072</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.941781911727716</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.952786726782327</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.961642790869158</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.968777054887016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="61531850"/>
-        <c:axId val="23611169"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="61531850"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="23611169"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="23611169"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="61531850"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart303.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="line"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>確率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="0%" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet5!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet5!$B$2:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.0222718794328042</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.052856559884987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0748879840653463</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0968314868669002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.101205178090215</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0993475207944385</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0959083181081522</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0818101877964129</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0686605022543779</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0658089736999936</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.049861155489337</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0442618125435981</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0290390775740961</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0264169776330741</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0207083183403241</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0166397985115836</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0127106996994426</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0131848782902455</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.00509404808802815</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0128904932837563</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="26968731"/>
-        <c:axId val="91246721"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="26968731"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="25"/>
-          <c:min val="6"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Hiragino Sans"/>
-                <a:ea typeface="Hiragino Sans"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="91246721"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="91246721"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Hiragino Sans"/>
-                <a:ea typeface="Hiragino Sans"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="26968731"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -7139,9 +7135,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>806040</xdr:colOff>
+      <xdr:colOff>805680</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7150,7 +7146,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="14283000" y="7416000"/>
-        <a:ext cx="5758200" cy="3238200"/>
+        <a:ext cx="5757840" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7169,9 +7165,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>304200</xdr:colOff>
+      <xdr:colOff>303840</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7180,7 +7176,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7267320" y="1220400"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7204,9 +7200,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>113400</xdr:colOff>
+      <xdr:colOff>113040</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7215,7 +7211,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10904040" y="507240"/>
-        <a:ext cx="5767560" cy="3238560"/>
+        <a:ext cx="5767200" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7234,9 +7230,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>421200</xdr:colOff>
+      <xdr:colOff>420840</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7245,7 +7241,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10887840" y="4083480"/>
-        <a:ext cx="6091560" cy="3238560"/>
+        <a:ext cx="6091200" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7264,9 +7260,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
+      <xdr:colOff>293400</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7275,7 +7271,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10774800" y="7692480"/>
-        <a:ext cx="6077160" cy="3238560"/>
+        <a:ext cx="6076800" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7294,9 +7290,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>299160</xdr:colOff>
+      <xdr:colOff>298800</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7305,7 +7301,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1044360" y="6734520"/>
-        <a:ext cx="5767200" cy="3238560"/>
+        <a:ext cx="5766840" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7324,9 +7320,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>751320</xdr:colOff>
+      <xdr:colOff>750960</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7335,7 +7331,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4219200" y="4053600"/>
-        <a:ext cx="5763600" cy="3238560"/>
+        <a:ext cx="5763240" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7354,9 +7350,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>162720</xdr:colOff>
+      <xdr:colOff>162360</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7365,7 +7361,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6885360" y="5400360"/>
-        <a:ext cx="5765040" cy="3238560"/>
+        <a:ext cx="5764680" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7384,9 +7380,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>707040</xdr:colOff>
+      <xdr:colOff>706680</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7395,7 +7391,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12311640" y="245160"/>
-        <a:ext cx="5767560" cy="3238560"/>
+        <a:ext cx="5767200" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7414,9 +7410,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>638640</xdr:colOff>
+      <xdr:colOff>638280</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7425,7 +7421,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3292200" y="3612600"/>
-        <a:ext cx="5763960" cy="3238560"/>
+        <a:ext cx="5763600" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7444,9 +7440,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>155520</xdr:colOff>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7455,7 +7451,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="906480" y="2834280"/>
-        <a:ext cx="5761440" cy="3238920"/>
+        <a:ext cx="5761080" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7479,9 +7475,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>240840</xdr:colOff>
+      <xdr:colOff>240480</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7490,7 +7486,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5844600" y="233640"/>
-        <a:ext cx="4164840" cy="3238560"/>
+        <a:ext cx="4164480" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7509,9 +7505,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>632880</xdr:colOff>
+      <xdr:colOff>632520</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7520,7 +7516,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5609520" y="3763080"/>
-        <a:ext cx="4791960" cy="3238560"/>
+        <a:ext cx="4791600" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7544,9 +7540,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>363960</xdr:colOff>
+      <xdr:colOff>363600</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7555,7 +7551,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7548120" y="4843800"/>
-        <a:ext cx="6758280" cy="3794400"/>
+        <a:ext cx="6757920" cy="3794040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7574,9 +7570,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>205200</xdr:colOff>
+      <xdr:colOff>204840</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7585,7 +7581,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="610200" y="5668200"/>
-        <a:ext cx="6830640" cy="3841920"/>
+        <a:ext cx="6830280" cy="3841560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7604,9 +7600,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>915840</xdr:colOff>
+      <xdr:colOff>915480</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7615,7 +7611,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7344720" y="5853240"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7634,9 +7630,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>764280</xdr:colOff>
+      <xdr:colOff>763920</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7645,7 +7641,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2809080" y="4725360"/>
-        <a:ext cx="6977880" cy="4260960"/>
+        <a:ext cx="6977520" cy="4260600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7664,9 +7660,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>554760</xdr:colOff>
+      <xdr:colOff>554400</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7675,7 +7671,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11638800" y="5400360"/>
-        <a:ext cx="5767560" cy="3853080"/>
+        <a:ext cx="5767560" cy="3852720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7699,9 +7695,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>365040</xdr:colOff>
+      <xdr:colOff>364680</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7709,8 +7705,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4362480" y="974160"/>
-        <a:ext cx="5763600" cy="3239280"/>
+        <a:off x="4365720" y="974160"/>
+        <a:ext cx="5767560" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7731,7 +7727,7 @@
   <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="E3:E82 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="G2:G11 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10182,7 +10178,7 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="1" sqref="E3:E82 K1"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="1" sqref="G2:G11 K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10895,7 +10891,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S34" activeCellId="1" sqref="E3:E82 S34"/>
+      <selection pane="topLeft" activeCell="S34" activeCellId="1" sqref="G2:G11 S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11969,8 +11965,8 @@
   </sheetPr>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P27" activeCellId="1" sqref="E3:E82 P27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11982,7 +11978,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="23.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="17.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="17.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="10.87"/>
   </cols>
   <sheetData>
@@ -12105,7 +12101,7 @@
       </c>
       <c r="H3" s="1" t="n">
         <f aca="false">POWER(C3-G3,2)</f>
-        <v>4.93160312937906E-005</v>
+        <v>4.93160312937905E-005</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>4</v>
@@ -12155,7 +12151,7 @@
       </c>
       <c r="H4" s="1" t="n">
         <f aca="false">POWER(C4-G4,2)</f>
-        <v>7.70839445298627E-005</v>
+        <v>7.70839445298629E-005</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>5</v>
@@ -12201,11 +12197,11 @@
       </c>
       <c r="G5" s="1" t="n">
         <f aca="false">F5-F4</f>
-        <v>0.0746394350860757</v>
+        <v>0.0746394350860756</v>
       </c>
       <c r="H5" s="1" t="n">
         <f aca="false">POWER(C5-G5,2)</f>
-        <v>6.17765950964416E-008</v>
+        <v>6.17765950965036E-008</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>6</v>
@@ -12254,11 +12250,11 @@
       </c>
       <c r="G6" s="1" t="n">
         <f aca="false">F6-F5</f>
-        <v>0.0953870012663099</v>
+        <v>0.09538700126631</v>
       </c>
       <c r="H6" s="1" t="n">
         <f aca="false">POWER(C6-G6,2)</f>
-        <v>2.08653865031275E-006</v>
+        <v>2.08653865031242E-006</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>7</v>
@@ -12311,7 +12307,7 @@
       </c>
       <c r="H7" s="1" t="n">
         <f aca="false">POWER(C7-G7,2)</f>
-        <v>5.74868481777775E-006</v>
+        <v>5.74868481777841E-006</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>8</v>
@@ -12364,7 +12360,7 @@
       </c>
       <c r="H8" s="1" t="n">
         <f aca="false">POWER(C8-G8,2)</f>
-        <v>5.87422714305437E-006</v>
+        <v>5.87422714305276E-006</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>9</v>
@@ -13134,7 +13130,7 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H23" s="1" t="n">
         <f aca="false">SUM(H2:H22)/21</f>
-        <v>1.33758060419338E-005</v>
+        <v>1.33758060419337E-005</v>
       </c>
       <c r="J23" s="1" t="n">
         <v>24</v>
@@ -13340,7 +13336,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="1" sqref="E3:E82 C26"/>
+      <selection pane="topLeft" activeCell="C26" activeCellId="1" sqref="G2:G11 C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13535,15 +13531,14 @@
   </sheetPr>
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E82" activeCellId="0" sqref="E3:E82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D54" activeCellId="1" sqref="G2:G11 D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="10" width="16.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="5" style="11" width="10.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="12" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="11" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
